--- a/SourceDetection/data/result.xlsx
+++ b/SourceDetection/data/result.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="scale-free SI" sheetId="1" r:id="rId1"/>
     <sheet name="pwer-grid SI" sheetId="2" r:id="rId2"/>
     <sheet name="wiki-vote SI" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>GSBA-DMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFSA-RC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,6 +125,19 @@
   </si>
   <si>
     <t>ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;cla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (&lt;cl</t>
+  </si>
+  <si>
+    <t>BFSA-JC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +537,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61:R66"/>
+      <selection activeCell="M67" activeCellId="2" sqref="M55:R60 M64:R64 M67:R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,20 +548,20 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
         <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -614,52 +623,52 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C6">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="D6">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="E6">
+        <v>0.27</v>
+      </c>
+      <c r="F6">
         <v>0.26</v>
       </c>
-      <c r="F6">
-        <v>0.25</v>
-      </c>
       <c r="G6">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="H6">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I6">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="K6">
-        <v>0.62</v>
+        <v>0.626</v>
       </c>
       <c r="L6">
-        <v>0.45200000000000001</v>
+        <v>0.438</v>
       </c>
       <c r="M6">
-        <v>0.33</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="N6">
-        <v>0.30399999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O6">
-        <v>0.27</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="P6">
-        <v>0.25600000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.21199999999999999</v>
+        <v>0.218</v>
       </c>
       <c r="R6">
-        <v>0.182</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -667,52 +676,52 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.64</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C7">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="D7">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="E7">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I7">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="K7">
-        <v>0.62</v>
+        <v>0.626</v>
       </c>
       <c r="L7">
-        <v>0.46</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="M7">
-        <v>0.33200000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="N7">
-        <v>0.30199999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O7">
-        <v>0.26600000000000001</v>
+        <v>0.248</v>
       </c>
       <c r="P7">
-        <v>0.24399999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="Q7">
         <v>0.22</v>
       </c>
       <c r="R7">
-        <v>0.18</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -720,52 +729,52 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.64</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C8">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.27</v>
+      </c>
+      <c r="G8">
+        <v>0.23</v>
+      </c>
+      <c r="H8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G8">
-        <v>0.33</v>
-      </c>
-      <c r="H8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I8">
-        <v>0.34</v>
-      </c>
       <c r="K8">
-        <v>0.62</v>
+        <v>0.626</v>
       </c>
       <c r="L8">
-        <v>0.40600000000000003</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="M8">
-        <v>0.32400000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="N8">
-        <v>0.33</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="O8">
-        <v>0.28599999999999998</v>
+        <v>0.318</v>
       </c>
       <c r="P8">
-        <v>0.30399999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q8">
-        <v>0.312</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="R8">
-        <v>0.29199999999999998</v>
+        <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -773,52 +782,52 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C9">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="E9">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F9">
+        <v>0.27</v>
+      </c>
+      <c r="G9">
         <v>0.25</v>
       </c>
-      <c r="G9">
-        <v>0.22</v>
-      </c>
       <c r="H9">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I9">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="K9">
-        <v>0.622</v>
+        <v>0.626</v>
       </c>
       <c r="L9">
-        <v>0.44400000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="M9">
         <v>0.32800000000000001</v>
       </c>
       <c r="N9">
-        <v>0.29599999999999999</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="O9">
-        <v>0.26600000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="P9">
-        <v>0.24399999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="Q9">
         <v>0.21199999999999999</v>
       </c>
       <c r="R9">
-        <v>0.182</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -826,52 +835,52 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="D10">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E10">
         <v>0.23</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="H10">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I10">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="K10">
-        <v>0.63</v>
+        <v>0.622</v>
       </c>
       <c r="L10">
-        <v>0.40799999999999997</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="M10">
-        <v>0.29799999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="N10">
-        <v>0.26</v>
+        <v>0.252</v>
       </c>
       <c r="O10">
-        <v>0.23799999999999999</v>
+        <v>0.216</v>
       </c>
       <c r="P10">
-        <v>0.19600000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.17599999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="R10">
-        <v>0.152</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -879,52 +888,52 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="C11">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="D11">
-        <v>0.67</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E11">
-        <v>0.57999999999999996</v>
+        <v>0.61</v>
       </c>
       <c r="F11">
+        <v>0.62</v>
+      </c>
+      <c r="G11">
+        <v>0.51</v>
+      </c>
+      <c r="H11">
         <v>0.63</v>
       </c>
-      <c r="G11">
-        <v>0.62</v>
-      </c>
-      <c r="H11">
-        <v>0.51</v>
-      </c>
       <c r="I11">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="K11">
-        <v>0.76400000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="L11">
-        <v>0.64400000000000002</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="M11">
-        <v>0.624</v>
+        <v>0.622</v>
       </c>
       <c r="N11">
-        <v>0.61</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="O11">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="Q11">
         <v>0.58599999999999997</v>
       </c>
-      <c r="P11">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="Q11">
-        <v>0.59399999999999997</v>
-      </c>
       <c r="R11">
-        <v>0.55000000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -932,52 +941,52 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="D12">
+        <v>0.53</v>
+      </c>
+      <c r="E12">
+        <v>0.47</v>
+      </c>
+      <c r="F12">
         <v>0.51</v>
       </c>
-      <c r="E12">
-        <v>0.48</v>
-      </c>
-      <c r="F12">
-        <v>0.54</v>
-      </c>
       <c r="G12">
-        <v>0.43</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H12">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="I12">
+        <v>0.37</v>
+      </c>
+      <c r="K12">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="L12">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="N12">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="P12">
         <v>0.44</v>
       </c>
-      <c r="K12">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="L12">
-        <v>0.62</v>
-      </c>
-      <c r="M12">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="N12">
-        <v>0.48</v>
-      </c>
-      <c r="O12">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="P12">
-        <v>0.46</v>
-      </c>
       <c r="Q12">
-        <v>0.44600000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="R12">
-        <v>0.40600000000000003</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -985,52 +994,52 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="C13">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="D13">
-        <v>0.67</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E13">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="F13">
+        <v>0.51</v>
+      </c>
+      <c r="G13">
+        <v>0.47</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>0.36</v>
+      </c>
+      <c r="K13">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="M13">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="N13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G13">
-        <v>0.5</v>
-      </c>
-      <c r="H13">
-        <v>0.4</v>
-      </c>
-      <c r="I13">
-        <v>0.45</v>
-      </c>
-      <c r="K13">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="L13">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="M13">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="N13">
-        <v>0.54600000000000004</v>
-      </c>
       <c r="O13">
-        <v>0.51400000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="P13">
-        <v>0.50800000000000001</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="Q13">
-        <v>0.48799999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="R13">
-        <v>0.42599999999999999</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -1038,52 +1047,52 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="C14">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="D14">
-        <v>0.56999999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="E14">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="F14">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="G14">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="H14">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="I14">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="K14">
-        <v>0.72599999999999998</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="L14">
         <v>0.65200000000000002</v>
       </c>
       <c r="M14">
-        <v>0.56799999999999995</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="N14">
-        <v>0.496</v>
+        <v>0.51</v>
       </c>
       <c r="O14">
-        <v>0.498</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="P14">
-        <v>0.442</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="Q14">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="R14">
-        <v>0.40400000000000003</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -1091,52 +1100,52 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="C15">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="D15">
-        <v>0.57999999999999996</v>
+        <v>0.53</v>
       </c>
       <c r="E15">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="F15">
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G15">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="I15">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="K15">
-        <v>0.746</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="L15">
-        <v>0.64600000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="M15">
-        <v>0.57199999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N15">
-        <v>0.5</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="O15">
-        <v>0.51400000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="P15">
-        <v>0.46800000000000003</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="Q15">
-        <v>0.46800000000000003</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="R15">
-        <v>0.40799999999999997</v>
+        <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -1144,52 +1153,52 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="C16">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="D16">
-        <v>0.56999999999999995</v>
+        <v>0.54</v>
       </c>
       <c r="E16">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="F16">
         <v>0.53</v>
       </c>
       <c r="G16">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="I16">
+        <v>0.35</v>
+      </c>
+      <c r="K16">
+        <v>0.7</v>
+      </c>
+      <c r="L16">
+        <v>0.65</v>
+      </c>
+      <c r="M16">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.51</v>
+      </c>
+      <c r="O16">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="P16">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="Q16">
         <v>0.47</v>
       </c>
-      <c r="K16">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="L16">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="M16">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="N16">
-        <v>0.498</v>
-      </c>
-      <c r="O16">
-        <v>0.504</v>
-      </c>
-      <c r="P16">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="Q16">
-        <v>0.45200000000000001</v>
-      </c>
       <c r="R16">
-        <v>0.40799999999999997</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
@@ -1197,110 +1206,110 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="C17">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="D17">
-        <v>0.66</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E17">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="F17">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>0.63</v>
+      </c>
+      <c r="I17">
+        <v>0.52</v>
+      </c>
+      <c r="K17">
+        <v>0.752</v>
+      </c>
+      <c r="L17">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="M17">
         <v>0.62</v>
       </c>
-      <c r="H17">
-        <v>0.51</v>
-      </c>
-      <c r="I17">
-        <v>0.61</v>
-      </c>
-      <c r="K17">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="L17">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="M17">
-        <v>0.63200000000000001</v>
-      </c>
       <c r="N17">
-        <v>0.61599999999999999</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="O17">
-        <v>0.59799999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="P17">
-        <v>0.56999999999999995</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="Q17">
-        <v>0.59</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="R17">
-        <v>0.55200000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="C18">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="D18">
+        <v>0.6</v>
+      </c>
+      <c r="E18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F18">
+        <v>0.67</v>
+      </c>
+      <c r="G18">
+        <v>0.59</v>
+      </c>
+      <c r="H18">
+        <v>0.65</v>
+      </c>
+      <c r="I18">
+        <v>0.51</v>
+      </c>
+      <c r="K18">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="M18">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="N18">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="P18">
+        <v>0.61</v>
+      </c>
+      <c r="Q18">
         <v>0.62</v>
       </c>
-      <c r="E18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H18">
-        <v>0.44</v>
-      </c>
-      <c r="I18">
-        <v>0.47</v>
-      </c>
-      <c r="K18">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="L18">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="M18">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="N18">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="O18">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="P18">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="Q18">
-        <v>0.51400000000000001</v>
-      </c>
       <c r="R18">
-        <v>0.47199999999999998</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1362,52 +1371,52 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0.211154905333305</v>
+        <v>0.25907415782587301</v>
       </c>
       <c r="C23">
-        <v>0.407236857570623</v>
+        <v>0.29617624039596802</v>
       </c>
       <c r="D23">
-        <v>0.41223844511551899</v>
+        <v>0.42427212234286299</v>
       </c>
       <c r="E23">
-        <v>0.54590521321113705</v>
+        <v>0.48210410709596002</v>
       </c>
       <c r="F23">
-        <v>0.498272745638493</v>
+        <v>0.494685010986185</v>
       </c>
       <c r="G23">
-        <v>0.56299534993639799</v>
+        <v>0.49576765906569498</v>
       </c>
       <c r="H23">
-        <v>0.62488365837514703</v>
+        <v>0.60274787911123895</v>
       </c>
       <c r="I23">
-        <v>0.60213191049432702</v>
+        <v>0.68312189600276496</v>
       </c>
       <c r="K23">
-        <v>0.224465032330769</v>
+        <v>0.22295309823452999</v>
       </c>
       <c r="L23">
-        <v>0.34272442238067502</v>
+        <v>0.353101759601188</v>
       </c>
       <c r="M23">
-        <v>0.43101495386657301</v>
+        <v>0.43285750356422298</v>
       </c>
       <c r="N23">
-        <v>0.45884653251290702</v>
+        <v>0.47733347883448701</v>
       </c>
       <c r="O23">
-        <v>0.489182397919395</v>
+        <v>0.50547837912017302</v>
       </c>
       <c r="P23">
-        <v>0.53166939429398496</v>
+        <v>0.54807935061817603</v>
       </c>
       <c r="Q23">
-        <v>0.55255579681715705</v>
+        <v>0.54842579213940101</v>
       </c>
       <c r="R23">
-        <v>0.62759408384563997</v>
+        <v>0.59664144168975997</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
@@ -1415,52 +1424,52 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0.21122655238403401</v>
+        <v>0.26584014652063398</v>
       </c>
       <c r="C24">
-        <v>0.39129132802356198</v>
+        <v>0.28732269415297901</v>
       </c>
       <c r="D24">
-        <v>0.397971585138645</v>
+        <v>0.420775937777144</v>
       </c>
       <c r="E24">
-        <v>0.52145700729493105</v>
+        <v>0.459352975894249</v>
       </c>
       <c r="F24">
-        <v>0.498272745638493</v>
+        <v>0.494685010986185</v>
       </c>
       <c r="G24">
-        <v>0.52825985969110401</v>
+        <v>0.49197256009401202</v>
       </c>
       <c r="H24">
-        <v>0.60160102590225395</v>
+        <v>0.62595643924646804</v>
       </c>
       <c r="I24">
-        <v>0.61676589763242096</v>
+        <v>0.68227433371324697</v>
       </c>
       <c r="K24">
-        <v>0.22353818151173499</v>
+        <v>0.22263083676770701</v>
       </c>
       <c r="L24">
-        <v>0.337065682837074</v>
+        <v>0.33476938470597201</v>
       </c>
       <c r="M24">
-        <v>0.42766216841136101</v>
+        <v>0.43055386616922398</v>
       </c>
       <c r="N24">
-        <v>0.46544171152582797</v>
+        <v>0.47360415920601601</v>
       </c>
       <c r="O24">
-        <v>0.49200394848292001</v>
+        <v>0.51159585783375106</v>
       </c>
       <c r="P24">
-        <v>0.55106917651731402</v>
+        <v>0.54823638011433495</v>
       </c>
       <c r="Q24">
-        <v>0.544824059537385</v>
+        <v>0.55607138831963898</v>
       </c>
       <c r="R24">
-        <v>0.60804791551017801</v>
+        <v>0.59057875440340901</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
@@ -1468,52 +1477,52 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>0.21122655238403401</v>
+        <v>0.26584014652063398</v>
       </c>
       <c r="C25">
-        <v>0.30904948903280399</v>
+        <v>0.37511399247858102</v>
       </c>
       <c r="D25">
-        <v>0.40695959474217702</v>
+        <v>0.482985601437593</v>
       </c>
       <c r="E25">
-        <v>0.50517227316878599</v>
+        <v>0.491692156535327</v>
       </c>
       <c r="F25">
-        <v>0.45731341179187202</v>
+        <v>0.48191281603254099</v>
       </c>
       <c r="G25">
-        <v>0.47570331992805498</v>
+        <v>0.53315666533102102</v>
       </c>
       <c r="H25">
-        <v>0.54240988035273396</v>
+        <v>0.53537721871912902</v>
       </c>
       <c r="I25">
-        <v>0.51840364325398702</v>
+        <v>0.59172568005805604</v>
       </c>
       <c r="K25">
-        <v>0.22353818151173499</v>
+        <v>0.22263083676770701</v>
       </c>
       <c r="L25">
-        <v>0.37504209285197498</v>
+        <v>0.35175013768882102</v>
       </c>
       <c r="M25">
-        <v>0.44093686333348298</v>
+        <v>0.44662048468636301</v>
       </c>
       <c r="N25">
-        <v>0.44737241379780701</v>
+        <v>0.47448302108053803</v>
       </c>
       <c r="O25">
-        <v>0.47885601287596002</v>
+        <v>0.48167408048271998</v>
       </c>
       <c r="P25">
-        <v>0.50685566843898999</v>
+        <v>0.52409949208084605</v>
       </c>
       <c r="Q25">
-        <v>0.50351248882758504</v>
+        <v>0.47344888605907098</v>
       </c>
       <c r="R25">
-        <v>0.53681284259110296</v>
+        <v>0.51734692994198805</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
@@ -1521,52 +1530,52 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0.211154905333305</v>
+        <v>0.25907415782587301</v>
       </c>
       <c r="C26">
-        <v>0.400482419567256</v>
+        <v>0.27629019231386298</v>
       </c>
       <c r="D26">
-        <v>0.397971585138645</v>
+        <v>0.42949708988983398</v>
       </c>
       <c r="E26">
-        <v>0.51891624069384601</v>
+        <v>0.48769463472284302</v>
       </c>
       <c r="F26">
-        <v>0.49695648999078801</v>
+        <v>0.49852228948699101</v>
       </c>
       <c r="G26">
-        <v>0.53419313556324799</v>
+        <v>0.50352169702676597</v>
       </c>
       <c r="H26">
-        <v>0.59079004698392401</v>
+        <v>0.624495533964188</v>
       </c>
       <c r="I26">
-        <v>0.63679019728331199</v>
+        <v>0.724358097937153</v>
       </c>
       <c r="K26">
-        <v>0.22348247816414599</v>
+        <v>0.22295309823452999</v>
       </c>
       <c r="L26">
-        <v>0.34587728372279097</v>
+        <v>0.34655495915929102</v>
       </c>
       <c r="M26">
-        <v>0.43508625866956702</v>
+        <v>0.43061739482896599</v>
       </c>
       <c r="N26">
-        <v>0.47743596050402798</v>
+        <v>0.47753604439828101</v>
       </c>
       <c r="O26">
-        <v>0.49510700742400499</v>
+        <v>0.52431684869346495</v>
       </c>
       <c r="P26">
-        <v>0.55060408521125004</v>
+        <v>0.56945805784438297</v>
       </c>
       <c r="Q26">
-        <v>0.56754152083348097</v>
+        <v>0.56615499456910601</v>
       </c>
       <c r="R26">
-        <v>0.62174406455596498</v>
+        <v>0.60203855292020203</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
@@ -1574,52 +1583,52 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>0.216481231822472</v>
+        <v>0.24158275364960399</v>
       </c>
       <c r="C27">
-        <v>0.321765621295863</v>
+        <v>0.38444149469793398</v>
       </c>
       <c r="D27">
-        <v>0.44227882987716899</v>
+        <v>0.498316623632311</v>
       </c>
       <c r="E27">
-        <v>0.58631283143716995</v>
+        <v>0.54853165646602198</v>
       </c>
       <c r="F27">
-        <v>0.55245449458218698</v>
+        <v>0.53204727528133799</v>
       </c>
       <c r="G27">
-        <v>0.60517648897904697</v>
+        <v>0.52381003557769001</v>
       </c>
       <c r="H27">
-        <v>0.73022075447755097</v>
+        <v>0.65077981728119305</v>
       </c>
       <c r="I27">
-        <v>0.66742056157076202</v>
+        <v>0.74227855554145705</v>
       </c>
       <c r="K27">
-        <v>0.22001777110474899</v>
+        <v>0.228041992671316</v>
       </c>
       <c r="L27">
-        <v>0.38178551162807201</v>
+        <v>0.35757879211773902</v>
       </c>
       <c r="M27">
-        <v>0.47656954168433502</v>
+        <v>0.46065475963040098</v>
       </c>
       <c r="N27">
-        <v>0.49765463691360901</v>
+        <v>0.52797460588118506</v>
       </c>
       <c r="O27">
-        <v>0.53714194195908704</v>
+        <v>0.55501213463577403</v>
       </c>
       <c r="P27">
-        <v>0.60247284698730397</v>
+        <v>0.598166055260965</v>
       </c>
       <c r="Q27">
-        <v>0.63814098049218704</v>
+        <v>0.62661690971114903</v>
       </c>
       <c r="R27">
-        <v>0.68398601911367796</v>
+        <v>0.68029024389095005</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
@@ -1627,52 +1636,52 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>0.19499958729986699</v>
+        <v>0.164732237516654</v>
       </c>
       <c r="C28">
-        <v>0.19784393789706201</v>
+        <v>0.22196640176858301</v>
       </c>
       <c r="D28">
-        <v>0.27219934702642101</v>
+        <v>0.318725919072952</v>
       </c>
       <c r="E28">
-        <v>0.354016071537333</v>
+        <v>0.273707414568788</v>
       </c>
       <c r="F28">
-        <v>0.25940715574928702</v>
+        <v>0.33749646415341</v>
       </c>
       <c r="G28">
-        <v>0.30999518869812798</v>
+        <v>0.33686696657356102</v>
       </c>
       <c r="H28">
-        <v>0.38481813243907897</v>
+        <v>0.30464256635547798</v>
       </c>
       <c r="I28">
-        <v>0.275596136876811</v>
+        <v>0.39750182922166299</v>
       </c>
       <c r="K28">
-        <v>0.163264531638486</v>
+        <v>0.16852656355791201</v>
       </c>
       <c r="L28">
-        <v>0.235862191455987</v>
+        <v>0.20935573281216499</v>
       </c>
       <c r="M28">
-        <v>0.27049348104335902</v>
+        <v>0.27736494233995002</v>
       </c>
       <c r="N28">
-        <v>0.288029285289299</v>
+        <v>0.28887183313416798</v>
       </c>
       <c r="O28">
-        <v>0.31980733146511298</v>
+        <v>0.31109406279562202</v>
       </c>
       <c r="P28">
-        <v>0.34230032111512398</v>
+        <v>0.31589685873416701</v>
       </c>
       <c r="Q28">
-        <v>0.31482690922195</v>
+        <v>0.31888792279593298</v>
       </c>
       <c r="R28">
-        <v>0.36809091457462401</v>
+        <v>0.36006600389917498</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
@@ -1680,52 +1689,52 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>0.20341345578446099</v>
+        <v>0.255175707440295</v>
       </c>
       <c r="C29">
-        <v>0.32207079649500298</v>
+        <v>0.31471663700817598</v>
       </c>
       <c r="D29">
-        <v>0.405338122008016</v>
+        <v>0.35157350129623999</v>
       </c>
       <c r="E29">
-        <v>0.40442532280946902</v>
+        <v>0.39601895464256698</v>
       </c>
       <c r="F29">
-        <v>0.319678090798795</v>
+        <v>0.38171011599031401</v>
       </c>
       <c r="G29">
-        <v>0.45725937309168702</v>
+        <v>0.33072653012458803</v>
       </c>
       <c r="H29">
-        <v>0.46217614110775501</v>
+        <v>0.47518142484326698</v>
       </c>
       <c r="I29">
-        <v>0.45331786968488202</v>
+        <v>0.533497649656555</v>
       </c>
       <c r="K29">
-        <v>0.20642920950767099</v>
+        <v>0.20918578068787999</v>
       </c>
       <c r="L29">
-        <v>0.26580739069017201</v>
+        <v>0.258584026489107</v>
       </c>
       <c r="M29">
-        <v>0.33776177693298798</v>
+        <v>0.352563443829635</v>
       </c>
       <c r="N29">
-        <v>0.39291653636688401</v>
+        <v>0.37970350130936298</v>
       </c>
       <c r="O29">
-        <v>0.38664311086978298</v>
+        <v>0.38512435316819199</v>
       </c>
       <c r="P29">
-        <v>0.44244957451233002</v>
+        <v>0.46526228554027699</v>
       </c>
       <c r="Q29">
-        <v>0.44079950389213202</v>
+        <v>0.44614200332034898</v>
       </c>
       <c r="R29">
-        <v>0.500999107000205</v>
+        <v>0.48204115089227501</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -1733,52 +1742,52 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>0.18074658145144901</v>
+        <v>0.21000911896114399</v>
       </c>
       <c r="C30">
-        <v>0.24028169413709199</v>
+        <v>0.227344871370215</v>
       </c>
       <c r="D30">
-        <v>0.266304903880977</v>
+        <v>0.30672015686694398</v>
       </c>
       <c r="E30">
-        <v>0.36430666316022098</v>
+        <v>0.27713420785415499</v>
       </c>
       <c r="F30">
-        <v>0.28262269941038098</v>
+        <v>0.36476795184116201</v>
       </c>
       <c r="G30">
-        <v>0.36299855524164798</v>
+        <v>0.34848994386156001</v>
       </c>
       <c r="H30">
-        <v>0.41971409683292699</v>
+        <v>0.38237567152298901</v>
       </c>
       <c r="I30">
-        <v>0.41860954818142398</v>
+        <v>0.54550622821856198</v>
       </c>
       <c r="K30">
-        <v>0.15881218665357</v>
+        <v>0.175196191625311</v>
       </c>
       <c r="L30">
-        <v>0.22685618119207901</v>
+        <v>0.200520769913309</v>
       </c>
       <c r="M30">
-        <v>0.29425620571363698</v>
+        <v>0.277176290046526</v>
       </c>
       <c r="N30">
-        <v>0.314987584272652</v>
+        <v>0.31755176743825397</v>
       </c>
       <c r="O30">
-        <v>0.34190435185334001</v>
+        <v>0.35362492859211397</v>
       </c>
       <c r="P30">
-        <v>0.37565827454067202</v>
+        <v>0.38058283535924797</v>
       </c>
       <c r="Q30">
-        <v>0.37934034644499698</v>
+        <v>0.36514942305623499</v>
       </c>
       <c r="R30">
-        <v>0.42600803507926399</v>
+        <v>0.43694384696862498</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
@@ -1786,52 +1795,52 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>0.19964658340788199</v>
+        <v>0.217198700882139</v>
       </c>
       <c r="C31">
-        <v>0.26267004008807299</v>
+        <v>0.28505287442457</v>
       </c>
       <c r="D31">
-        <v>0.35169824370783997</v>
+        <v>0.32836468996303197</v>
       </c>
       <c r="E31">
-        <v>0.41782864563379901</v>
+        <v>0.39728997368225699</v>
       </c>
       <c r="F31">
-        <v>0.32713401080084298</v>
+        <v>0.380757511226544</v>
       </c>
       <c r="G31">
-        <v>0.43227713257913603</v>
+        <v>0.39396981907354101</v>
       </c>
       <c r="H31">
-        <v>0.47718621950661499</v>
+        <v>0.45086469328865902</v>
       </c>
       <c r="I31">
-        <v>0.43703869139510398</v>
+        <v>0.54497247967457196</v>
       </c>
       <c r="K31">
-        <v>0.17903195710178799</v>
+        <v>0.19295334118096899</v>
       </c>
       <c r="L31">
-        <v>0.23980473964246499</v>
+        <v>0.22501887129463299</v>
       </c>
       <c r="M31">
-        <v>0.32338322316033302</v>
+        <v>0.32518522633361902</v>
       </c>
       <c r="N31">
-        <v>0.36822793971074802</v>
+        <v>0.36733854142703198</v>
       </c>
       <c r="O31">
-        <v>0.39534800655598001</v>
+        <v>0.39273044110250699</v>
       </c>
       <c r="P31">
-        <v>0.46221302529728803</v>
+        <v>0.44760046748579801</v>
       </c>
       <c r="Q31">
-        <v>0.42385154557809901</v>
+        <v>0.43237749804937498</v>
       </c>
       <c r="R31">
-        <v>0.482991807186751</v>
+        <v>0.478659788319102</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
@@ -1839,52 +1848,52 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>0.20464868594392799</v>
+        <v>0.21368644861203601</v>
       </c>
       <c r="C32">
-        <v>0.250803099672682</v>
+        <v>0.29522665648213697</v>
       </c>
       <c r="D32">
-        <v>0.343066975605616</v>
+        <v>0.33122913247992702</v>
       </c>
       <c r="E32">
-        <v>0.40802467834511003</v>
+        <v>0.40646634787268998</v>
       </c>
       <c r="F32">
-        <v>0.329710904457922</v>
+        <v>0.37042439778882003</v>
       </c>
       <c r="G32">
-        <v>0.44628841052479101</v>
+        <v>0.34684980515529601</v>
       </c>
       <c r="H32">
-        <v>0.46013964541623298</v>
+        <v>0.42386646947937101</v>
       </c>
       <c r="I32">
-        <v>0.42406597309930399</v>
+        <v>0.52696315623219603</v>
       </c>
       <c r="K32">
-        <v>0.16490512234280599</v>
+        <v>0.177357241852859</v>
       </c>
       <c r="L32">
-        <v>0.242578479329216</v>
+        <v>0.22810850049943601</v>
       </c>
       <c r="M32">
-        <v>0.31062645019531299</v>
+        <v>0.31093243334873299</v>
       </c>
       <c r="N32">
-        <v>0.367012396381798</v>
+        <v>0.36817966411387498</v>
       </c>
       <c r="O32">
-        <v>0.37744419234833698</v>
+        <v>0.38917383581939202</v>
       </c>
       <c r="P32">
-        <v>0.43569122376992098</v>
+        <v>0.44352249993995502</v>
       </c>
       <c r="Q32">
-        <v>0.40813269772823602</v>
+        <v>0.41907064793360099</v>
       </c>
       <c r="R32">
-        <v>0.487895333052488</v>
+        <v>0.47852481801014202</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
@@ -1892,52 +1901,52 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>0.19964658340788199</v>
+        <v>0.22599748407152101</v>
       </c>
       <c r="C33">
-        <v>0.26267004008807299</v>
+        <v>0.28505287442457</v>
       </c>
       <c r="D33">
-        <v>0.35169824370783997</v>
+        <v>0.31504181942246801</v>
       </c>
       <c r="E33">
-        <v>0.43154643647385699</v>
+        <v>0.39728997368225699</v>
       </c>
       <c r="F33">
-        <v>0.30499872403546102</v>
+        <v>0.37034812635394798</v>
       </c>
       <c r="G33">
-        <v>0.42143817758531199</v>
+        <v>0.38327793533005999</v>
       </c>
       <c r="H33">
-        <v>0.47109000826371</v>
+        <v>0.441584357378771</v>
       </c>
       <c r="I33">
-        <v>0.44014805747878999</v>
+        <v>0.54497247967457196</v>
       </c>
       <c r="K33">
-        <v>0.18079171373966399</v>
+        <v>0.197232710593017</v>
       </c>
       <c r="L33">
-        <v>0.239857367318002</v>
+        <v>0.22535810131171599</v>
       </c>
       <c r="M33">
-        <v>0.32672319363321201</v>
+        <v>0.32251638156904799</v>
       </c>
       <c r="N33">
-        <v>0.36485178455283801</v>
+        <v>0.36767968194477602</v>
       </c>
       <c r="O33">
-        <v>0.38171011374626501</v>
+        <v>0.39412585441002101</v>
       </c>
       <c r="P33">
-        <v>0.45786831054315202</v>
+        <v>0.44706934699763601</v>
       </c>
       <c r="Q33">
-        <v>0.420175130784399</v>
+        <v>0.43135054880198898</v>
       </c>
       <c r="R33">
-        <v>0.47721608190758302</v>
+        <v>0.47846319948676203</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
@@ -1945,110 +1954,110 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>0.19499958729986699</v>
+        <v>0.14931991085388699</v>
       </c>
       <c r="C34">
-        <v>0.20436654500238499</v>
+        <v>0.22196640176858301</v>
       </c>
       <c r="D34">
-        <v>0.28198084210318097</v>
+        <v>0.322205449449532</v>
       </c>
       <c r="E34">
-        <v>0.34219642794872202</v>
+        <v>0.273707414568788</v>
       </c>
       <c r="F34">
-        <v>0.22921567365468501</v>
+        <v>0.32335424685613601</v>
       </c>
       <c r="G34">
-        <v>0.30999518869812798</v>
+        <v>0.34675113044668598</v>
       </c>
       <c r="H34">
-        <v>0.38481813243907897</v>
+        <v>0.30464256635547798</v>
       </c>
       <c r="I34">
-        <v>0.28364431156242997</v>
+        <v>0.40468014118409901</v>
       </c>
       <c r="K34">
-        <v>0.16403320275342301</v>
+        <v>0.167008477803613</v>
       </c>
       <c r="L34">
-        <v>0.23528036830441501</v>
+        <v>0.20665009458165501</v>
       </c>
       <c r="M34">
-        <v>0.26273780957190701</v>
+        <v>0.278764789016617</v>
       </c>
       <c r="N34">
-        <v>0.27906916490955203</v>
+        <v>0.286364075963491</v>
       </c>
       <c r="O34">
-        <v>0.30505199813901301</v>
+        <v>0.30155336498955398</v>
       </c>
       <c r="P34">
-        <v>0.337967233921314</v>
+        <v>0.314543430588485</v>
       </c>
       <c r="Q34">
-        <v>0.316545532513271</v>
+        <v>0.31633991150229102</v>
       </c>
       <c r="R34">
-        <v>0.36791588005364401</v>
+        <v>0.35038847093476599</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>0.19041186075798999</v>
+        <v>0.17896835318028601</v>
       </c>
       <c r="C35">
-        <v>0.220871554981555</v>
+        <v>0.245226728210094</v>
       </c>
       <c r="D35">
-        <v>0.28301148019419797</v>
+        <v>0.29109340204105799</v>
       </c>
       <c r="E35">
-        <v>0.30738903799176198</v>
+        <v>0.31940855454636502</v>
       </c>
       <c r="F35">
-        <v>0.25344377351916397</v>
+        <v>0.25563117677054897</v>
       </c>
       <c r="G35">
-        <v>0.30695346364824</v>
+        <v>0.27994653543664599</v>
       </c>
       <c r="H35">
-        <v>0.36192779807356401</v>
+        <v>0.31841840868398902</v>
       </c>
       <c r="I35">
-        <v>0.34696232134858901</v>
+        <v>0.42529300562029698</v>
       </c>
       <c r="K35">
-        <v>0.160339698880159</v>
+        <v>0.16677198749842501</v>
       </c>
       <c r="L35">
-        <v>0.20541381276541401</v>
+        <v>0.20924224745225301</v>
       </c>
       <c r="M35">
-        <v>0.263406174659299</v>
+        <v>0.263719390962317</v>
       </c>
       <c r="N35">
-        <v>0.269880014768624</v>
+        <v>0.28666237398734501</v>
       </c>
       <c r="O35">
-        <v>0.31074307309757698</v>
+        <v>0.31396927636076599</v>
       </c>
       <c r="P35">
-        <v>0.33744897794277501</v>
+        <v>0.30908007270176802</v>
       </c>
       <c r="Q35">
-        <v>0.32232436535932701</v>
+        <v>0.293849262367679</v>
       </c>
       <c r="R35">
-        <v>0.35375431885587899</v>
+        <v>0.33253433608627198</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2110,52 +2119,52 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="C39">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="D39">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E39">
         <v>0.82</v>
       </c>
       <c r="F39">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="G39">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I39">
+        <v>1.04</v>
+      </c>
+      <c r="K39">
+        <v>0.374</v>
+      </c>
+      <c r="L39">
+        <v>0.59</v>
+      </c>
+      <c r="M39">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="N39">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="O39">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="P39">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="R39">
         <v>0.98</v>
-      </c>
-      <c r="K39">
-        <v>0.38</v>
-      </c>
-      <c r="L39">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="M39">
-        <v>0.71</v>
-      </c>
-      <c r="N39">
-        <v>0.76</v>
-      </c>
-      <c r="O39">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="P39">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="Q39">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="R39">
-        <v>1.032</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
@@ -2163,52 +2172,52 @@
         <v>2</v>
       </c>
       <c r="B40">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="C40">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="D40">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="E40">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F40">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="G40">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="H40">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="I40">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K40">
-        <v>0.38</v>
+        <v>0.374</v>
       </c>
       <c r="L40">
-        <v>0.56599999999999995</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="M40">
-        <v>0.70599999999999996</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="N40">
-        <v>0.77</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="O40">
-        <v>0.80600000000000005</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="P40">
-        <v>0.91200000000000003</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="Q40">
-        <v>0.90200000000000002</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="R40">
-        <v>1.016</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
@@ -2216,52 +2225,52 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="C41">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="D41">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="E41">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F41">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="G41">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="H41">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I41">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="K41">
-        <v>0.38</v>
+        <v>0.374</v>
       </c>
       <c r="L41">
-        <v>0.626</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="M41">
         <v>0.74</v>
       </c>
       <c r="N41">
-        <v>0.74399999999999999</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="O41">
         <v>0.79200000000000004</v>
       </c>
       <c r="P41">
-        <v>0.83</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="Q41">
-        <v>0.84</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="R41">
-        <v>0.91400000000000003</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
@@ -2269,52 +2278,52 @@
         <v>4</v>
       </c>
       <c r="B42">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="C42">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
       <c r="D42">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="E42">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="F42">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="G42">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="H42">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="I42">
-        <v>1.07</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K42">
-        <v>0.378</v>
+        <v>0.374</v>
       </c>
       <c r="L42">
-        <v>0.58199999999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="M42">
-        <v>0.72</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="N42">
-        <v>0.79</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="O42">
-        <v>0.83</v>
+        <v>0.874</v>
       </c>
       <c r="P42">
-        <v>0.92800000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="Q42">
-        <v>0.95799999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="R42">
-        <v>1.0620000000000001</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
@@ -2322,52 +2331,52 @@
         <v>5</v>
       </c>
       <c r="B43">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="C43">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="D43">
-        <v>0.68</v>
+        <v>0.81</v>
       </c>
       <c r="E43">
+        <v>0.89</v>
+      </c>
+      <c r="F43">
+        <v>0.87</v>
+      </c>
+      <c r="G43">
         <v>0.9</v>
       </c>
-      <c r="F43">
-        <v>0.94</v>
-      </c>
-      <c r="G43">
-        <v>0.95</v>
-      </c>
       <c r="H43">
-        <v>1.1499999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="I43">
-        <v>1.1000000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K43">
-        <v>0.37</v>
+        <v>0.378</v>
       </c>
       <c r="L43">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="M43">
-        <v>0.77</v>
+        <v>0.752</v>
       </c>
       <c r="N43">
-        <v>0.81799999999999995</v>
+        <v>0.86</v>
       </c>
       <c r="O43">
-        <v>0.88200000000000001</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="P43">
-        <v>0.98399999999999999</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="Q43">
-        <v>1.046</v>
+        <v>1.024</v>
       </c>
       <c r="R43">
-        <v>1.1319999999999999</v>
+        <v>1.1060000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
@@ -2375,52 +2384,52 @@
         <v>6</v>
       </c>
       <c r="B44">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="C44">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="D44">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="E44">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="F44">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="G44">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="H44">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="I44">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="K44">
-        <v>0.25800000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="L44">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="M44">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="N44">
-        <v>0.48199999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="O44">
-        <v>0.51400000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="P44">
-        <v>0.54600000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="Q44">
-        <v>0.51800000000000002</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="R44">
-        <v>0.622</v>
+        <v>0.60799999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
@@ -2428,52 +2437,52 @@
         <v>7</v>
       </c>
       <c r="B45">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="C45">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="D45">
+        <v>0.59</v>
+      </c>
+      <c r="E45">
         <v>0.63</v>
       </c>
-      <c r="E45">
-        <v>0.65</v>
-      </c>
       <c r="F45">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="G45">
-        <v>0.77</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H45">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="I45">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="K45">
-        <v>0.33200000000000002</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="L45">
-        <v>0.44400000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="M45">
-        <v>0.56399999999999995</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="N45">
-        <v>0.66400000000000003</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="O45">
-        <v>0.67800000000000005</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="P45">
-        <v>0.76400000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="Q45">
-        <v>0.79200000000000004</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="R45">
-        <v>0.88800000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
@@ -2481,52 +2490,52 @@
         <v>8</v>
       </c>
       <c r="B46">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="C46">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="D46">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="E46">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="F46">
-        <v>0.47</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G46">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="H46">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="I46">
-        <v>0.69</v>
+        <v>0.84</v>
       </c>
       <c r="K46">
-        <v>0.252</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="L46">
-        <v>0.36599999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="M46">
-        <v>0.45800000000000002</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="N46">
-        <v>0.51800000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="O46">
-        <v>0.54200000000000004</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="P46">
-        <v>0.58399999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="Q46">
-        <v>0.61599999999999999</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="R46">
-        <v>0.69599999999999995</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
@@ -2534,52 +2543,52 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="C47">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="D47">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="E47">
+        <v>0.63</v>
+      </c>
+      <c r="F47">
         <v>0.65</v>
       </c>
-      <c r="F47">
-        <v>0.64</v>
-      </c>
       <c r="G47">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="H47">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="I47">
-        <v>0.77</v>
+        <v>0.94</v>
       </c>
       <c r="K47">
-        <v>0.29399999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="L47">
-        <v>0.39800000000000002</v>
+        <v>0.39</v>
       </c>
       <c r="M47">
-        <v>0.53200000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="N47">
         <v>0.63</v>
       </c>
       <c r="O47">
-        <v>0.68400000000000005</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="P47">
-        <v>0.78400000000000003</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="Q47">
-        <v>0.76200000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="R47">
-        <v>0.86399999999999999</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
@@ -2587,52 +2596,52 @@
         <v>10</v>
       </c>
       <c r="B48">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="C48">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="D48">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="E48">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F48">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="G48">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="H48">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="I48">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="K48">
-        <v>0.26600000000000001</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="L48">
-        <v>0.4</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="M48">
-        <v>0.51400000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="N48">
-        <v>0.63200000000000001</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="O48">
-        <v>0.65600000000000003</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="P48">
-        <v>0.74199999999999999</v>
+        <v>0.752</v>
       </c>
       <c r="Q48">
-        <v>0.74</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="R48">
-        <v>0.87</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
@@ -2643,49 +2652,49 @@
         <v>0.36</v>
       </c>
       <c r="C49">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="D49">
-        <v>0.56000000000000005</v>
+        <v>0.51</v>
       </c>
       <c r="E49">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="F49">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="G49">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="H49">
+        <v>0.75</v>
+      </c>
+      <c r="I49">
+        <v>0.94</v>
+      </c>
+      <c r="K49">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="L49">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="M49">
+        <v>0.53</v>
+      </c>
+      <c r="N49">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="P49">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="Q49">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="R49">
         <v>0.88</v>
-      </c>
-      <c r="I49">
-        <v>0.78</v>
-      </c>
-      <c r="K49">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="L49">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="M49">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="N49">
-        <v>0.628</v>
-      </c>
-      <c r="O49">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="P49">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="Q49">
-        <v>0.754</v>
-      </c>
-      <c r="R49">
-        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
@@ -2693,110 +2702,110 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="C50">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="D50">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="E50">
+        <v>0.43</v>
+      </c>
+      <c r="F50">
+        <v>0.49</v>
+      </c>
+      <c r="G50">
+        <v>0.64</v>
+      </c>
+      <c r="H50">
         <v>0.52</v>
       </c>
-      <c r="F50">
-        <v>0.38</v>
-      </c>
-      <c r="G50">
-        <v>0.46</v>
-      </c>
-      <c r="H50">
+      <c r="I50">
         <v>0.62</v>
       </c>
-      <c r="I50">
-        <v>0.47</v>
-      </c>
       <c r="K50">
-        <v>0.26</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="L50">
-        <v>0.39</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="M50">
-        <v>0.42399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="N50">
-        <v>0.47</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="O50">
-        <v>0.49199999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="P50">
-        <v>0.54400000000000004</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="Q50">
-        <v>0.52600000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="R50">
-        <v>0.61799999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B51">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C51">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="D51">
+        <v>0.46</v>
+      </c>
+      <c r="E51">
+        <v>0.49</v>
+      </c>
+      <c r="F51">
+        <v>0.44</v>
+      </c>
+      <c r="G51">
+        <v>0.48</v>
+      </c>
+      <c r="H51">
+        <v>0.51</v>
+      </c>
+      <c r="I51">
+        <v>0.69</v>
+      </c>
+      <c r="K51">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="L51">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="M51">
         <v>0.42</v>
       </c>
-      <c r="E51">
-        <v>0.45</v>
-      </c>
-      <c r="F51">
-        <v>0.43</v>
-      </c>
-      <c r="G51">
-        <v>0.45</v>
-      </c>
-      <c r="H51">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I51">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K51">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="L51">
-        <v>0.33</v>
-      </c>
-      <c r="M51">
-        <v>0.41399999999999998</v>
-      </c>
       <c r="N51">
-        <v>0.44600000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="O51">
-        <v>0.49</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="P51">
-        <v>0.53200000000000003</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="Q51">
-        <v>0.51</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="R51">
-        <v>0.58199999999999996</v>
+        <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2858,52 +2867,52 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>0.52</v>
+        <v>0.57666666666666699</v>
       </c>
       <c r="C55">
         <v>0.49249999999999999</v>
       </c>
       <c r="D55">
-        <v>0.437999999999999</v>
+        <v>0.46199999999999902</v>
       </c>
       <c r="E55">
-        <v>0.44166666666666599</v>
+        <v>0.44666666666666599</v>
       </c>
       <c r="F55">
-        <v>0.38714285714285002</v>
+        <v>0.41857142857142798</v>
       </c>
       <c r="G55">
-        <v>0.36625000000000002</v>
+        <v>0.36375000000000002</v>
       </c>
       <c r="H55">
-        <v>0.36</v>
+        <v>0.378888888888888</v>
       </c>
       <c r="I55">
-        <v>0.374</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="K55">
-        <v>0.537333333333334</v>
+        <v>0.53866666666666696</v>
       </c>
       <c r="L55">
-        <v>0.498</v>
+        <v>0.495</v>
       </c>
       <c r="M55">
-        <v>0.46479999999999999</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="N55">
-        <v>0.42699999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="O55">
-        <v>0.40885714285714198</v>
+        <v>0.40971428571428398</v>
       </c>
       <c r="P55">
-        <v>0.38524999999999998</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Q55">
-        <v>0.36200000000000099</v>
+        <v>0.35777777777777903</v>
       </c>
       <c r="R55">
-        <v>0.36559999999999898</v>
+        <v>0.36059999999999898</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
@@ -2911,52 +2920,52 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>0.50666666666659999</v>
+        <v>0.55666666666666698</v>
       </c>
       <c r="C56">
-        <v>0.48499999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="D56">
-        <v>0.41199999999999898</v>
+        <v>0.45199999999999901</v>
       </c>
       <c r="E56">
-        <v>0.43166666666666598</v>
+        <v>0.396666666666666</v>
       </c>
       <c r="F56">
-        <v>0.36428571428570999</v>
+        <v>0.38857142857142801</v>
       </c>
       <c r="G56">
-        <v>0.3725</v>
+        <v>0.39250000000000002</v>
       </c>
       <c r="H56">
-        <v>0.371</v>
+        <v>0.39777777777777701</v>
       </c>
       <c r="I56">
-        <v>0.38699</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="K56">
-        <v>0.51133333333333297</v>
+        <v>0.51</v>
       </c>
       <c r="L56">
-        <v>0.47299999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="M56">
-        <v>0.44640000000000002</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="N56">
-        <v>0.40633333333333299</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="O56">
-        <v>0.40085714285714202</v>
+        <v>0.40685714285714197</v>
       </c>
       <c r="P56">
-        <v>0.38824999999999998</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="Q56">
-        <v>0.372000000000001</v>
+        <v>0.36822222222222201</v>
       </c>
       <c r="R56">
-        <v>0.38139999999999902</v>
+        <v>0.37639999999999901</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
@@ -2964,52 +2973,52 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>0.52333333333330001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C57">
-        <v>0.46</v>
+        <v>0.47749999999999998</v>
       </c>
       <c r="D57">
-        <v>0.42199999999999899</v>
+        <v>0.48</v>
       </c>
       <c r="E57">
-        <v>0.435</v>
+        <v>0.42166666666666602</v>
       </c>
       <c r="F57">
-        <v>0.36571428571428499</v>
+        <v>0.4</v>
       </c>
       <c r="G57">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="H57">
-        <v>0.32900000000000001</v>
+        <v>0.37555555555555498</v>
       </c>
       <c r="I57">
-        <v>0.35299999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="K57">
-        <v>0.53866666666666696</v>
+        <v>0.53800000000000103</v>
       </c>
       <c r="L57">
-        <v>0.4975</v>
+        <v>0.47749999999999998</v>
       </c>
       <c r="M57">
-        <v>0.45279999999999998</v>
+        <v>0.44719999999999999</v>
       </c>
       <c r="N57">
-        <v>0.40566666666666601</v>
+        <v>0.42066666666666602</v>
       </c>
       <c r="O57">
-        <v>0.38828571428571301</v>
+        <v>0.39399999999999902</v>
       </c>
       <c r="P57">
-        <v>0.37275000000000003</v>
+        <v>0.371</v>
       </c>
       <c r="Q57">
-        <v>0.348444444444445</v>
+        <v>0.34822222222222299</v>
       </c>
       <c r="R57">
-        <v>0.35219999999999901</v>
+        <v>0.345799999999999</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
@@ -3017,52 +3026,52 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <v>0.50666666666666005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C58">
-        <v>0.49249999999999999</v>
+        <v>0.435</v>
       </c>
       <c r="D58">
-        <v>0.40399999999999903</v>
+        <v>0.435999999999999</v>
       </c>
       <c r="E58">
-        <v>0.44666666666666599</v>
+        <v>0.42333333333333301</v>
       </c>
       <c r="F58">
-        <v>0.35571428571428498</v>
+        <v>0.377142857142857</v>
       </c>
       <c r="G58">
-        <v>0.36625000000000002</v>
+        <v>0.3775</v>
       </c>
       <c r="H58">
-        <v>0.35599999999999998</v>
+        <v>0.38999999999999901</v>
       </c>
       <c r="I58">
-        <v>0.38100000000000001</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="K58">
-        <v>0.50866666666666704</v>
+        <v>0.51266666666666705</v>
       </c>
       <c r="L58">
-        <v>0.47799999999999998</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="M58">
-        <v>0.44240000000000002</v>
+        <v>0.44040000000000001</v>
       </c>
       <c r="N58">
-        <v>0.40533333333333399</v>
+        <v>0.41066666666666601</v>
       </c>
       <c r="O58">
-        <v>0.39171428571428502</v>
+        <v>0.39914285714285602</v>
       </c>
       <c r="P58">
-        <v>0.38450000000000001</v>
+        <v>0.38124999999999998</v>
       </c>
       <c r="Q58">
-        <v>0.36466666666666703</v>
+        <v>0.355333333333334</v>
       </c>
       <c r="R58">
-        <v>0.36779999999999902</v>
+        <v>0.36879999999999902</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
@@ -3070,52 +3079,52 @@
         <v>5</v>
       </c>
       <c r="B59">
-        <v>0.5133333333333</v>
+        <v>0.53</v>
       </c>
       <c r="C59">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D59">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E59">
+        <v>0.51833333333333298</v>
+      </c>
+      <c r="F59">
+        <v>0.51142857142857101</v>
+      </c>
+      <c r="G59">
+        <v>0.49625000000000002</v>
+      </c>
+      <c r="H59">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="I59">
         <v>0.495</v>
       </c>
-      <c r="D59">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="E59">
-        <v>0.49833333333333302</v>
-      </c>
-      <c r="F59">
-        <v>0.53</v>
-      </c>
-      <c r="G59">
-        <v>0.47</v>
-      </c>
-      <c r="H59">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="I59">
-        <v>0.51</v>
-      </c>
       <c r="K59">
-        <v>0.53200000000000003</v>
+        <v>0.53133333333333399</v>
       </c>
       <c r="L59">
-        <v>0.53100000000000003</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="M59">
-        <v>0.53080000000000005</v>
+        <v>0.5232</v>
       </c>
       <c r="N59">
-        <v>0.50766666666666604</v>
+        <v>0.52333333333333298</v>
       </c>
       <c r="O59">
-        <v>0.501142857142857</v>
+        <v>0.51171428571428501</v>
       </c>
       <c r="P59">
-        <v>0.51100000000000001</v>
+        <v>0.499</v>
       </c>
       <c r="Q59">
-        <v>0.50266666666666604</v>
+        <v>0.49866666666666598</v>
       </c>
       <c r="R59">
-        <v>0.51059999999999905</v>
+        <v>0.50139999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
@@ -3123,52 +3132,52 @@
         <v>6</v>
       </c>
       <c r="B60">
-        <v>0.45</v>
+        <v>0.46333333333333299</v>
       </c>
       <c r="C60">
-        <v>0.36</v>
+        <v>0.39250000000000002</v>
       </c>
       <c r="D60">
-        <v>0.34399999999999897</v>
+        <v>0.371999999999999</v>
       </c>
       <c r="E60">
-        <v>0.35499999999999998</v>
+        <v>0.37166666666666598</v>
       </c>
       <c r="F60">
-        <v>0.32714285714285601</v>
+        <v>0.28142857142857097</v>
       </c>
       <c r="G60">
-        <v>0.28875000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H60">
-        <v>0.29699999999999999</v>
+        <v>0.28888888888888797</v>
       </c>
       <c r="I60">
-        <v>0.27</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="K60">
-        <v>0.45533333333333398</v>
+        <v>0.460666666666668</v>
       </c>
       <c r="L60">
-        <v>0.42099999999999999</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="M60">
-        <v>0.35679999999999901</v>
+        <v>0.35999999999999899</v>
       </c>
       <c r="N60">
-        <v>0.34099999999999903</v>
+        <v>0.34866666666666601</v>
       </c>
       <c r="O60">
-        <v>0.33857142857142702</v>
+        <v>0.32485714285714101</v>
       </c>
       <c r="P60">
-        <v>0.32274999999999998</v>
+        <v>0.30775000000000002</v>
       </c>
       <c r="Q60">
-        <v>0.29244444444444501</v>
+        <v>0.30933333333333402</v>
       </c>
       <c r="R60">
-        <v>0.28999999999999798</v>
+        <v>0.311999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
@@ -3176,52 +3185,52 @@
         <v>7</v>
       </c>
       <c r="B61">
-        <v>0.4533333333333</v>
+        <v>0.49</v>
       </c>
       <c r="C61">
-        <v>0.40749999999999997</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="D61">
-        <v>0.34399999999999897</v>
+        <v>0.35399999999999898</v>
       </c>
       <c r="E61">
-        <v>0.30833333333333302</v>
+        <v>0.30166666666666597</v>
       </c>
       <c r="F61">
-        <v>0.26571428571428501</v>
+        <v>0.26999999999999902</v>
       </c>
       <c r="G61">
-        <v>0.2525</v>
+        <v>0.25624999999999998</v>
       </c>
       <c r="H61">
-        <v>0.23599999999999999</v>
+        <v>0.24666666666666601</v>
       </c>
       <c r="I61">
-        <v>0.21299000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="K61">
-        <v>0.45000000000000201</v>
+        <v>0.45466666666666899</v>
       </c>
       <c r="L61">
-        <v>0.375</v>
+        <v>0.3775</v>
       </c>
       <c r="M61">
-        <v>0.33160000000000001</v>
+        <v>0.3392</v>
       </c>
       <c r="N61">
-        <v>0.30566666666666598</v>
+        <v>0.30733333333333301</v>
       </c>
       <c r="O61">
-        <v>0.28028571428571297</v>
+        <v>0.28457142857142698</v>
       </c>
       <c r="P61">
-        <v>0.26424999999999998</v>
+        <v>0.25974999999999998</v>
       </c>
       <c r="Q61">
-        <v>0.24044444444444599</v>
+        <v>0.24022222222219999</v>
       </c>
       <c r="R61">
-        <v>0.24239999999999901</v>
+        <v>0.24919999999999901</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
@@ -3229,52 +3238,52 @@
         <v>8</v>
       </c>
       <c r="B62">
-        <v>0.44333333333333003</v>
+        <v>0.44666666666666699</v>
       </c>
       <c r="C62">
-        <v>0.37</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="D62">
-        <v>0.305999999999999</v>
+        <v>0.31999999999999901</v>
       </c>
       <c r="E62">
-        <v>0.29833333333333301</v>
+        <v>0.25166666666666598</v>
       </c>
       <c r="F62">
-        <v>0.25571428571428001</v>
+        <v>0.247142857142856</v>
       </c>
       <c r="G62">
-        <v>0.23499999999999999</v>
+        <v>0.25874999999999998</v>
       </c>
       <c r="H62">
-        <v>0.23</v>
+        <v>0.23555555555555499</v>
       </c>
       <c r="I62">
-        <v>0.21199000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="K62">
-        <v>0.42600000000000099</v>
+        <v>0.42666666666666803</v>
       </c>
       <c r="L62">
-        <v>0.36049999999999999</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="M62">
-        <v>0.316</v>
+        <v>0.30680000000000002</v>
       </c>
       <c r="N62">
-        <v>0.28199999999999997</v>
+        <v>0.28266666666666601</v>
       </c>
       <c r="O62">
-        <v>0.26142857142857101</v>
+        <v>0.26371428571428501</v>
       </c>
       <c r="P62">
-        <v>0.245</v>
+        <v>0.23574999999999999</v>
       </c>
       <c r="Q62">
-        <v>0.219555555555556</v>
+        <v>0.22177777777777799</v>
       </c>
       <c r="R62">
-        <v>0.22319999999999901</v>
+        <v>0.226799999999999</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
@@ -3282,52 +3291,52 @@
         <v>9</v>
       </c>
       <c r="B63">
-        <v>0.4566666666666</v>
+        <v>0.456666666666667</v>
       </c>
       <c r="C63">
-        <v>0.38250000000000001</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="D63">
-        <v>0.33199999999999902</v>
+        <v>0.33399999999999902</v>
       </c>
       <c r="E63">
-        <v>0.30666666666666598</v>
+        <v>0.293333333333333</v>
       </c>
       <c r="F63">
-        <v>0.26428571428571002</v>
+        <v>0.25714285714285601</v>
       </c>
       <c r="G63">
-        <v>0.25</v>
+        <v>0.26124999999999998</v>
       </c>
       <c r="H63">
-        <v>0.24299999999999999</v>
+        <v>0.24777777777777699</v>
       </c>
       <c r="I63">
-        <v>0.20799999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="K63">
-        <v>0.43933333333333502</v>
+        <v>0.438000000000001</v>
       </c>
       <c r="L63">
-        <v>0.36499999999999999</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="M63">
-        <v>0.32240000000000002</v>
+        <v>0.32519999999999999</v>
       </c>
       <c r="N63">
-        <v>0.29833333333333301</v>
+        <v>0.3</v>
       </c>
       <c r="O63">
-        <v>0.27371428571428502</v>
+        <v>0.28114285714285597</v>
       </c>
       <c r="P63">
-        <v>0.26324999999999998</v>
+        <v>0.25474999999999998</v>
       </c>
       <c r="Q63">
-        <v>0.236222222222223</v>
+        <v>0.23488888888889001</v>
       </c>
       <c r="R63">
-        <v>0.23999999999999899</v>
+        <v>0.245199999999999</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
@@ -3335,52 +3344,52 @@
         <v>10</v>
       </c>
       <c r="B64">
-        <v>0.4533333333333</v>
+        <v>0.45</v>
       </c>
       <c r="C64">
-        <v>0.3775</v>
+        <v>0.3725</v>
       </c>
       <c r="D64">
-        <v>0.32399999999999901</v>
+        <v>0.33599999999999902</v>
       </c>
       <c r="E64">
-        <v>0.30499999999999899</v>
+        <v>0.293333333333333</v>
       </c>
       <c r="F64">
-        <v>0.26571428571428501</v>
+        <v>0.254285714285714</v>
       </c>
       <c r="G64">
-        <v>0.25624999999999998</v>
+        <v>0.2525</v>
       </c>
       <c r="H64">
-        <v>0.23899999999999999</v>
+        <v>0.24222222222222201</v>
       </c>
       <c r="I64">
-        <v>0.20899999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="K64">
-        <v>0.43066666666666797</v>
+        <v>0.42866666666666797</v>
       </c>
       <c r="L64">
-        <v>0.36349999999999999</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="M64">
-        <v>0.32040000000000002</v>
+        <v>0.3236</v>
       </c>
       <c r="N64">
-        <v>0.29733333333333301</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="O64">
-        <v>0.27142857142857102</v>
+        <v>0.27971428571428503</v>
       </c>
       <c r="P64">
-        <v>0.25824999999999998</v>
+        <v>0.25374999999999998</v>
       </c>
       <c r="Q64">
-        <v>0.23311111111111199</v>
+        <v>0.23200000000000101</v>
       </c>
       <c r="R64">
-        <v>0.235599999999999</v>
+        <v>0.244999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.15">
@@ -3388,52 +3397,52 @@
         <v>11</v>
       </c>
       <c r="B65">
-        <v>0.4566666666666</v>
+        <v>0.46</v>
       </c>
       <c r="C65">
-        <v>0.38250000000000001</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="D65">
         <v>0.32799999999999901</v>
       </c>
       <c r="E65">
-        <v>0.31666666666666599</v>
+        <v>0.30666666666666598</v>
       </c>
       <c r="F65">
-        <v>0.25857142857142801</v>
+        <v>0.26428571428571401</v>
       </c>
       <c r="G65">
-        <v>0.25624999999999998</v>
+        <v>0.26374999999999998</v>
       </c>
       <c r="H65">
-        <v>0.23799999999999999</v>
+        <v>0.24444444444444399</v>
       </c>
       <c r="I65">
-        <v>0.20899999999999999</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="K65">
         <v>0.440000000000001</v>
       </c>
       <c r="L65">
-        <v>0.36699999999999999</v>
+        <v>0.36049999999999999</v>
       </c>
       <c r="M65">
-        <v>0.32639999999999902</v>
+        <v>0.32799999999999901</v>
       </c>
       <c r="N65">
-        <v>0.30233333333333301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="O65">
-        <v>0.27599999999999902</v>
+        <v>0.28257142857142797</v>
       </c>
       <c r="P65">
-        <v>0.26600000000000001</v>
+        <v>0.25324999999999998</v>
       </c>
       <c r="Q65">
-        <v>0.240666666666668</v>
+        <v>0.23733333333333401</v>
       </c>
       <c r="R65">
-        <v>0.24059999999999901</v>
+        <v>0.25059999999999899</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
@@ -3441,105 +3450,105 @@
         <v>12</v>
       </c>
       <c r="B66">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="C66">
-        <v>0.36249999999999999</v>
+        <v>0.39250000000000002</v>
       </c>
       <c r="D66">
-        <v>0.34599999999999898</v>
+        <v>0.371999999999999</v>
       </c>
       <c r="E66">
-        <v>0.353333333333333</v>
+        <v>0.37166666666666598</v>
       </c>
       <c r="F66">
-        <v>0.32285714285714201</v>
+        <v>0.27999999999999903</v>
       </c>
       <c r="G66">
-        <v>0.28749999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H66">
-        <v>0.29699999999999999</v>
+        <v>0.28888888888888797</v>
       </c>
       <c r="I66">
-        <v>0.27</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="K66">
-        <v>0.45600000000000102</v>
+        <v>0.45933333333333398</v>
       </c>
       <c r="L66">
-        <v>0.42099999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="M66">
-        <v>0.35519999999999902</v>
+        <v>0.360399999999999</v>
       </c>
       <c r="N66">
-        <v>0.33933333333333299</v>
+        <v>0.34766666666666601</v>
       </c>
       <c r="O66">
-        <v>0.33628571428571302</v>
+        <v>0.32399999999999801</v>
       </c>
       <c r="P66">
-        <v>0.32300000000000001</v>
+        <v>0.30625000000000002</v>
       </c>
       <c r="Q66">
-        <v>0.29244444444444501</v>
+        <v>0.30955555555555597</v>
       </c>
       <c r="R66">
-        <v>0.28819999999999801</v>
+        <v>0.31059999999999799</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B67">
-        <v>0.44666666666659999</v>
+        <v>0.43</v>
       </c>
       <c r="C67">
-        <v>0.34499999999999997</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="D67">
-        <v>0.305999999999999</v>
+        <v>0.309999999999999</v>
       </c>
       <c r="E67">
-        <v>0.271666666666666</v>
+        <v>0.24833333333333299</v>
       </c>
       <c r="F67">
-        <v>0.22571428571428501</v>
+        <v>0.221428571428571</v>
       </c>
       <c r="G67">
-        <v>0.20749999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="H67">
-        <v>0.185999999999999</v>
+        <v>0.18222222222222101</v>
       </c>
       <c r="I67">
-        <v>0.19900000000000001</v>
+        <v>0.188999999999999</v>
       </c>
       <c r="K67">
-        <v>0.42333333333333401</v>
+        <v>0.421333333333335</v>
       </c>
       <c r="L67">
-        <v>0.34749999999999998</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="M67">
-        <v>0.30480000000000002</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="N67">
-        <v>0.26366666666666599</v>
+        <v>0.26066666666666699</v>
       </c>
       <c r="O67">
-        <v>0.24342857142857099</v>
+        <v>0.23257142857142801</v>
       </c>
       <c r="P67">
-        <v>0.23150000000000001</v>
+        <v>0.20324999999999999</v>
       </c>
       <c r="Q67">
-        <v>0.20066666666666699</v>
+        <v>0.183555555555557</v>
       </c>
       <c r="R67">
-        <v>0.19620000000000001</v>
+        <v>0.18039999999999901</v>
       </c>
     </row>
   </sheetData>
@@ -3553,29 +3562,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M54" activeCellId="1" sqref="M46:R50 M54:R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="5"/>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -3900,7 +3909,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0.31</v>
@@ -3953,7 +3962,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0.28000000000000003</v>
@@ -4006,7 +4015,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0.32</v>
@@ -4059,7 +4068,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0.33</v>
@@ -4112,7 +4121,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>0.32</v>
@@ -4166,7 +4175,7 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4490,7 +4499,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0.61848999862453502</v>
@@ -4543,7 +4552,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>0.61824049995443497</v>
@@ -4596,7 +4605,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>0.60230333350477006</v>
@@ -4649,7 +4658,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>0.60250692839641895</v>
@@ -4702,7 +4711,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>0.61758228065235199</v>
@@ -4755,7 +4764,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5079,7 +5088,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>1.1000000000000001</v>
@@ -5132,7 +5141,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>1.05</v>
@@ -5185,7 +5194,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39">
         <v>1.06</v>
@@ -5238,7 +5247,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>1.07</v>
@@ -5291,7 +5300,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>1.07</v>
@@ -5344,7 +5353,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5668,7 +5677,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>0.309</v>
@@ -5721,7 +5730,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>0.34599999999999997</v>
@@ -5774,7 +5783,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>0.31899999999999901</v>
@@ -5827,7 +5836,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>0.310999999999999</v>
@@ -5880,7 +5889,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>0.32299999999999901</v>
@@ -5942,29 +5951,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:R38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="5"/>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -6289,7 +6298,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0.68</v>
@@ -6342,7 +6351,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -6667,7 +6676,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>0.29320802434482102</v>
@@ -6720,7 +6729,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="5"/>
     </row>
@@ -7045,7 +7054,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0.48</v>
@@ -7098,7 +7107,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" s="5"/>
     </row>
@@ -7423,7 +7432,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>0.14399999999999899</v>
@@ -7483,928 +7492,1630 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" activeCellId="3" sqref="D1:D1048576 I1:I1048576 N1:N1048576 S1:S1048576"/>
+      <selection activeCell="S1" activeCellId="1" sqref="N1:N13 S1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>0.39357486555335403</v>
+        <v>0.17</v>
       </c>
       <c r="B1">
-        <v>0.342340758596689</v>
+        <v>0.60274787911123895</v>
       </c>
       <c r="C1">
-        <v>0.62397395980752901</v>
+        <v>0.98</v>
       </c>
       <c r="D1">
-        <v>0.37489385791110602</v>
+        <v>0.378888888888888</v>
       </c>
       <c r="F1">
-        <v>0.35451457684687199</v>
+        <v>0.17</v>
       </c>
       <c r="G1">
-        <v>0.36729336822749098</v>
+        <v>0.68312189600276496</v>
       </c>
       <c r="H1">
-        <v>0.66756297763939998</v>
+        <v>1.04</v>
       </c>
       <c r="I1">
-        <v>0.294093782432304</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="K1">
-        <v>0.33342768185677801</v>
+        <v>0.218</v>
       </c>
       <c r="L1">
-        <v>0.38315489890974302</v>
+        <v>0.54842579213940101</v>
       </c>
       <c r="M1">
-        <v>0.69615058024341903</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="N1">
-        <v>0.25394140956692701</v>
+        <v>0.35777777777777903</v>
       </c>
       <c r="P1">
-        <v>0.32139824511746301</v>
+        <v>0.216</v>
       </c>
       <c r="Q1">
-        <v>0.389109841386931</v>
+        <v>0.59664144168975997</v>
       </c>
       <c r="R1">
-        <v>0.71369940560430201</v>
+        <v>0.98</v>
       </c>
       <c r="S1">
-        <v>0.23420322671949001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.36059999999999898</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0.27823379564109801</v>
+        <v>0.15</v>
       </c>
       <c r="B2">
-        <v>0.41537890783786502</v>
+        <v>0.62595643924646804</v>
       </c>
       <c r="C2">
-        <v>0.82309651853948396</v>
+        <v>1.01</v>
       </c>
       <c r="D2">
-        <v>0.453821115199535</v>
+        <v>0.39777777777777701</v>
       </c>
       <c r="F2">
-        <v>0.19501839796207099</v>
+        <v>0.16</v>
       </c>
       <c r="G2">
-        <v>0.46838689467753097</v>
+        <v>0.68227433371324697</v>
       </c>
       <c r="H2">
-        <v>0.98259269742428501</v>
+        <v>1.03</v>
       </c>
       <c r="I2">
-        <v>0.48234739126331999</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="K2">
-        <v>0.14732521936031701</v>
+        <v>0.22</v>
       </c>
       <c r="L2">
-        <v>0.50695681635230605</v>
+        <v>0.55607138831963898</v>
       </c>
       <c r="M2">
-        <v>1.12071893574865</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="N2">
-        <v>0.51659354656099998</v>
+        <v>0.36822222222222201</v>
       </c>
       <c r="P2">
-        <v>0.104585338239456</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.53536091954930698</v>
+        <v>0.59057875440340901</v>
       </c>
       <c r="R2">
-        <v>1.24412680441551</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="S2">
-        <v>0.55024058873478898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.37639999999999901</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>0.36173223889046102</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B3">
-        <v>0.35652160446057901</v>
+        <v>0.53537721871912902</v>
       </c>
       <c r="C3">
-        <v>0.68256439286725101</v>
+        <v>0.87</v>
       </c>
       <c r="D3">
-        <v>0.37292669119726601</v>
+        <v>0.37555555555555498</v>
       </c>
       <c r="F3">
-        <v>0.30795358052646399</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G3">
-        <v>0.390187870714514</v>
+        <v>0.59172568005805604</v>
       </c>
       <c r="H3">
-        <v>0.76068497028021498</v>
+        <v>0.93</v>
       </c>
       <c r="I3">
-        <v>0.36984621190677802</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="K3">
-        <v>0.26917633739031899</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="L3">
-        <v>0.41198471805708198</v>
+        <v>0.47344888605907098</v>
       </c>
       <c r="M3">
-        <v>0.831021794508915</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="N3">
-        <v>0.38908859326351802</v>
+        <v>0.34822222222222299</v>
       </c>
       <c r="P3">
-        <v>0.23025757146900599</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="Q3">
-        <v>0.43491040474335202</v>
+        <v>0.51734692994198805</v>
       </c>
       <c r="R3">
-        <v>0.90164166430795301</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="S3">
-        <v>0.409317860175479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.345799999999999</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>0.18822530427398801</v>
+        <v>0.16</v>
       </c>
       <c r="B4">
-        <v>0.54098241357058297</v>
+        <v>0.624495533964188</v>
       </c>
       <c r="C4">
-        <v>1.0673648457401601</v>
+        <v>1.02</v>
       </c>
       <c r="D4">
-        <v>0.47718652703084502</v>
+        <v>0.38999999999999901</v>
       </c>
       <c r="F4">
-        <v>0.117463911689782</v>
+        <v>0.15</v>
       </c>
       <c r="G4">
-        <v>0.60823987281691005</v>
+        <v>0.724358097937153</v>
       </c>
       <c r="H4">
-        <v>1.2461081234078599</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I4">
-        <v>0.50033021983205705</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="K4">
-        <v>8.88763090857628E-2</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="L4">
-        <v>0.63273984112646198</v>
+        <v>0.56615499456910601</v>
       </c>
       <c r="M4">
-        <v>1.3422020945372199</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="N4">
-        <v>0.50694169261251099</v>
+        <v>0.355333333333334</v>
       </c>
       <c r="P4">
-        <v>4.8259269742428501E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.68280271179720298</v>
+        <v>0.60203855292020203</v>
       </c>
       <c r="R4">
-        <v>1.5428814039060199</v>
+        <v>1.022</v>
       </c>
       <c r="S4">
-        <v>0.58704217378998502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.36879999999999902</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>0.38338522502122802</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B5">
-        <v>0.35727147724564501</v>
+        <v>0.65077981728119305</v>
       </c>
       <c r="C5">
-        <v>0.64435324087178003</v>
+        <v>1.06</v>
       </c>
       <c r="D5">
-        <v>0.48821115199545401</v>
+        <v>0.51111111111111096</v>
       </c>
       <c r="F5">
-        <v>0.329323521086895</v>
+        <v>0.18</v>
       </c>
       <c r="G5">
-        <v>0.39142379457436799</v>
+        <v>0.74227855554145705</v>
       </c>
       <c r="H5">
-        <v>0.70591565242003895</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I5">
-        <v>0.50462307764882597</v>
+        <v>0.495</v>
       </c>
       <c r="K5">
-        <v>0.29634871214265401</v>
+        <v>0.17</v>
       </c>
       <c r="L5">
-        <v>0.41367736072782102</v>
+        <v>0.62661690971114903</v>
       </c>
       <c r="M5">
-        <v>0.75162751202943601</v>
+        <v>1.024</v>
       </c>
       <c r="N5">
-        <v>0.52369091423720004</v>
+        <v>0.49866666666666598</v>
       </c>
       <c r="P5">
-        <v>0.267195018397962</v>
+        <v>0.16</v>
       </c>
       <c r="Q5">
-        <v>0.431638735748828</v>
+        <v>0.68029024389095005</v>
       </c>
       <c r="R5">
-        <v>0.79082932352108604</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="S5">
-        <v>0.53941692612510495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>0.66020379281064201</v>
+        <v>0.63</v>
       </c>
       <c r="B6">
-        <v>0.25964444558247302</v>
+        <v>0.30464256635547798</v>
       </c>
       <c r="C6">
-        <v>0.43772997452589801</v>
+        <v>0.52</v>
       </c>
       <c r="D6">
-        <v>0.15506651570903701</v>
+        <v>0.28888888888888797</v>
       </c>
       <c r="F6">
-        <v>0.57712991791678403</v>
+        <v>0.53</v>
       </c>
       <c r="G6">
-        <v>0.33617135099512602</v>
+        <v>0.39750182922166299</v>
       </c>
       <c r="H6">
-        <v>0.57288423436173197</v>
+        <v>0.61</v>
       </c>
       <c r="I6">
-        <v>0.12494574959903</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="K6">
-        <v>0.52363430512312403</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="L6">
-        <v>0.39634841759999301</v>
+        <v>0.31888792279593298</v>
       </c>
       <c r="M6">
-        <v>0.67831870931219895</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="N6">
-        <v>0.108831021794505</v>
+        <v>0.30933333333333402</v>
       </c>
       <c r="P6">
-        <v>0.49065949617888399</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.42058318155463698</v>
+        <v>0.36006600389917498</v>
       </c>
       <c r="R6">
-        <v>0.74299462213416301</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="S6">
-        <v>9.9433908859327194E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.311999999999998</v>
+      </c>
+      <c r="T6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.52</v>
+      </c>
+      <c r="B7">
+        <v>0.47518142484326698</v>
+      </c>
+      <c r="C7">
+        <v>0.81</v>
+      </c>
+      <c r="D7">
+        <v>0.24666666666666601</v>
+      </c>
+      <c r="F7">
+        <v>0.37</v>
+      </c>
+      <c r="G7">
+        <v>0.533497649656555</v>
+      </c>
+      <c r="H7">
+        <v>0.91</v>
+      </c>
+      <c r="I7">
+        <v>0.253</v>
+      </c>
+      <c r="K7">
+        <v>0.45</v>
+      </c>
+      <c r="L7">
+        <v>0.44614200332034898</v>
+      </c>
+      <c r="M7">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="N7">
+        <v>0.24022222222219999</v>
+      </c>
+      <c r="P7">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.48204115089227501</v>
+      </c>
+      <c r="R7">
+        <v>0.89</v>
+      </c>
+      <c r="S7">
+        <v>0.24919999999999901</v>
+      </c>
+      <c r="T7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>0.31333144636286397</v>
+        <v>0.5</v>
       </c>
       <c r="B8">
-        <v>0.389995772320885</v>
+        <v>0.38237567152298901</v>
       </c>
       <c r="C8">
-        <v>0.72870082083215304</v>
+        <v>0.61</v>
       </c>
       <c r="D8">
-        <v>0.212062458722516</v>
+        <v>0.23555555555555499</v>
       </c>
       <c r="F8">
-        <v>0.29733937163883301</v>
+        <v>0.36</v>
       </c>
       <c r="G8">
-        <v>0.39802297839051798</v>
+        <v>0.54550622821856198</v>
       </c>
       <c r="H8">
-        <v>0.758562128502688</v>
+        <v>0.84</v>
       </c>
       <c r="I8">
-        <v>0.19905786260159999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="K8">
-        <v>0.28516841211435001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="L8">
-        <v>0.40669815420299399</v>
+        <v>0.36514942305623499</v>
       </c>
       <c r="M8">
-        <v>0.78304557033682398</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="N8">
-        <v>0.19019247098782799</v>
+        <v>0.22177777777777799</v>
       </c>
       <c r="P8">
-        <v>0.28714973110670799</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="Q8">
-        <v>0.406121395897801</v>
+        <v>0.43694384696862498</v>
       </c>
       <c r="R8">
-        <v>0.79507500707613898</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="S8">
-        <v>0.18243230493439999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.226799999999999</v>
+      </c>
+      <c r="T8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7.4157939428247902E-2</v>
+        <v>0.5</v>
       </c>
       <c r="B9">
-        <v>0.54829050341695096</v>
+        <v>0.45086469328865902</v>
       </c>
       <c r="C9">
-        <v>1.3464477780922699</v>
+        <v>0.77</v>
       </c>
       <c r="D9">
-        <v>0.57447400698179596</v>
+        <v>0.24777777777777699</v>
       </c>
       <c r="F9">
-        <v>5.2646476082649302E-2</v>
+        <v>0.35</v>
       </c>
       <c r="G9">
-        <v>0.56082045803746505</v>
+        <v>0.54497247967457196</v>
       </c>
       <c r="H9">
-        <v>1.43390885932635</v>
+        <v>0.94</v>
       </c>
       <c r="I9">
-        <v>0.602054102139016</v>
+        <v>0.253</v>
       </c>
       <c r="K9">
-        <v>3.6795924143787101E-2</v>
+        <v>0.47</v>
       </c>
       <c r="L9">
-        <v>0.56576228553410302</v>
+        <v>0.43237749804937498</v>
       </c>
       <c r="M9">
-        <v>1.5159920747240301</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="N9">
-        <v>0.62215185394848305</v>
+        <v>0.23488888888889001</v>
       </c>
       <c r="P9">
-        <v>2.51910557599773E-2</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="Q9">
-        <v>0.57109973656526902</v>
+        <v>0.478659788319102</v>
       </c>
       <c r="R9">
-        <v>1.5761392584206</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="S9">
-        <v>0.64306066610057599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.245199999999999</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>0.20492499292385999</v>
+        <v>0.52</v>
       </c>
       <c r="B10">
-        <v>0.44403008670129102</v>
+        <v>0.42386646947937101</v>
       </c>
       <c r="C10">
-        <v>0.956835550523634</v>
+        <v>0.76</v>
       </c>
       <c r="D10">
-        <v>0.43138975375029998</v>
+        <v>0.24222222222222201</v>
       </c>
       <c r="F10">
-        <v>0.183272006793093</v>
+        <v>0.37</v>
       </c>
       <c r="G10">
-        <v>0.45331899158865102</v>
+        <v>0.52696315623219603</v>
       </c>
       <c r="H10">
-        <v>1.0150014152278499</v>
+        <v>0.9</v>
       </c>
       <c r="I10">
-        <v>0.45125550927985802</v>
+        <v>0.249</v>
       </c>
       <c r="K10">
-        <v>0.155250495329748</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="L10">
-        <v>0.46578009996931302</v>
+        <v>0.41907064793360099</v>
       </c>
       <c r="M10">
-        <v>1.08321539767902</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="N10">
-        <v>0.47646122275679997</v>
+        <v>0.23200000000000101</v>
       </c>
       <c r="P10">
-        <v>0.14690065100481101</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="Q10">
-        <v>0.47467823071015097</v>
+        <v>0.47852481801014202</v>
       </c>
       <c r="R10">
-        <v>1.1365694876875101</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="S10">
-        <v>0.496059376670756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.244999999999999</v>
+      </c>
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>3.7220492499292303E-2</v>
+        <v>0.51</v>
       </c>
       <c r="B11">
-        <v>0.67509387916918995</v>
+        <v>0.441584357378771</v>
       </c>
       <c r="C11">
-        <v>1.59340503821115</v>
+        <v>0.75</v>
       </c>
       <c r="D11">
-        <v>0.58490423624870702</v>
+        <v>0.24444444444444399</v>
       </c>
       <c r="F11">
-        <v>2.7879988678177099E-2</v>
+        <v>0.35</v>
       </c>
       <c r="G11">
-        <v>0.66891385885459498</v>
+        <v>0.54497247967457196</v>
       </c>
       <c r="H11">
-        <v>1.63048400792527</v>
+        <v>0.94</v>
       </c>
       <c r="I11">
-        <v>0.581052120820022</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="K11">
-        <v>2.6323238041324599E-2</v>
+        <v>0.47</v>
       </c>
       <c r="L11">
-        <v>0.665158909362913</v>
+        <v>0.43135054880198898</v>
       </c>
       <c r="M11">
-        <v>1.67308236626096</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="N11">
-        <v>0.57482309651853902</v>
+        <v>0.23733333333333401</v>
       </c>
       <c r="P11">
-        <v>2.1228417775261799E-2</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="Q11">
-        <v>0.65923772386965396</v>
+        <v>0.47846319948676203</v>
       </c>
       <c r="R11">
-        <v>1.68893291819983</v>
+        <v>0.88</v>
       </c>
       <c r="S11">
-        <v>0.574104475264958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.25059999999999899</v>
+      </c>
+      <c r="T11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>0.24073025757146899</v>
+        <v>0.63</v>
       </c>
       <c r="B12">
-        <v>0.44663584855843502</v>
+        <v>0.30464256635547798</v>
       </c>
       <c r="C12">
-        <v>0.83328615907160997</v>
+        <v>0.52</v>
       </c>
       <c r="D12">
-        <v>0.55210397207283701</v>
+        <v>0.28888888888888797</v>
       </c>
       <c r="F12">
-        <v>0.220775544862722</v>
+        <v>0.52</v>
       </c>
       <c r="G12">
-        <v>0.45576829103430599</v>
+        <v>0.40468014118409901</v>
       </c>
       <c r="H12">
-        <v>0.870648174356071</v>
+        <v>0.62</v>
       </c>
       <c r="I12">
-        <v>0.56353564352432495</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="K12">
-        <v>0.19983017265779701</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="L12">
-        <v>0.46959579798616602</v>
+        <v>0.31633991150229102</v>
       </c>
       <c r="M12">
-        <v>0.913812623832437</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="N12">
-        <v>0.57525827908294003</v>
+        <v>0.30955555555555597</v>
       </c>
       <c r="P12">
-        <v>0.181432210585904</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="Q12">
-        <v>0.48452682560327598</v>
+        <v>0.35038847093476599</v>
       </c>
       <c r="R12">
-        <v>0.96108123407868595</v>
+        <v>0.59</v>
       </c>
       <c r="S12">
-        <v>0.58308016479542601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0.31059999999999799</v>
+      </c>
+      <c r="T12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>0.46603453155958102</v>
+        <v>0.65</v>
       </c>
       <c r="B13">
-        <v>0.44654706630388802</v>
+        <v>0.31841840868398902</v>
       </c>
       <c r="C13">
-        <v>0.80271723747523305</v>
+        <v>0.51</v>
       </c>
       <c r="D13">
-        <v>9.3301254835365693E-2</v>
+        <v>0.18222222222222101</v>
       </c>
       <c r="F13">
-        <v>0.44353240871780297</v>
+        <v>0.51</v>
       </c>
       <c r="G13">
-        <v>0.46815153269820198</v>
+        <v>0.42529300562029698</v>
       </c>
       <c r="H13">
-        <v>0.85649589583923003</v>
+        <v>0.69</v>
       </c>
       <c r="I13">
-        <v>9.1063846993654496E-2</v>
+        <v>0.188999999999999</v>
       </c>
       <c r="K13">
-        <v>0.41834135295782598</v>
+        <v>0.62</v>
       </c>
       <c r="L13">
-        <v>0.486967222102</v>
+        <v>0.293849262367679</v>
       </c>
       <c r="M13">
-        <v>0.91352957826210002</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="N13">
-        <v>8.6944523068209503E-2</v>
+        <v>0.183555555555557</v>
       </c>
       <c r="P13">
-        <v>0.41055759977356299</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="Q13">
-        <v>0.50137949382682201</v>
+        <v>0.33253433608627198</v>
       </c>
       <c r="R13">
-        <v>0.94607981885083503</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="S13">
-        <v>8.4960845362773596E-2</v>
+        <v>0.18039999999999901</v>
+      </c>
+      <c r="T13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>0.62397395980752901</v>
+        <v>0.35</v>
       </c>
       <c r="B1">
-        <v>0.66756297763939998</v>
+        <v>0.27</v>
       </c>
       <c r="C1">
-        <v>0.69615058024341903</v>
+        <v>0.26</v>
       </c>
       <c r="D1">
-        <v>0.71369940560430201</v>
+        <v>0.27</v>
       </c>
       <c r="E1">
-        <v>0.72870082083215304</v>
+        <v>0.17</v>
       </c>
       <c r="F1">
-        <v>0.758562128502688</v>
-      </c>
-      <c r="G1">
-        <v>0.78304557033682398</v>
-      </c>
-      <c r="H1">
-        <v>0.79507500707613898</v>
+        <v>0.17</v>
+      </c>
+      <c r="I1">
+        <v>0.32600000000000001</v>
       </c>
       <c r="J1">
-        <v>0.37489385791110602</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="K1">
-        <v>0.294093782432304</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="L1">
-        <v>0.25394140956692701</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="M1">
-        <v>0.23420322671949001</v>
+        <v>0.218</v>
       </c>
       <c r="N1">
-        <v>0.212062458722516</v>
-      </c>
-      <c r="O1">
-        <v>0.19905786260159999</v>
-      </c>
-      <c r="P1">
-        <v>0.19019247098782799</v>
-      </c>
-      <c r="Q1">
-        <v>0.18243230493439999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0.82309651853948396</v>
+        <v>0.36</v>
       </c>
       <c r="B2">
-        <v>0.98259269742428501</v>
+        <v>0.32</v>
       </c>
       <c r="C2">
-        <v>1.12071893574865</v>
+        <v>0.26</v>
       </c>
       <c r="D2">
-        <v>1.24412680441551</v>
+        <v>0.26</v>
       </c>
       <c r="E2">
-        <v>1.3464477780922699</v>
+        <v>0.15</v>
       </c>
       <c r="F2">
-        <v>1.43390885932635</v>
-      </c>
-      <c r="G2">
-        <v>1.5159920747240301</v>
-      </c>
-      <c r="H2">
-        <v>1.5761392584206</v>
+        <v>0.16</v>
+      </c>
+      <c r="I2">
+        <v>0.32800000000000001</v>
       </c>
       <c r="J2">
-        <v>0.453821115199535</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="K2">
-        <v>0.48234739126331999</v>
+        <v>0.248</v>
       </c>
       <c r="L2">
-        <v>0.51659354656099998</v>
+        <v>0.214</v>
       </c>
       <c r="M2">
-        <v>0.55024058873478898</v>
+        <v>0.22</v>
       </c>
       <c r="N2">
-        <v>0.57447400698179596</v>
-      </c>
-      <c r="O2">
-        <v>0.602054102139016</v>
-      </c>
-      <c r="P2">
-        <v>0.62215185394848305</v>
-      </c>
-      <c r="Q2">
-        <v>0.64306066610057599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>0.68256439286725101</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B3">
-        <v>0.76068497028021498</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C3">
-        <v>0.831021794508915</v>
+        <v>0.27</v>
       </c>
       <c r="D3">
-        <v>0.90164166430795301</v>
+        <v>0.23</v>
       </c>
       <c r="E3">
-        <v>0.956835550523634</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F3">
-        <v>1.0150014152278499</v>
-      </c>
-      <c r="G3">
-        <v>1.08321539767902</v>
-      </c>
-      <c r="H3">
-        <v>1.1365694876875101</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.318</v>
       </c>
       <c r="J3">
-        <v>0.37292669119726601</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="K3">
-        <v>0.36984621190677802</v>
+        <v>0.318</v>
       </c>
       <c r="L3">
-        <v>0.38908859326351802</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M3">
-        <v>0.409317860175479</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="N3">
-        <v>0.43138975375029998</v>
-      </c>
-      <c r="O3">
-        <v>0.45125550927985802</v>
-      </c>
-      <c r="P3">
-        <v>0.47646122275679997</v>
-      </c>
-      <c r="Q3">
-        <v>0.496059376670756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1.0673648457401601</v>
+        <v>0.35</v>
       </c>
       <c r="B4">
-        <v>1.2461081234078599</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C4">
-        <v>1.3422020945372199</v>
+        <v>0.27</v>
       </c>
       <c r="D4">
-        <v>1.5428814039060199</v>
+        <v>0.25</v>
       </c>
       <c r="E4">
-        <v>1.59340503821115</v>
+        <v>0.16</v>
       </c>
       <c r="F4">
-        <v>1.63048400792527</v>
-      </c>
-      <c r="G4">
-        <v>1.67308236626096</v>
-      </c>
-      <c r="H4">
-        <v>1.68893291819983</v>
+        <v>0.15</v>
+      </c>
+      <c r="I4">
+        <v>0.32800000000000001</v>
       </c>
       <c r="J4">
-        <v>0.47718652703084502</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="K4">
-        <v>0.50033021983205705</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="L4">
-        <v>0.50694169261251099</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="M4">
-        <v>0.58704217378998502</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="N4">
-        <v>0.58490423624870702</v>
-      </c>
-      <c r="O4">
-        <v>0.581052120820022</v>
-      </c>
-      <c r="P4">
-        <v>0.57482309651853902</v>
-      </c>
-      <c r="Q4">
-        <v>0.574104475264958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>0.64435324087178003</v>
+        <v>0.25</v>
       </c>
       <c r="B5">
-        <v>0.70591565242003895</v>
+        <v>0.23</v>
       </c>
       <c r="C5">
-        <v>0.75162751202943601</v>
+        <v>0.24</v>
       </c>
       <c r="D5">
-        <v>0.79082932352108604</v>
+        <v>0.22</v>
       </c>
       <c r="E5">
-        <v>0.83328615907160997</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F5">
-        <v>0.870648174356071</v>
-      </c>
-      <c r="G5">
-        <v>0.913812623832437</v>
-      </c>
-      <c r="H5">
-        <v>0.96108123407868595</v>
+        <v>0.18</v>
+      </c>
+      <c r="I5">
+        <v>0.31</v>
       </c>
       <c r="J5">
-        <v>0.48821115199545401</v>
+        <v>0.252</v>
       </c>
       <c r="K5">
-        <v>0.50462307764882597</v>
+        <v>0.216</v>
       </c>
       <c r="L5">
-        <v>0.52369091423720004</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="M5">
-        <v>0.53941692612510495</v>
+        <v>0.17</v>
       </c>
       <c r="N5">
-        <v>0.55210397207283701</v>
-      </c>
-      <c r="O5">
-        <v>0.56353564352432495</v>
-      </c>
-      <c r="P5">
-        <v>0.57525827908294003</v>
-      </c>
-      <c r="Q5">
-        <v>0.58308016479542601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>0.43772997452589801</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="B6">
-        <v>0.57288423436173197</v>
+        <v>0.61</v>
       </c>
       <c r="C6">
-        <v>0.67831870931219895</v>
+        <v>0.62</v>
       </c>
       <c r="D6">
-        <v>0.74299462213416301</v>
+        <v>0.51</v>
       </c>
       <c r="E6">
-        <v>0.80271723747523305</v>
+        <v>0.63</v>
       </c>
       <c r="F6">
-        <v>0.85649589583923003</v>
-      </c>
-      <c r="G6">
-        <v>0.91352957826210002</v>
-      </c>
-      <c r="H6">
-        <v>0.94607981885083503</v>
+        <v>0.53</v>
+      </c>
+      <c r="I6">
+        <v>0.622</v>
       </c>
       <c r="J6">
-        <v>0.15506651570903701</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="K6">
-        <v>0.12494574959903</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="L6">
-        <v>0.108831021794505</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="M6">
-        <v>9.9433908859327194E-2</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="N6">
-        <v>9.3301254835365693E-2</v>
-      </c>
-      <c r="O6">
-        <v>9.1063846993654496E-2</v>
-      </c>
-      <c r="P6">
-        <v>8.6944523068209503E-2</v>
-      </c>
-      <c r="Q6">
-        <v>8.4960845362773596E-2</v>
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.53</v>
+      </c>
+      <c r="B7">
+        <v>0.46</v>
+      </c>
+      <c r="C7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.53</v>
+      </c>
+      <c r="E7">
+        <v>0.52</v>
+      </c>
+      <c r="F7">
+        <v>0.37</v>
+      </c>
+      <c r="I7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.67</v>
+      </c>
+      <c r="D8">
+        <v>0.59</v>
+      </c>
+      <c r="E8">
+        <v>0.65</v>
+      </c>
+      <c r="F8">
+        <v>0.51</v>
+      </c>
+      <c r="I8">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="L8">
+        <v>0.61</v>
+      </c>
+      <c r="M8">
+        <v>0.62</v>
+      </c>
+      <c r="N8">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0.7</v>
+      </c>
+      <c r="B11">
+        <v>0.82</v>
+      </c>
+      <c r="C11">
+        <v>0.8</v>
+      </c>
+      <c r="D11">
+        <v>0.84</v>
+      </c>
+      <c r="E11">
+        <v>0.98</v>
+      </c>
+      <c r="F11">
+        <v>1.04</v>
+      </c>
+      <c r="I11">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0.69</v>
+      </c>
+      <c r="B12">
+        <v>0.76</v>
+      </c>
+      <c r="C12">
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <v>0.82</v>
+      </c>
+      <c r="E12">
+        <v>1.01</v>
+      </c>
+      <c r="F12">
+        <v>1.03</v>
+      </c>
+      <c r="I12">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J12">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K12">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="L12">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="N12">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>0.78</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>0.8</v>
+      </c>
+      <c r="D13">
+        <v>0.91</v>
+      </c>
+      <c r="E13">
+        <v>0.87</v>
+      </c>
+      <c r="F13">
+        <v>0.93</v>
+      </c>
+      <c r="I13">
+        <v>0.74</v>
+      </c>
+      <c r="J13">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K13">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L13">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="N13">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>0.72</v>
+      </c>
+      <c r="B14">
+        <v>0.83</v>
+      </c>
+      <c r="C14">
+        <v>0.82</v>
+      </c>
+      <c r="D14">
+        <v>0.85</v>
+      </c>
+      <c r="E14">
+        <v>1.02</v>
+      </c>
+      <c r="F14">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K14">
+        <v>0.874</v>
+      </c>
+      <c r="L14">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="M14">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="N14">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>0.81</v>
+      </c>
+      <c r="B15">
+        <v>0.89</v>
+      </c>
+      <c r="C15">
+        <v>0.87</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+      <c r="E15">
+        <v>1.06</v>
+      </c>
+      <c r="F15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.752</v>
+      </c>
+      <c r="J15">
+        <v>0.86</v>
+      </c>
+      <c r="K15">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L15">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="M15">
+        <v>1.024</v>
+      </c>
+      <c r="N15">
+        <v>1.1060000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>0.49</v>
+      </c>
+      <c r="B16">
+        <v>0.43</v>
+      </c>
+      <c r="C16">
+        <v>0.51</v>
+      </c>
+      <c r="D16">
+        <v>0.62</v>
+      </c>
+      <c r="E16">
+        <v>0.52</v>
+      </c>
+      <c r="F16">
+        <v>0.61</v>
+      </c>
+      <c r="I16">
+        <v>0.438</v>
+      </c>
+      <c r="J16">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="K16">
+        <v>0.51</v>
+      </c>
+      <c r="L16">
+        <v>0.52</v>
+      </c>
+      <c r="M16">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="N16">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>0.53</v>
+      </c>
+      <c r="B17">
+        <v>0.63</v>
+      </c>
+      <c r="C17">
+        <v>0.63</v>
+      </c>
+      <c r="D17">
+        <v>0.59</v>
+      </c>
+      <c r="E17">
+        <v>0.76</v>
+      </c>
+      <c r="F17">
+        <v>0.9</v>
+      </c>
+      <c r="I17">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="L17">
+        <v>0.752</v>
+      </c>
+      <c r="M17">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>0.46</v>
+      </c>
+      <c r="B18">
+        <v>0.49</v>
+      </c>
+      <c r="C18">
+        <v>0.44</v>
+      </c>
+      <c r="D18">
+        <v>0.48</v>
+      </c>
+      <c r="E18">
+        <v>0.51</v>
+      </c>
+      <c r="F18">
+        <v>0.69</v>
+      </c>
+      <c r="I18">
+        <v>0.42</v>
+      </c>
+      <c r="J18">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="K18">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L18">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="M18">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>0.46199999999999902</v>
+      </c>
+      <c r="B21">
+        <v>0.44666666666666599</v>
+      </c>
+      <c r="C21">
+        <v>0.41857142857142798</v>
+      </c>
+      <c r="D21">
+        <v>0.36375000000000002</v>
+      </c>
+      <c r="E21">
+        <v>0.378888888888888</v>
+      </c>
+      <c r="F21">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.45760000000000001</v>
+      </c>
+      <c r="J21">
+        <v>0.44</v>
+      </c>
+      <c r="K21">
+        <v>0.40971428571428398</v>
+      </c>
+      <c r="L21">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.35777777777777903</v>
+      </c>
+      <c r="N21">
+        <v>0.36059999999999898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>0.45199999999999901</v>
+      </c>
+      <c r="B22">
+        <v>0.396666666666666</v>
+      </c>
+      <c r="C22">
+        <v>0.38857142857142801</v>
+      </c>
+      <c r="D22">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.39777777777777701</v>
+      </c>
+      <c r="F22">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="J22">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="K22">
+        <v>0.40685714285714197</v>
+      </c>
+      <c r="L22">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.36822222222222201</v>
+      </c>
+      <c r="N22">
+        <v>0.37639999999999901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>0.48</v>
+      </c>
+      <c r="B23">
+        <v>0.42166666666666602</v>
+      </c>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23">
+        <v>0.37</v>
+      </c>
+      <c r="E23">
+        <v>0.37555555555555498</v>
+      </c>
+      <c r="F23">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="I23">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="J23">
+        <v>0.42066666666666602</v>
+      </c>
+      <c r="K23">
+        <v>0.39399999999999902</v>
+      </c>
+      <c r="L23">
+        <v>0.371</v>
+      </c>
+      <c r="M23">
+        <v>0.34822222222222299</v>
+      </c>
+      <c r="N23">
+        <v>0.345799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>0.435999999999999</v>
+      </c>
+      <c r="B24">
+        <v>0.42333333333333301</v>
+      </c>
+      <c r="C24">
+        <v>0.377142857142857</v>
+      </c>
+      <c r="D24">
+        <v>0.3775</v>
+      </c>
+      <c r="E24">
+        <v>0.38999999999999901</v>
+      </c>
+      <c r="F24">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="I24">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.41066666666666601</v>
+      </c>
+      <c r="K24">
+        <v>0.39914285714285602</v>
+      </c>
+      <c r="L24">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="M24">
+        <v>0.355333333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.36879999999999902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="B25">
+        <v>0.51833333333333298</v>
+      </c>
+      <c r="C25">
+        <v>0.51142857142857101</v>
+      </c>
+      <c r="D25">
+        <v>0.49625000000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="F25">
+        <v>0.495</v>
+      </c>
+      <c r="I25">
+        <v>0.5232</v>
+      </c>
+      <c r="J25">
+        <v>0.52333333333333298</v>
+      </c>
+      <c r="K25">
+        <v>0.51171428571428501</v>
+      </c>
+      <c r="L25">
+        <v>0.499</v>
+      </c>
+      <c r="M25">
+        <v>0.49866666666666598</v>
+      </c>
+      <c r="N25">
+        <v>0.50139999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>0.371999999999999</v>
+      </c>
+      <c r="B26">
+        <v>0.37166666666666598</v>
+      </c>
+      <c r="C26">
+        <v>0.28142857142857097</v>
+      </c>
+      <c r="D26">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.28888888888888797</v>
+      </c>
+      <c r="F26">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="I26">
+        <v>0.35999999999999899</v>
+      </c>
+      <c r="J26">
+        <v>0.34866666666666601</v>
+      </c>
+      <c r="K26">
+        <v>0.32485714285714101</v>
+      </c>
+      <c r="L26">
+        <v>0.30775000000000002</v>
+      </c>
+      <c r="M26">
+        <v>0.30933333333333402</v>
+      </c>
+      <c r="N26">
+        <v>0.311999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>0.33599999999999902</v>
+      </c>
+      <c r="B27">
+        <v>0.293333333333333</v>
+      </c>
+      <c r="C27">
+        <v>0.254285714285714</v>
+      </c>
+      <c r="D27">
+        <v>0.2525</v>
+      </c>
+      <c r="E27">
+        <v>0.24222222222222201</v>
+      </c>
+      <c r="F27">
+        <v>0.249</v>
+      </c>
+      <c r="I27">
+        <v>0.3236</v>
+      </c>
+      <c r="J27">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.27971428571428503</v>
+      </c>
+      <c r="L27">
+        <v>0.25374999999999998</v>
+      </c>
+      <c r="M27">
+        <v>0.23200000000000101</v>
+      </c>
+      <c r="N27">
+        <v>0.244999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>0.309999999999999</v>
+      </c>
+      <c r="B28">
+        <v>0.24833333333333299</v>
+      </c>
+      <c r="C28">
+        <v>0.221428571428571</v>
+      </c>
+      <c r="D28">
+        <v>0.21</v>
+      </c>
+      <c r="E28">
+        <v>0.18222222222222101</v>
+      </c>
+      <c r="F28">
+        <v>0.188999999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="J28">
+        <v>0.26066666666666699</v>
+      </c>
+      <c r="K28">
+        <v>0.23257142857142801</v>
+      </c>
+      <c r="L28">
+        <v>0.20324999999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.183555555555557</v>
+      </c>
+      <c r="N28">
+        <v>0.18039999999999901</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDetection/data/result.xlsx
+++ b/SourceDetection/data/result.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="scale-free SI" sheetId="1" r:id="rId1"/>
     <sheet name="pwer-grid SI" sheetId="2" r:id="rId2"/>
     <sheet name="wiki-vote SI" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
+    <sheet name="ca_astroph" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="33">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +117,6 @@
     <t>Graph size:  7066 100736</t>
   </si>
   <si>
-    <t>GSBA-JC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,17 +125,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>BFSA-JC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;cla</t>
+    <t xml:space="preserve"> &lt;cl</t>
   </si>
   <si>
-    <t xml:space="preserve"> (&lt;cl</t>
+    <t>random test:2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BFSA-JC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Graph size:  17903 197031</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1254,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>0.73</v>
@@ -2004,7 +2002,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>0.17896835318028601</v>
@@ -2752,7 +2750,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>0.28000000000000003</v>
@@ -3500,7 +3498,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B67">
         <v>0.43</v>
@@ -3562,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M54" activeCellId="1" sqref="M46:R50 M54:R54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5949,10 +5947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection activeCell="M6" sqref="M6:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6036,52 +6034,52 @@
         <v>1</v>
       </c>
       <c r="B6">
+        <v>0.43</v>
+      </c>
+      <c r="C6">
+        <v>0.38</v>
+      </c>
+      <c r="D6">
+        <v>0.33</v>
+      </c>
+      <c r="E6">
+        <v>0.33</v>
+      </c>
+      <c r="F6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C6">
-        <v>0.27</v>
-      </c>
-      <c r="D6">
-        <v>0.36</v>
-      </c>
-      <c r="E6">
-        <v>0.37</v>
-      </c>
-      <c r="F6">
-        <v>0.31</v>
-      </c>
-      <c r="G6">
-        <v>0.31</v>
-      </c>
       <c r="H6">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I6">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="K6">
-        <v>0.39357486555335403</v>
+        <v>0.39428247947919598</v>
       </c>
       <c r="L6">
-        <v>0.35451457684687199</v>
+        <v>0.35635437305406098</v>
       </c>
       <c r="M6">
-        <v>0.33342768185677801</v>
+        <v>0.33569204641947298</v>
       </c>
       <c r="N6">
-        <v>0.32139824511746301</v>
+        <v>0.31842626662892698</v>
       </c>
       <c r="O6">
-        <v>0.31333144636286397</v>
+        <v>0.30752901217095902</v>
       </c>
       <c r="P6">
-        <v>0.29733937163883301</v>
+        <v>0.30158505519388601</v>
       </c>
       <c r="Q6">
-        <v>0.28516841211435001</v>
+        <v>0.29408434757995999</v>
       </c>
       <c r="R6">
-        <v>0.28714973110670799</v>
+        <v>0.28672516275120202</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -6089,52 +6087,52 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C7">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="D7">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E7">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="F7">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.27823379564109801</v>
+        <v>0.282762524766487</v>
       </c>
       <c r="L7">
-        <v>0.19501839796207099</v>
+        <v>0.19799037645060799</v>
       </c>
       <c r="M7">
-        <v>0.14732521936031701</v>
+        <v>0.14407019530144299</v>
       </c>
       <c r="N7">
-        <v>0.104585338239456</v>
+        <v>0.10203792810642499</v>
       </c>
       <c r="O7">
-        <v>7.4157939428247902E-2</v>
+        <v>7.6280781205774098E-2</v>
       </c>
       <c r="P7">
-        <v>5.2646476082649302E-2</v>
+        <v>5.0523634305123098E-2</v>
       </c>
       <c r="Q7">
-        <v>3.6795924143787101E-2</v>
+        <v>3.9060288706481698E-2</v>
       </c>
       <c r="R7">
-        <v>2.51910557599773E-2</v>
+        <v>2.7030851967166699E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -6142,52 +6140,52 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="C8">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="D8">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="E8">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F8">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="G8">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="H8">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I8">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
-        <v>0.36173223889046102</v>
+        <v>0.36527030851967102</v>
       </c>
       <c r="L8">
-        <v>0.30795358052646399</v>
+        <v>0.30328332861590701</v>
       </c>
       <c r="M8">
-        <v>0.26917633739031899</v>
+        <v>0.269883951316161</v>
       </c>
       <c r="N8">
-        <v>0.23025757146900599</v>
+        <v>0.23167279932068999</v>
       </c>
       <c r="O8">
-        <v>0.20492499292385999</v>
+        <v>0.20223606000566</v>
       </c>
       <c r="P8">
-        <v>0.183272006793093</v>
+        <v>0.18086611944523001</v>
       </c>
       <c r="Q8">
-        <v>0.155250495329748</v>
+        <v>0.16190206623266301</v>
       </c>
       <c r="R8">
-        <v>0.14690065100481101</v>
+        <v>0.142230399094254</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -6195,16 +6193,16 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="C9">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D9">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F9">
         <v>0.02</v>
@@ -6213,34 +6211,34 @@
         <v>0.03</v>
       </c>
       <c r="H9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.18822530427398801</v>
+        <v>0.19020662326634499</v>
       </c>
       <c r="L9">
-        <v>0.117463911689782</v>
+        <v>0.11930370789697101</v>
       </c>
       <c r="M9">
-        <v>8.88763090857628E-2</v>
+        <v>8.6187376167562904E-2</v>
       </c>
       <c r="N9">
-        <v>4.8259269742428501E-2</v>
+        <v>4.9957543164449399E-2</v>
       </c>
       <c r="O9">
-        <v>3.7220492499292303E-2</v>
+        <v>3.7645060854797602E-2</v>
       </c>
       <c r="P9">
-        <v>2.7879988678177099E-2</v>
+        <v>2.9012170959524401E-2</v>
       </c>
       <c r="Q9">
-        <v>2.6323238041324599E-2</v>
+        <v>2.58986696858194E-2</v>
       </c>
       <c r="R9">
-        <v>2.1228417775261799E-2</v>
+        <v>2.0662326634588099E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -6248,1239 +6246,1663 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.28999999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="C10">
+        <v>0.38</v>
+      </c>
+      <c r="D10">
+        <v>0.31</v>
+      </c>
+      <c r="E10">
+        <v>0.27</v>
+      </c>
+      <c r="F10">
         <v>0.25</v>
       </c>
-      <c r="D10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E10">
-        <v>0.35</v>
-      </c>
-      <c r="F10">
-        <v>0.26</v>
-      </c>
       <c r="G10">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="H10">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I10">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="K10">
-        <v>0.38338522502122802</v>
+        <v>0.383668270591565</v>
       </c>
       <c r="L10">
-        <v>0.329323521086895</v>
+        <v>0.33116331729408399</v>
       </c>
       <c r="M10">
-        <v>0.29634871214265401</v>
+        <v>0.29620718935748602</v>
       </c>
       <c r="N10">
-        <v>0.267195018397962</v>
+        <v>0.26691197282762502</v>
       </c>
       <c r="O10">
-        <v>0.24073025757146899</v>
+        <v>0.2405887347863</v>
       </c>
       <c r="P10">
-        <v>0.220775544862722</v>
+        <v>0.22035097650721699</v>
       </c>
       <c r="Q10">
-        <v>0.19983017265779701</v>
+        <v>0.19813189923577601</v>
       </c>
       <c r="R10">
-        <v>0.181432210585904</v>
+        <v>0.18114916501556699</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0.74</v>
+      </c>
+      <c r="C11">
+        <v>0.68</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.67</v>
+      </c>
+      <c r="F11">
+        <v>0.65</v>
+      </c>
+      <c r="G11">
+        <v>0.61</v>
+      </c>
+      <c r="H11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K11">
+        <v>0.77596943107840299</v>
+      </c>
+      <c r="L11">
+        <v>0.71242570053778598</v>
+      </c>
+      <c r="M11">
+        <v>0.67478063968298896</v>
+      </c>
+      <c r="N11">
+        <v>0.64392867251627495</v>
+      </c>
+      <c r="O11">
+        <v>0.61972827625247595</v>
+      </c>
+      <c r="P11">
+        <v>0.57882819133880503</v>
+      </c>
+      <c r="Q11">
+        <v>0.55321256722332202</v>
+      </c>
+      <c r="R11">
+        <v>0.52193603170110303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.65</v>
+      </c>
+      <c r="C12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E12">
+        <v>0.45</v>
+      </c>
+      <c r="F12">
+        <v>0.51</v>
+      </c>
+      <c r="G12">
+        <v>0.47</v>
+      </c>
+      <c r="H12">
+        <v>0.45</v>
+      </c>
+      <c r="I12">
+        <v>0.41</v>
+      </c>
+      <c r="K12">
+        <v>0.655250495329748</v>
+      </c>
+      <c r="L12">
+        <v>0.58491367110104697</v>
+      </c>
+      <c r="M12">
+        <v>0.52377582790829302</v>
+      </c>
+      <c r="N12">
+        <v>0.49348995188225298</v>
+      </c>
+      <c r="O12">
+        <v>0.46688366827059102</v>
+      </c>
+      <c r="P12">
+        <v>0.43589017831870902</v>
+      </c>
+      <c r="Q12">
+        <v>0.41791678460232001</v>
+      </c>
+      <c r="R12">
+        <v>0.40503821115199501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.65</v>
+      </c>
+      <c r="C13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E13">
+        <v>0.45</v>
+      </c>
+      <c r="F13">
+        <v>0.51</v>
+      </c>
+      <c r="G13">
+        <v>0.48</v>
+      </c>
+      <c r="H13">
+        <v>0.47</v>
+      </c>
+      <c r="I13">
+        <v>0.43</v>
+      </c>
+      <c r="K13">
+        <v>0.65440135861873705</v>
+      </c>
+      <c r="L13">
+        <v>0.57939428247947899</v>
+      </c>
+      <c r="M13">
+        <v>0.51868100764223002</v>
+      </c>
+      <c r="N13">
+        <v>0.49094254174922097</v>
+      </c>
+      <c r="O13">
+        <v>0.46362864421171801</v>
+      </c>
+      <c r="P13">
+        <v>0.43334276818567702</v>
+      </c>
+      <c r="Q13">
+        <v>0.41664307953580498</v>
+      </c>
+      <c r="R13">
+        <v>0.40418907444098501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
-        <v>0.68</v>
-      </c>
-      <c r="C11">
-        <v>0.65</v>
-      </c>
-      <c r="D11">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E11">
-        <v>0.45</v>
-      </c>
-      <c r="F11">
-        <v>0.45</v>
-      </c>
-      <c r="G11">
-        <v>0.46</v>
-      </c>
-      <c r="H11">
-        <v>0.47</v>
-      </c>
-      <c r="I11">
-        <v>0.46</v>
-      </c>
-      <c r="K11">
-        <v>0.66020379281064201</v>
-      </c>
-      <c r="L11">
-        <v>0.57712991791678403</v>
-      </c>
-      <c r="M11">
-        <v>0.52363430512312403</v>
-      </c>
-      <c r="N11">
-        <v>0.49065949617888399</v>
-      </c>
-      <c r="O11">
-        <v>0.46603453155958102</v>
-      </c>
-      <c r="P11">
-        <v>0.44353240871780297</v>
-      </c>
-      <c r="Q11">
-        <v>0.41834135295782598</v>
-      </c>
-      <c r="R11">
-        <v>0.41055759977356299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="3">
         <v>20</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E16" s="3">
         <v>25</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F16" s="3">
         <v>30</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G16" s="3">
         <v>35</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H16" s="3">
         <v>40</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I16" s="3">
         <v>45</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="3">
+      <c r="J16" s="5"/>
+      <c r="K16" s="3">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L16" s="3">
         <v>15</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M16" s="3">
         <v>20</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N16" s="3">
         <v>25</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O16" s="3">
         <v>30</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P16" s="3">
         <v>35</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q16" s="3">
         <v>40</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R16" s="3">
         <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>0.41461248970725401</v>
-      </c>
-      <c r="C15">
-        <v>0.38557749219749998</v>
-      </c>
-      <c r="D15">
-        <v>0.37605096605098098</v>
-      </c>
-      <c r="E15">
-        <v>0.37353044972011801</v>
-      </c>
-      <c r="F15">
-        <v>0.40849265007028601</v>
-      </c>
-      <c r="G15">
-        <v>0.36686187347871302</v>
-      </c>
-      <c r="H15">
-        <v>0.353621534699879</v>
-      </c>
-      <c r="I15">
-        <v>0.38108945248808501</v>
-      </c>
-      <c r="K15">
-        <v>0.342340758596689</v>
-      </c>
-      <c r="L15">
-        <v>0.36729336822749098</v>
-      </c>
-      <c r="M15">
-        <v>0.38315489890974302</v>
-      </c>
-      <c r="N15">
-        <v>0.389109841386931</v>
-      </c>
-      <c r="O15">
-        <v>0.389995772320885</v>
-      </c>
-      <c r="P15">
-        <v>0.39802297839051798</v>
-      </c>
-      <c r="Q15">
-        <v>0.40669815420299399</v>
-      </c>
-      <c r="R15">
-        <v>0.406121395897801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>0.46307413830313199</v>
-      </c>
-      <c r="C16">
-        <v>0.44279884043086198</v>
-      </c>
-      <c r="D16">
-        <v>0.52116067931785703</v>
-      </c>
-      <c r="E16">
-        <v>0.47098680650851099</v>
-      </c>
-      <c r="F16">
-        <v>0.55635892287377997</v>
-      </c>
-      <c r="G16">
-        <v>0.51819087882385995</v>
-      </c>
-      <c r="H16">
-        <v>0.58041910733597302</v>
-      </c>
-      <c r="I16">
-        <v>0.50403569635953704</v>
-      </c>
-      <c r="K16">
-        <v>0.41537890783786502</v>
-      </c>
-      <c r="L16">
-        <v>0.46838689467753097</v>
-      </c>
-      <c r="M16">
-        <v>0.50695681635230605</v>
-      </c>
-      <c r="N16">
-        <v>0.53536091954930698</v>
-      </c>
-      <c r="O16">
-        <v>0.54829050341695096</v>
-      </c>
-      <c r="P16">
-        <v>0.56082045803746505</v>
-      </c>
-      <c r="Q16">
-        <v>0.56576228553410302</v>
-      </c>
-      <c r="R16">
-        <v>0.57109973656526902</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>0.40869135951375801</v>
+        <v>0.33226927048116001</v>
       </c>
       <c r="C17">
-        <v>0.38011156920516598</v>
+        <v>0.31419607120607201</v>
       </c>
       <c r="D17">
-        <v>0.44924371329852197</v>
+        <v>0.34656898978112499</v>
       </c>
       <c r="E17">
-        <v>0.417886847068833</v>
+        <v>0.37689493983397199</v>
       </c>
       <c r="F17">
-        <v>0.45135383586741001</v>
+        <v>0.37595663008137198</v>
       </c>
       <c r="G17">
-        <v>0.41111975904471698</v>
+        <v>0.411907062797774</v>
       </c>
       <c r="H17">
-        <v>0.47743896588134599</v>
+        <v>0.46706035468064599</v>
       </c>
       <c r="I17">
-        <v>0.418120278598968</v>
+        <v>0.402422136809298</v>
       </c>
       <c r="K17">
-        <v>0.35652160446057901</v>
+        <v>0.342080423413261</v>
       </c>
       <c r="L17">
-        <v>0.390187870714514</v>
+        <v>0.36561002198664999</v>
       </c>
       <c r="M17">
-        <v>0.41198471805708198</v>
+        <v>0.38025999057130899</v>
       </c>
       <c r="N17">
-        <v>0.43491040474335202</v>
+        <v>0.38701353701292601</v>
       </c>
       <c r="O17">
-        <v>0.44403008670129102</v>
+        <v>0.394920786693013</v>
       </c>
       <c r="P17">
-        <v>0.45331899158865102</v>
+        <v>0.40056419842010199</v>
       </c>
       <c r="Q17">
-        <v>0.46578009996931302</v>
+        <v>0.404166847668049</v>
       </c>
       <c r="R17">
-        <v>0.47467823071015097</v>
+        <v>0.40572681714512598</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>0.62235131101306196</v>
+        <v>0.43597612366458</v>
       </c>
       <c r="C18">
-        <v>0.58573199404269505</v>
+        <v>0.41828750361245698</v>
       </c>
       <c r="D18">
-        <v>0.60187499689650503</v>
+        <v>0.49440420037196497</v>
       </c>
       <c r="E18">
-        <v>0.600796767699458</v>
+        <v>0.52342955350659504</v>
       </c>
       <c r="F18">
-        <v>0.65784834193750297</v>
+        <v>0.51424615829295905</v>
       </c>
       <c r="G18">
-        <v>0.64389771404739304</v>
+        <v>0.57418648136784001</v>
       </c>
       <c r="H18">
-        <v>0.64591359739196796</v>
+        <v>0.59255552380174403</v>
       </c>
       <c r="I18">
-        <v>0.61864614507226401</v>
+        <v>0.59802676420260903</v>
       </c>
       <c r="K18">
-        <v>0.54098241357058297</v>
+        <v>0.41460269469927802</v>
       </c>
       <c r="L18">
-        <v>0.60823987281691005</v>
+        <v>0.46792044452601</v>
       </c>
       <c r="M18">
-        <v>0.63273984112646198</v>
+        <v>0.50449065224330703</v>
       </c>
       <c r="N18">
-        <v>0.68280271179720298</v>
+        <v>0.52935646844209305</v>
       </c>
       <c r="O18">
-        <v>0.67509387916918995</v>
+        <v>0.54906959424030599</v>
       </c>
       <c r="P18">
-        <v>0.66891385885459498</v>
+        <v>0.56230750114378103</v>
       </c>
       <c r="Q18">
-        <v>0.665158909362913</v>
+        <v>0.56845639321021202</v>
       </c>
       <c r="R18">
-        <v>0.65923772386965396</v>
+        <v>0.57097875774901496</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>0.41797323969933597</v>
+        <v>0.34794757272145199</v>
       </c>
       <c r="C19">
-        <v>0.40060934820541499</v>
+        <v>0.33381910060327602</v>
       </c>
       <c r="D19">
-        <v>0.44714754869175</v>
+        <v>0.40655939260095397</v>
       </c>
       <c r="E19">
-        <v>0.39242340027163702</v>
+        <v>0.39672172463615801</v>
       </c>
       <c r="F19">
-        <v>0.46280575714730698</v>
+        <v>0.41170304631155402</v>
       </c>
       <c r="G19">
-        <v>0.41830033880114598</v>
+        <v>0.46502112915033</v>
       </c>
       <c r="H19">
-        <v>0.46612169746516302</v>
+        <v>0.49646843301405502</v>
       </c>
       <c r="I19">
-        <v>0.43701504605646802</v>
+        <v>0.49878858321526298</v>
       </c>
       <c r="K19">
-        <v>0.35727147724564501</v>
+        <v>0.35596980871418799</v>
       </c>
       <c r="L19">
-        <v>0.39142379457436799</v>
+        <v>0.38942643616407802</v>
       </c>
       <c r="M19">
-        <v>0.41367736072782102</v>
+        <v>0.41030698112737402</v>
       </c>
       <c r="N19">
-        <v>0.431638735748828</v>
+        <v>0.42873854634985897</v>
       </c>
       <c r="O19">
-        <v>0.44663584855843502</v>
+        <v>0.44485351840371401</v>
       </c>
       <c r="P19">
-        <v>0.45576829103430599</v>
+        <v>0.45681112616199299</v>
       </c>
       <c r="Q19">
-        <v>0.46959579798616602</v>
+        <v>0.466076451108212</v>
       </c>
       <c r="R19">
-        <v>0.48452682560327598</v>
+        <v>0.47432268238707997</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>0.29320802434482102</v>
+        <v>0.51940918430788596</v>
       </c>
       <c r="C20">
-        <v>0.29020798095431999</v>
+        <v>0.574173221210316</v>
       </c>
       <c r="D20">
-        <v>0.32393444428788098</v>
+        <v>0.68985738662721297</v>
       </c>
       <c r="E20">
-        <v>0.46117387886892702</v>
+        <v>0.64503777823851405</v>
       </c>
       <c r="F20">
-        <v>0.45970217266622898</v>
+        <v>0.67792106166023502</v>
       </c>
       <c r="G20">
-        <v>0.41726098067617601</v>
+        <v>0.69664537773269597</v>
       </c>
       <c r="H20">
-        <v>0.46078400732126801</v>
+        <v>0.72148866821927204</v>
       </c>
       <c r="I20">
-        <v>0.44156986316420999</v>
+        <v>0.69068525225954003</v>
       </c>
       <c r="K20">
-        <v>0.25964444558247302</v>
+        <v>0.54057288662326897</v>
       </c>
       <c r="L20">
-        <v>0.33617135099512602</v>
+        <v>0.60750414071315595</v>
       </c>
       <c r="M20">
-        <v>0.39634841759999301</v>
+        <v>0.63587520141857201</v>
       </c>
       <c r="N20">
-        <v>0.42058318155463698</v>
+        <v>0.67631950672695296</v>
       </c>
       <c r="O20">
-        <v>0.44654706630388802</v>
+        <v>0.67100566076090995</v>
       </c>
       <c r="P20">
-        <v>0.46815153269820198</v>
+        <v>0.669322772705087</v>
       </c>
       <c r="Q20">
-        <v>0.486967222102</v>
+        <v>0.66669922499477496</v>
       </c>
       <c r="R20">
-        <v>0.50137949382682201</v>
+        <v>0.66016945372756197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.325267891753587</v>
+      </c>
+      <c r="C21">
+        <v>0.33092460835124898</v>
+      </c>
+      <c r="D21">
+        <v>0.38506044099234299</v>
+      </c>
+      <c r="E21">
+        <v>0.425008760044427</v>
+      </c>
+      <c r="F21">
+        <v>0.40394618125274101</v>
+      </c>
+      <c r="G21">
+        <v>0.48594666280656001</v>
+      </c>
+      <c r="H21">
+        <v>0.53478004635627496</v>
+      </c>
+      <c r="I21">
+        <v>0.50732074407951799</v>
+      </c>
+      <c r="K21">
+        <v>0.35846818222476101</v>
+      </c>
+      <c r="L21">
+        <v>0.38836213104501599</v>
+      </c>
+      <c r="M21">
+        <v>0.413230218014141</v>
+      </c>
+      <c r="N21">
+        <v>0.42744309427296101</v>
+      </c>
+      <c r="O21">
+        <v>0.447631263115644</v>
+      </c>
+      <c r="P21">
+        <v>0.46102333983169802</v>
+      </c>
+      <c r="Q21">
+        <v>0.47367379168365797</v>
+      </c>
+      <c r="R21">
+        <v>0.48379944878423897</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3">
-        <v>20</v>
-      </c>
-      <c r="E23" s="3">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3">
-        <v>30</v>
-      </c>
-      <c r="G23" s="3">
-        <v>35</v>
-      </c>
-      <c r="H23" s="3">
-        <v>40</v>
-      </c>
-      <c r="I23" s="3">
-        <v>45</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="3">
-        <v>10</v>
-      </c>
-      <c r="L23" s="3">
-        <v>15</v>
-      </c>
-      <c r="M23" s="3">
-        <v>20</v>
-      </c>
-      <c r="N23" s="3">
-        <v>25</v>
-      </c>
-      <c r="O23" s="3">
-        <v>30</v>
-      </c>
-      <c r="P23" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>40</v>
-      </c>
-      <c r="R23" s="3">
-        <v>45</v>
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.21775719884803199</v>
+      </c>
+      <c r="C22">
+        <v>0.27522226850117398</v>
+      </c>
+      <c r="D22">
+        <v>0.22674934256443799</v>
+      </c>
+      <c r="E22">
+        <v>0.26365762922177299</v>
+      </c>
+      <c r="F22">
+        <v>0.27911903425058299</v>
+      </c>
+      <c r="G22">
+        <v>0.326194116109916</v>
+      </c>
+      <c r="H22">
+        <v>0.34665992443156302</v>
+      </c>
+      <c r="I22">
+        <v>0.33127950979089299</v>
+      </c>
+      <c r="K22">
+        <v>0.18344851323386799</v>
+      </c>
+      <c r="L22">
+        <v>0.23576740104042801</v>
+      </c>
+      <c r="M22">
+        <v>0.27698827131746701</v>
+      </c>
+      <c r="N22">
+        <v>0.29668369173910197</v>
+      </c>
+      <c r="O22">
+        <v>0.31364201063911401</v>
+      </c>
+      <c r="P22">
+        <v>0.350785481843362</v>
+      </c>
+      <c r="Q22">
+        <v>0.36053239783662799</v>
+      </c>
+      <c r="R22">
+        <v>0.37561322849087903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.28041025987061002</v>
+      </c>
+      <c r="C23">
+        <v>0.345552537794101</v>
+      </c>
+      <c r="D23">
+        <v>0.31153664845103601</v>
+      </c>
+      <c r="E23">
+        <v>0.45327930578579301</v>
+      </c>
+      <c r="F23">
+        <v>0.39348134403581903</v>
+      </c>
+      <c r="G23">
+        <v>0.48235854097057401</v>
+      </c>
+      <c r="H23">
+        <v>0.47191299696165601</v>
+      </c>
+      <c r="I23">
+        <v>0.459956125282726</v>
+      </c>
+      <c r="K23">
+        <v>0.26273029798677</v>
+      </c>
+      <c r="L23">
+        <v>0.32749368566487103</v>
+      </c>
+      <c r="M23">
+        <v>0.39011002417239499</v>
+      </c>
+      <c r="N23">
+        <v>0.416469200357725</v>
+      </c>
+      <c r="O23">
+        <v>0.44082976436108401</v>
+      </c>
+      <c r="P23">
+        <v>0.47048943392967502</v>
+      </c>
+      <c r="Q23">
+        <v>0.483110831706484</v>
+      </c>
+      <c r="R23">
+        <v>0.49551576611607701</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>0.72</v>
+        <v>0.28041025987061002</v>
       </c>
       <c r="C24">
-        <v>0.74</v>
+        <v>0.344093553363435</v>
       </c>
       <c r="D24">
-        <v>0.67</v>
+        <v>0.311886315258606</v>
       </c>
       <c r="E24">
-        <v>0.65</v>
+        <v>0.44409300102795501</v>
       </c>
       <c r="F24">
-        <v>0.74</v>
+        <v>0.39306492589539399</v>
       </c>
       <c r="G24">
-        <v>0.73</v>
+        <v>0.47319740990197201</v>
       </c>
       <c r="H24">
-        <v>0.67</v>
+        <v>0.46409136634849202</v>
       </c>
       <c r="I24">
-        <v>0.87</v>
+        <v>0.45889705533186398</v>
       </c>
       <c r="K24">
-        <v>0.62397395980752901</v>
+        <v>0.26313598167093799</v>
       </c>
       <c r="L24">
-        <v>0.66756297763939998</v>
+        <v>0.332966065827553</v>
       </c>
       <c r="M24">
-        <v>0.69615058024341903</v>
+        <v>0.39540768664654502</v>
       </c>
       <c r="N24">
-        <v>0.71369940560430201</v>
+        <v>0.42301797775998801</v>
       </c>
       <c r="O24">
-        <v>0.72870082083215304</v>
+        <v>0.44887538120673198</v>
       </c>
       <c r="P24">
-        <v>0.758562128502688</v>
+        <v>0.47837720722172999</v>
       </c>
       <c r="Q24">
-        <v>0.78304557033682398</v>
+        <v>0.49234800573808801</v>
       </c>
       <c r="R24">
-        <v>0.79507500707613898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>0.87</v>
-      </c>
-      <c r="C25">
-        <v>0.94</v>
-      </c>
-      <c r="D25">
-        <v>1.17</v>
-      </c>
-      <c r="E25">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F25">
-        <v>1.3</v>
-      </c>
-      <c r="G25">
-        <v>1.35</v>
-      </c>
-      <c r="H25">
-        <v>1.5</v>
-      </c>
-      <c r="I25">
-        <v>1.46</v>
-      </c>
-      <c r="K25">
-        <v>0.82309651853948396</v>
-      </c>
-      <c r="L25">
-        <v>0.98259269742428501</v>
-      </c>
-      <c r="M25">
-        <v>1.12071893574865</v>
-      </c>
-      <c r="N25">
-        <v>1.24412680441551</v>
-      </c>
-      <c r="O25">
-        <v>1.3464477780922699</v>
-      </c>
-      <c r="P25">
-        <v>1.43390885932635</v>
-      </c>
-      <c r="Q25">
-        <v>1.5159920747240301</v>
-      </c>
-      <c r="R25">
-        <v>1.5761392584206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>0.76</v>
-      </c>
-      <c r="C26">
-        <v>0.78</v>
-      </c>
-      <c r="D26">
-        <v>0.94</v>
-      </c>
-      <c r="E26">
-        <v>0.88</v>
-      </c>
-      <c r="F26">
-        <v>0.95</v>
-      </c>
-      <c r="G26">
-        <v>0.95</v>
-      </c>
-      <c r="H26">
-        <v>1.04</v>
-      </c>
-      <c r="I26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K26">
-        <v>0.68256439286725101</v>
-      </c>
-      <c r="L26">
-        <v>0.76068497028021498</v>
-      </c>
-      <c r="M26">
-        <v>0.831021794508915</v>
-      </c>
-      <c r="N26">
-        <v>0.90164166430795301</v>
-      </c>
-      <c r="O26">
-        <v>0.956835550523634</v>
-      </c>
-      <c r="P26">
-        <v>1.0150014152278499</v>
-      </c>
-      <c r="Q26">
-        <v>1.08321539767902</v>
-      </c>
-      <c r="R26">
-        <v>1.1365694876875101</v>
+        <v>0.50372490208930898</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>1.19</v>
-      </c>
-      <c r="C27">
-        <v>1.21</v>
-      </c>
-      <c r="D27">
-        <v>1.26</v>
-      </c>
-      <c r="E27">
-        <v>1.46</v>
-      </c>
-      <c r="F27">
-        <v>1.55</v>
-      </c>
-      <c r="G27">
-        <v>1.63</v>
-      </c>
-      <c r="H27">
-        <v>1.62</v>
-      </c>
-      <c r="I27">
-        <v>1.68</v>
-      </c>
-      <c r="K27">
-        <v>1.0673648457401601</v>
-      </c>
-      <c r="L27">
-        <v>1.2461081234078599</v>
-      </c>
-      <c r="M27">
-        <v>1.3422020945372199</v>
-      </c>
-      <c r="N27">
-        <v>1.5428814039060199</v>
-      </c>
-      <c r="O27">
-        <v>1.59340503821115</v>
-      </c>
-      <c r="P27">
-        <v>1.63048400792527</v>
-      </c>
-      <c r="Q27">
-        <v>1.67308236626096</v>
-      </c>
-      <c r="R27">
-        <v>1.68893291819983</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>0.73</v>
-      </c>
-      <c r="C28">
-        <v>0.77</v>
-      </c>
-      <c r="D28">
-        <v>0.81</v>
-      </c>
-      <c r="E28">
-        <v>0.72</v>
-      </c>
-      <c r="F28">
-        <v>0.85</v>
-      </c>
-      <c r="G28">
-        <v>0.8</v>
-      </c>
-      <c r="H28">
-        <v>0.85</v>
-      </c>
-      <c r="I28">
-        <v>0.96</v>
-      </c>
-      <c r="K28">
-        <v>0.64435324087178003</v>
-      </c>
-      <c r="L28">
-        <v>0.70591565242003895</v>
-      </c>
-      <c r="M28">
-        <v>0.75162751202943601</v>
-      </c>
-      <c r="N28">
-        <v>0.79082932352108604</v>
-      </c>
-      <c r="O28">
-        <v>0.83328615907160997</v>
-      </c>
-      <c r="P28">
-        <v>0.870648174356071</v>
-      </c>
-      <c r="Q28">
-        <v>0.913812623832437</v>
-      </c>
-      <c r="R28">
-        <v>0.96108123407868595</v>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3">
+        <v>25</v>
+      </c>
+      <c r="F28" s="3">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3">
+        <v>35</v>
+      </c>
+      <c r="H28" s="3">
+        <v>40</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="3">
+        <v>10</v>
+      </c>
+      <c r="L28" s="3">
+        <v>15</v>
+      </c>
+      <c r="M28" s="3">
+        <v>20</v>
+      </c>
+      <c r="N28" s="3">
+        <v>25</v>
+      </c>
+      <c r="O28" s="3">
+        <v>30</v>
+      </c>
+      <c r="P28" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>40</v>
+      </c>
+      <c r="R28" s="3">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>0.48</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C29">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="D29">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="E29">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="F29">
+        <v>0.78</v>
+      </c>
+      <c r="G29">
+        <v>0.76</v>
+      </c>
+      <c r="H29">
+        <v>0.84</v>
+      </c>
+      <c r="I29">
+        <v>0.79</v>
+      </c>
+      <c r="K29">
+        <v>0.62227568638550801</v>
+      </c>
+      <c r="L29">
+        <v>0.663741862439852</v>
+      </c>
+      <c r="M29">
+        <v>0.69148032833286099</v>
+      </c>
+      <c r="N29">
+        <v>0.71865270308519602</v>
+      </c>
+      <c r="O29">
+        <v>0.73591848287574302</v>
+      </c>
+      <c r="P29">
+        <v>0.75360883102179399</v>
+      </c>
+      <c r="Q29">
+        <v>0.77398811208604501</v>
+      </c>
+      <c r="R29">
+        <v>0.794791961505802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0.84</v>
+      </c>
+      <c r="C30">
+        <v>0.98</v>
+      </c>
+      <c r="D30">
+        <v>1.18</v>
+      </c>
+      <c r="E30">
+        <v>1.27</v>
+      </c>
+      <c r="F30">
+        <v>1.29</v>
+      </c>
+      <c r="G30">
+        <v>1.54</v>
+      </c>
+      <c r="H30">
+        <v>1.57</v>
+      </c>
+      <c r="I30">
+        <v>1.53</v>
+      </c>
+      <c r="K30">
+        <v>0.81969997169544295</v>
+      </c>
+      <c r="L30">
+        <v>0.97707330880271703</v>
+      </c>
+      <c r="M30">
+        <v>1.11321822813472</v>
+      </c>
+      <c r="N30">
+        <v>1.2391735069346099</v>
+      </c>
+      <c r="O30">
+        <v>1.3460232097367599</v>
+      </c>
+      <c r="P30">
+        <v>1.4404189074440901</v>
+      </c>
+      <c r="Q30">
+        <v>1.52136994056043</v>
+      </c>
+      <c r="R30">
+        <v>1.5805264647608199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0.61</v>
+      </c>
+      <c r="C31">
+        <v>0.72</v>
+      </c>
+      <c r="D31">
         <v>0.85</v>
       </c>
-      <c r="G29">
-        <v>0.77</v>
-      </c>
-      <c r="H29">
-        <v>0.83</v>
-      </c>
-      <c r="I29">
+      <c r="E31">
+        <v>0.85</v>
+      </c>
+      <c r="F31">
         <v>0.87</v>
       </c>
-      <c r="K29">
-        <v>0.43772997452589801</v>
-      </c>
-      <c r="L29">
-        <v>0.57288423436173197</v>
-      </c>
-      <c r="M29">
+      <c r="G31">
+        <v>1.06</v>
+      </c>
+      <c r="H31">
+        <v>1.05</v>
+      </c>
+      <c r="I31">
+        <v>1.21</v>
+      </c>
+      <c r="K31">
         <v>0.67831870931219895</v>
       </c>
-      <c r="N29">
-        <v>0.74299462213416301</v>
-      </c>
-      <c r="O29">
-        <v>0.80271723747523305</v>
-      </c>
-      <c r="P29">
-        <v>0.85649589583923003</v>
-      </c>
-      <c r="Q29">
-        <v>0.91352957826210002</v>
-      </c>
-      <c r="R29">
-        <v>0.94607981885083503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="3">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3">
-        <v>15</v>
-      </c>
-      <c r="D32" s="3">
-        <v>20</v>
-      </c>
-      <c r="E32" s="3">
-        <v>25</v>
-      </c>
-      <c r="F32" s="3">
-        <v>30</v>
-      </c>
-      <c r="G32" s="3">
-        <v>35</v>
-      </c>
-      <c r="H32" s="3">
-        <v>40</v>
-      </c>
-      <c r="I32" s="3">
-        <v>45</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>15</v>
-      </c>
-      <c r="M32" s="3">
-        <v>20</v>
-      </c>
-      <c r="N32" s="3">
-        <v>25</v>
-      </c>
-      <c r="O32" s="3">
-        <v>30</v>
-      </c>
-      <c r="P32" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>40</v>
-      </c>
-      <c r="R32" s="3">
-        <v>45</v>
+      <c r="L31">
+        <v>0.76280781205774095</v>
+      </c>
+      <c r="M31">
+        <v>0.82196433625813703</v>
+      </c>
+      <c r="N31">
+        <v>0.89598075290121704</v>
+      </c>
+      <c r="O31">
+        <v>0.96093971129351796</v>
+      </c>
+      <c r="P31">
+        <v>1.0186810076422299</v>
+      </c>
+      <c r="Q31">
+        <v>1.0772714407019499</v>
+      </c>
+      <c r="R31">
+        <v>1.1398245117463901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.99</v>
+      </c>
+      <c r="C32">
+        <v>1.27</v>
+      </c>
+      <c r="D32">
+        <v>1.53</v>
+      </c>
+      <c r="E32">
+        <v>1.57</v>
+      </c>
+      <c r="F32">
+        <v>1.61</v>
+      </c>
+      <c r="G32">
+        <v>1.65</v>
+      </c>
+      <c r="H32">
+        <v>1.79</v>
+      </c>
+      <c r="I32">
+        <v>1.72</v>
+      </c>
+      <c r="K32">
+        <v>1.06524200396263</v>
+      </c>
+      <c r="L32">
+        <v>1.2533257854514499</v>
+      </c>
+      <c r="M32">
+        <v>1.3472969148032801</v>
+      </c>
+      <c r="N32">
+        <v>1.5355222190772699</v>
+      </c>
+      <c r="O32">
+        <v>1.59651853948485</v>
+      </c>
+      <c r="P32">
+        <v>1.6300594395697701</v>
+      </c>
+      <c r="Q32">
+        <v>1.6645909991508601</v>
+      </c>
+      <c r="R32">
+        <v>1.6907727144070099</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>0.40500000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C33">
-        <v>0.30266666666666597</v>
+        <v>0.65</v>
       </c>
       <c r="D33">
-        <v>0.25950000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E33">
-        <v>0.220799999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F33">
-        <v>0.234333333333333</v>
+        <v>0.81</v>
       </c>
       <c r="G33">
-        <v>0.19771428571428501</v>
+        <v>0.92</v>
       </c>
       <c r="H33">
-        <v>0.17374999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="I33">
-        <v>0.17333333333333301</v>
+        <v>0.97</v>
       </c>
       <c r="K33">
-        <v>0.37489385791110602</v>
+        <v>0.64364562694593797</v>
       </c>
       <c r="L33">
-        <v>0.294093782432304</v>
+        <v>0.70209453722049198</v>
       </c>
       <c r="M33">
-        <v>0.25394140956692701</v>
+        <v>0.74936314746674204</v>
       </c>
       <c r="N33">
-        <v>0.23420322671949001</v>
+        <v>0.78941409566940202</v>
       </c>
       <c r="O33">
-        <v>0.212062458722516</v>
+        <v>0.83498443249363097</v>
       </c>
       <c r="P33">
-        <v>0.19905786260159999</v>
+        <v>0.87305406170393396</v>
       </c>
       <c r="Q33">
-        <v>0.19019247098782799</v>
+        <v>0.91919048966883599</v>
       </c>
       <c r="R33">
-        <v>0.18243230493439999</v>
+        <v>0.95810925559015003</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>0.47899999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="C34">
-        <v>0.42999999999999899</v>
+        <v>0.45</v>
       </c>
       <c r="D34">
-        <v>0.51249999999999996</v>
+        <v>0.44</v>
       </c>
       <c r="E34">
-        <v>0.52199999999999902</v>
+        <v>0.49</v>
       </c>
       <c r="F34">
-        <v>0.58533333333333304</v>
+        <v>0.53</v>
       </c>
       <c r="G34">
-        <v>0.57942857142857096</v>
+        <v>0.59</v>
       </c>
       <c r="H34">
-        <v>0.63124999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="I34">
-        <v>0.60533333333333295</v>
+        <v>0.67</v>
       </c>
       <c r="K34">
-        <v>0.453821115199535</v>
+        <v>0.29804698556467502</v>
       </c>
       <c r="L34">
-        <v>0.48234739126331999</v>
+        <v>0.391310500990659</v>
       </c>
       <c r="M34">
-        <v>0.51659354656099998</v>
+        <v>0.46490234927823298</v>
       </c>
       <c r="N34">
-        <v>0.55024058873478898</v>
+        <v>0.51443532408717796</v>
       </c>
       <c r="O34">
-        <v>0.57447400698179596</v>
+        <v>0.55774129634871195</v>
       </c>
       <c r="P34">
-        <v>0.602054102139016</v>
+        <v>0.63204075856212805</v>
       </c>
       <c r="Q34">
-        <v>0.62215185394848305</v>
+        <v>0.67053495612793601</v>
       </c>
       <c r="R34">
-        <v>0.64306066610057599</v>
+        <v>0.71497311067081804</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>0.41199999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="C35">
-        <v>0.33599999999999902</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D35">
-        <v>0.38599999999999901</v>
+        <v>0.61</v>
       </c>
       <c r="E35">
-        <v>0.43279999999999902</v>
+        <v>0.81</v>
       </c>
       <c r="F35">
-        <v>0.43366666666666598</v>
+        <v>0.73</v>
       </c>
       <c r="G35">
-        <v>0.437428571428571</v>
+        <v>0.84</v>
       </c>
       <c r="H35">
-        <v>0.50024999999999897</v>
+        <v>0.89</v>
       </c>
       <c r="I35">
-        <v>0.45311111111111102</v>
+        <v>0.94</v>
       </c>
       <c r="K35">
-        <v>0.37292669119726601</v>
+        <v>0.44523068213982397</v>
       </c>
       <c r="L35">
-        <v>0.36984621190677802</v>
+        <v>0.55915652420039597</v>
       </c>
       <c r="M35">
-        <v>0.38908859326351802</v>
+        <v>0.67435607132748299</v>
       </c>
       <c r="N35">
-        <v>0.409317860175479</v>
+        <v>0.74044721200113195</v>
       </c>
       <c r="O35">
-        <v>0.43138975375029998</v>
+        <v>0.79917916784602305</v>
       </c>
       <c r="P35">
-        <v>0.45125550927985802</v>
+        <v>0.86979903764505995</v>
       </c>
       <c r="Q35">
-        <v>0.47646122275679997</v>
+        <v>0.90942541749221595</v>
       </c>
       <c r="R35">
-        <v>0.496059376670756</v>
+        <v>0.96178884800452802</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>0.43</v>
+      </c>
+      <c r="C36">
+        <v>0.59</v>
+      </c>
+      <c r="D36">
+        <v>0.61</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+      <c r="F36">
+        <v>0.73</v>
+      </c>
+      <c r="G36">
+        <v>0.82</v>
+      </c>
+      <c r="H36">
+        <v>0.86</v>
+      </c>
+      <c r="I36">
+        <v>0.92</v>
+      </c>
+      <c r="K36">
+        <v>0.44452306821398202</v>
+      </c>
+      <c r="L36">
+        <v>0.56510048117746903</v>
+      </c>
+      <c r="M36">
+        <v>0.67817718652702996</v>
+      </c>
+      <c r="N36">
+        <v>0.74299462213416301</v>
+      </c>
+      <c r="O36">
+        <v>0.80144353240871702</v>
+      </c>
+      <c r="P36">
+        <v>0.87022360600056603</v>
+      </c>
+      <c r="Q36">
+        <v>0.91069912255873198</v>
+      </c>
+      <c r="R36">
+        <v>0.95711859609397099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>20</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25</v>
+      </c>
+      <c r="F39" s="3">
+        <v>30</v>
+      </c>
+      <c r="G39" s="3">
+        <v>35</v>
+      </c>
+      <c r="H39" s="3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="3">
+        <v>10</v>
+      </c>
+      <c r="L39" s="3">
+        <v>15</v>
+      </c>
+      <c r="M39" s="3">
+        <v>20</v>
+      </c>
+      <c r="N39" s="3">
+        <v>25</v>
+      </c>
+      <c r="O39" s="3">
+        <v>30</v>
+      </c>
+      <c r="P39" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>40</v>
+      </c>
+      <c r="R39" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.36</v>
+      </c>
+      <c r="C40">
+        <v>0.30399999999999899</v>
+      </c>
+      <c r="D40">
+        <v>0.247</v>
+      </c>
+      <c r="E40">
+        <v>0.24919999999999901</v>
+      </c>
+      <c r="F40">
+        <v>0.25233333333333302</v>
+      </c>
+      <c r="G40">
+        <v>0.17342857142857099</v>
+      </c>
+      <c r="H40">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I40">
+        <v>0.189999999999999</v>
+      </c>
+      <c r="K40">
+        <v>0.37445513727708202</v>
+      </c>
+      <c r="L40">
+        <v>0.296141145391074</v>
+      </c>
+      <c r="M40">
+        <v>0.25546277950748902</v>
+      </c>
+      <c r="N40">
+        <v>0.23390885932634201</v>
+      </c>
+      <c r="O40">
+        <v>0.21480800075478301</v>
+      </c>
+      <c r="P40">
+        <v>0.20073187497473399</v>
+      </c>
+      <c r="Q40">
+        <v>0.19072671950184</v>
+      </c>
+      <c r="R40">
+        <v>0.18310532440167199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C41">
+        <v>0.47266666666666601</v>
+      </c>
+      <c r="D41">
+        <v>0.5585</v>
+      </c>
+      <c r="E41">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F41">
+        <v>0.56999999999999895</v>
+      </c>
+      <c r="G41">
+        <v>0.61685714285714199</v>
+      </c>
+      <c r="H41">
+        <v>0.67374999999999996</v>
+      </c>
+      <c r="I41">
+        <v>0.67199999999999904</v>
+      </c>
+      <c r="K41">
+        <v>0.44957543164448199</v>
+      </c>
+      <c r="L41">
+        <v>0.483790923672</v>
+      </c>
+      <c r="M41">
+        <v>0.51531984149448695</v>
+      </c>
+      <c r="N41">
+        <v>0.54840645343900496</v>
+      </c>
+      <c r="O41">
+        <v>0.57688932918200297</v>
+      </c>
+      <c r="P41">
+        <v>0.60126157454207196</v>
+      </c>
+      <c r="Q41">
+        <v>0.62378290404754899</v>
+      </c>
+      <c r="R41">
+        <v>0.64496965122495897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D42">
+        <v>0.40449999999999903</v>
+      </c>
+      <c r="E42">
+        <v>0.36519999999999903</v>
+      </c>
+      <c r="F42">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G42">
+        <v>0.440571428571428</v>
+      </c>
+      <c r="H42">
+        <v>0.53774999999999995</v>
+      </c>
+      <c r="I42">
+        <v>0.49377777777777698</v>
+      </c>
+      <c r="K42">
+        <v>0.37237475233510797</v>
+      </c>
+      <c r="L42">
+        <v>0.37178979148975599</v>
+      </c>
+      <c r="M42">
+        <v>0.38743277667704701</v>
+      </c>
+      <c r="N42">
+        <v>0.40647608264929802</v>
+      </c>
+      <c r="O42">
+        <v>0.42942730446268002</v>
+      </c>
+      <c r="P42">
+        <v>0.45527071287049398</v>
+      </c>
+      <c r="Q42">
+        <v>0.47428884800453602</v>
+      </c>
+      <c r="R42">
+        <v>0.49597131804887501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="B36">
-        <v>0.494999999999999</v>
-      </c>
-      <c r="C36">
-        <v>0.46533333333333299</v>
-      </c>
-      <c r="D36">
-        <v>0.47249999999999898</v>
-      </c>
-      <c r="E36">
-        <v>0.57440000000000002</v>
-      </c>
-      <c r="F36">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="G36">
-        <v>0.59857142857142798</v>
-      </c>
-      <c r="H36">
-        <v>0.56774999999999998</v>
-      </c>
-      <c r="I36">
-        <v>0.55711111111111</v>
-      </c>
-      <c r="K36">
-        <v>0.47718652703084502</v>
-      </c>
-      <c r="L36">
-        <v>0.50033021983205705</v>
-      </c>
-      <c r="M36">
-        <v>0.50694169261251099</v>
-      </c>
-      <c r="N36">
-        <v>0.58704217378998502</v>
-      </c>
-      <c r="O36">
-        <v>0.58490423624870702</v>
-      </c>
-      <c r="P36">
-        <v>0.581052120820022</v>
-      </c>
-      <c r="Q36">
-        <v>0.57482309651853902</v>
-      </c>
-      <c r="R36">
-        <v>0.574104475264958</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="B43">
+        <v>0.498</v>
+      </c>
+      <c r="C43">
+        <v>0.52333333333333298</v>
+      </c>
+      <c r="D43">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="F43">
+        <v>0.61033333333333295</v>
+      </c>
+      <c r="G43">
+        <v>0.60742857142857098</v>
+      </c>
+      <c r="H43">
+        <v>0.57174999999999998</v>
+      </c>
+      <c r="I43">
+        <v>0.59599999999999898</v>
+      </c>
+      <c r="K43">
+        <v>0.47853099348994299</v>
+      </c>
+      <c r="L43">
+        <v>0.50436833663552805</v>
+      </c>
+      <c r="M43">
+        <v>0.51735776960090696</v>
+      </c>
+      <c r="N43">
+        <v>0.58578545145769001</v>
+      </c>
+      <c r="O43">
+        <v>0.58447023304085599</v>
+      </c>
+      <c r="P43">
+        <v>0.57910314989284495</v>
+      </c>
+      <c r="Q43">
+        <v>0.57665935465609997</v>
+      </c>
+      <c r="R43">
+        <v>0.57298172783595802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B37">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="C37">
-        <v>0.55666666666666598</v>
-      </c>
-      <c r="D37">
-        <v>0.53399999999999903</v>
-      </c>
-      <c r="E37">
-        <v>0.49519999999999897</v>
-      </c>
-      <c r="F37">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="G37">
-        <v>0.53028571428571403</v>
-      </c>
-      <c r="H37">
-        <v>0.57799999999999896</v>
-      </c>
-      <c r="I37">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="K37">
-        <v>0.48821115199545401</v>
-      </c>
-      <c r="L37">
-        <v>0.50462307764882597</v>
-      </c>
-      <c r="M37">
-        <v>0.52369091423720004</v>
-      </c>
-      <c r="N37">
-        <v>0.53941692612510495</v>
-      </c>
-      <c r="O37">
-        <v>0.55210397207283701</v>
-      </c>
-      <c r="P37">
-        <v>0.56353564352432495</v>
-      </c>
-      <c r="Q37">
-        <v>0.57525827908294003</v>
-      </c>
-      <c r="R37">
-        <v>0.58308016479542601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38">
-        <v>0.14399999999999899</v>
-      </c>
-      <c r="C38">
-        <v>0.115333333333333</v>
-      </c>
-      <c r="D38">
-        <v>0.10199999999999899</v>
-      </c>
-      <c r="E38">
-        <v>0.101199999999999</v>
-      </c>
-      <c r="F38">
-        <v>8.5333333333333303E-2</v>
-      </c>
-      <c r="G38">
-        <v>0.104857142857142</v>
-      </c>
-      <c r="H38">
-        <v>7.6249999999999998E-2</v>
-      </c>
-      <c r="I38">
-        <v>8.8222222222222105E-2</v>
-      </c>
-      <c r="K38">
-        <v>0.15506651570903701</v>
-      </c>
-      <c r="L38">
-        <v>0.12494574959903</v>
-      </c>
-      <c r="M38">
-        <v>0.108831021794505</v>
-      </c>
-      <c r="N38">
-        <v>9.9433908859327194E-2</v>
-      </c>
-      <c r="O38">
-        <v>9.3301254835365693E-2</v>
-      </c>
-      <c r="P38">
-        <v>9.1063846993654496E-2</v>
-      </c>
-      <c r="Q38">
-        <v>8.6944523068209503E-2</v>
-      </c>
-      <c r="R38">
-        <v>8.4960845362773596E-2</v>
+      <c r="B44">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C44">
+        <v>0.49666666666666598</v>
+      </c>
+      <c r="D44">
+        <v>0.55249999999999899</v>
+      </c>
+      <c r="E44">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="F44">
+        <v>0.58633333333333304</v>
+      </c>
+      <c r="G44">
+        <v>0.56628571428571395</v>
+      </c>
+      <c r="H44">
+        <v>0.60449999999999904</v>
+      </c>
+      <c r="I44">
+        <v>0.62266666666666604</v>
+      </c>
+      <c r="K44">
+        <v>0.48671101047266802</v>
+      </c>
+      <c r="L44">
+        <v>0.505736390225482</v>
+      </c>
+      <c r="M44">
+        <v>0.52405887347864699</v>
+      </c>
+      <c r="N44">
+        <v>0.53844891027455399</v>
+      </c>
+      <c r="O44">
+        <v>0.55282573827719605</v>
+      </c>
+      <c r="P44">
+        <v>0.56153410699122897</v>
+      </c>
+      <c r="Q44">
+        <v>0.57407656382678396</v>
+      </c>
+      <c r="R44">
+        <v>0.58582885177847399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>0.13599999999999901</v>
+      </c>
+      <c r="C45">
+        <v>9.7999999999999907E-2</v>
+      </c>
+      <c r="D45">
+        <v>8.3499999999999894E-2</v>
+      </c>
+      <c r="E45">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="F45">
+        <v>7.2666666666666602E-2</v>
+      </c>
+      <c r="G45">
+        <v>7.4285714285714205E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.06</v>
+      </c>
+      <c r="I45">
+        <v>6.5111111111110995E-2</v>
+      </c>
+      <c r="K45">
+        <v>0.13274837248798399</v>
+      </c>
+      <c r="L45">
+        <v>0.102330408529114</v>
+      </c>
+      <c r="M45">
+        <v>8.6187376167563404E-2</v>
+      </c>
+      <c r="N45">
+        <v>7.7565808095107505E-2</v>
+      </c>
+      <c r="O45">
+        <v>7.1662420983119299E-2</v>
+      </c>
+      <c r="P45">
+        <v>6.9819255185797596E-2</v>
+      </c>
+      <c r="Q45">
+        <v>6.9264789131046195E-2</v>
+      </c>
+      <c r="R45">
+        <v>6.8015850551940898E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>0.153999999999999</v>
+      </c>
+      <c r="C46">
+        <v>0.117333333333333</v>
+      </c>
+      <c r="D46">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="E46">
+        <v>9.7999999999999907E-2</v>
+      </c>
+      <c r="F46">
+        <v>9.43333333333332E-2</v>
+      </c>
+      <c r="G46">
+        <v>9.05714285714284E-2</v>
+      </c>
+      <c r="H46">
+        <v>7.3749999999999996E-2</v>
+      </c>
+      <c r="I46">
+        <v>7.9555555555555504E-2</v>
+      </c>
+      <c r="K46">
+        <v>0.155448627228992</v>
+      </c>
+      <c r="L46">
+        <v>0.125068402679509</v>
+      </c>
+      <c r="M46">
+        <v>0.108986696858191</v>
+      </c>
+      <c r="N46">
+        <v>9.97905462779516E-2</v>
+      </c>
+      <c r="O46">
+        <v>9.2428530993494198E-2</v>
+      </c>
+      <c r="P46">
+        <v>8.9773967894547196E-2</v>
+      </c>
+      <c r="Q46">
+        <v>8.7768893291815503E-2</v>
+      </c>
+      <c r="R46">
+        <v>8.3995345472847094E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>0.151999999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.117333333333333</v>
+      </c>
+      <c r="D47">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="E47">
+        <v>0.100799999999999</v>
+      </c>
+      <c r="F47">
+        <v>9.43333333333332E-2</v>
+      </c>
+      <c r="G47">
+        <v>9.1714285714285596E-2</v>
+      </c>
+      <c r="H47">
+        <v>7.4749999999999997E-2</v>
+      </c>
+      <c r="I47">
+        <v>7.9999999999999905E-2</v>
+      </c>
+      <c r="K47">
+        <v>0.15564675912822801</v>
+      </c>
+      <c r="L47">
+        <v>0.126266628927268</v>
+      </c>
+      <c r="M47">
+        <v>0.109786300594392</v>
+      </c>
+      <c r="N47">
+        <v>0.100475516558166</v>
+      </c>
+      <c r="O47">
+        <v>9.2777620530242896E-2</v>
+      </c>
+      <c r="P47">
+        <v>9.0000404350816604E-2</v>
+      </c>
+      <c r="Q47">
+        <v>8.7751202943669601E-2</v>
+      </c>
+      <c r="R47">
+        <v>8.3923011604872005E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7492,701 +7914,1194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" activeCellId="1" sqref="N1:N13 S1:S13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>0.17</v>
-      </c>
-      <c r="B1">
-        <v>0.60274787911123895</v>
-      </c>
-      <c r="C1">
-        <v>0.98</v>
-      </c>
-      <c r="D1">
-        <v>0.378888888888888</v>
-      </c>
-      <c r="F1">
-        <v>0.17</v>
-      </c>
-      <c r="G1">
-        <v>0.68312189600276496</v>
-      </c>
-      <c r="H1">
-        <v>1.04</v>
-      </c>
-      <c r="I1">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="K1">
-        <v>0.218</v>
-      </c>
-      <c r="L1">
-        <v>0.54842579213940101</v>
-      </c>
-      <c r="M1">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="N1">
-        <v>0.35777777777777903</v>
-      </c>
-      <c r="P1">
-        <v>0.216</v>
-      </c>
-      <c r="Q1">
-        <v>0.59664144168975997</v>
-      </c>
-      <c r="R1">
-        <v>0.98</v>
-      </c>
-      <c r="S1">
-        <v>0.36059999999999898</v>
-      </c>
-      <c r="T1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="G5" s="3">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3">
+        <v>20</v>
+      </c>
+      <c r="N5" s="3">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3">
+        <v>30</v>
+      </c>
+      <c r="P5" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>40</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.19450000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.1305</v>
+      </c>
+      <c r="E7">
+        <v>0.114</v>
+      </c>
+      <c r="F7">
+        <v>0.1055</v>
+      </c>
+      <c r="G7">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="I7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.307</v>
+      </c>
+      <c r="C8">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.1915</v>
+      </c>
+      <c r="F8">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.1515</v>
+      </c>
+      <c r="H8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.13250000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0.185</v>
+      </c>
+      <c r="C9">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="D9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="H9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I9">
+        <v>4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C10">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.2465</v>
+      </c>
+      <c r="F10">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.1535</v>
+      </c>
+      <c r="I10">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.27</v>
+      </c>
+      <c r="F11">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.24</v>
+      </c>
+      <c r="E12">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.184</v>
+      </c>
+      <c r="G12">
+        <v>0.1905</v>
+      </c>
+      <c r="H12">
+        <v>0.1855</v>
+      </c>
+      <c r="I12">
         <v>0.15</v>
       </c>
-      <c r="B2">
-        <v>0.62595643924646804</v>
-      </c>
-      <c r="C2">
-        <v>1.01</v>
-      </c>
-      <c r="D2">
-        <v>0.39777777777777701</v>
-      </c>
-      <c r="F2">
-        <v>0.16</v>
-      </c>
-      <c r="G2">
-        <v>0.68227433371324697</v>
-      </c>
-      <c r="H2">
-        <v>1.03</v>
-      </c>
-      <c r="I2">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="K2">
-        <v>0.22</v>
-      </c>
-      <c r="L2">
-        <v>0.55607138831963898</v>
-      </c>
-      <c r="M2">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="N2">
-        <v>0.36822222222222201</v>
-      </c>
-      <c r="P2">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="Q2">
-        <v>0.59057875440340901</v>
-      </c>
-      <c r="R2">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="S2">
-        <v>0.37639999999999901</v>
-      </c>
-      <c r="T2" t="s">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.186</v>
+      </c>
+      <c r="G13">
+        <v>0.19</v>
+      </c>
+      <c r="H13">
+        <v>0.1835</v>
+      </c>
+      <c r="I13">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B3">
-        <v>0.53537721871912902</v>
-      </c>
-      <c r="C3">
-        <v>0.87</v>
-      </c>
-      <c r="D3">
-        <v>0.37555555555555498</v>
-      </c>
-      <c r="F3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G3">
-        <v>0.59172568005805604</v>
-      </c>
-      <c r="H3">
-        <v>0.93</v>
-      </c>
-      <c r="I3">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="K3">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="L3">
-        <v>0.47344888605907098</v>
-      </c>
-      <c r="M3">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="N3">
-        <v>0.34822222222222299</v>
-      </c>
-      <c r="P3">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="Q3">
-        <v>0.51734692994198805</v>
-      </c>
-      <c r="R3">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="S3">
-        <v>0.345799999999999</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="G16" s="3">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3">
+        <v>15</v>
+      </c>
+      <c r="M16" s="3">
+        <v>20</v>
+      </c>
+      <c r="N16" s="3">
+        <v>25</v>
+      </c>
+      <c r="O16" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0.16</v>
-      </c>
-      <c r="B4">
-        <v>0.624495533964188</v>
-      </c>
-      <c r="C4">
-        <v>1.02</v>
-      </c>
-      <c r="D4">
-        <v>0.38999999999999901</v>
-      </c>
-      <c r="F4">
-        <v>0.15</v>
-      </c>
-      <c r="G4">
-        <v>0.724358097937153</v>
-      </c>
-      <c r="H4">
+      <c r="P16" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>40</v>
+      </c>
+      <c r="R16" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.35038640441535501</v>
+      </c>
+      <c r="C17">
+        <v>0.38235746088237699</v>
+      </c>
+      <c r="D17">
+        <v>0.39861657020719299</v>
+      </c>
+      <c r="E17">
+        <v>0.40328575620586299</v>
+      </c>
+      <c r="F17">
+        <v>0.38580773804299801</v>
+      </c>
+      <c r="G17">
+        <v>0.40925078504212298</v>
+      </c>
+      <c r="H17">
+        <v>0.406263404457128</v>
+      </c>
+      <c r="I17">
+        <v>0.40371221339950802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.38691907430711903</v>
+      </c>
+      <c r="C18">
+        <v>0.41280344277092001</v>
+      </c>
+      <c r="D18">
+        <v>0.429067749143618</v>
+      </c>
+      <c r="E18">
+        <v>0.43898890650633698</v>
+      </c>
+      <c r="F18">
+        <v>0.42921890886303299</v>
+      </c>
+      <c r="G18">
+        <v>0.44212848792488402</v>
+      </c>
+      <c r="H18">
+        <v>0.453498176597878</v>
+      </c>
+      <c r="I18">
+        <v>0.44796774421328001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0.366601808303121</v>
+      </c>
+      <c r="C19">
+        <v>0.38119101902867403</v>
+      </c>
+      <c r="D19">
+        <v>0.39479619055867798</v>
+      </c>
+      <c r="E19">
+        <v>0.399104236909259</v>
+      </c>
+      <c r="F19">
+        <v>0.39237173480754001</v>
+      </c>
+      <c r="G19">
+        <v>0.40525185665058699</v>
+      </c>
+      <c r="H19">
+        <v>0.41596335936927697</v>
+      </c>
+      <c r="I19">
+        <v>0.40176966737457098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.47398576332528702</v>
+      </c>
+      <c r="C20">
+        <v>0.51743948971791998</v>
+      </c>
+      <c r="D20">
+        <v>0.53094463763469302</v>
+      </c>
+      <c r="E20">
+        <v>0.55558040989391499</v>
+      </c>
+      <c r="F20">
+        <v>0.54266895790272196</v>
+      </c>
+      <c r="G20">
+        <v>0.56653550962867905</v>
+      </c>
+      <c r="H20">
+        <v>0.56406763092104995</v>
+      </c>
+      <c r="I20">
+        <v>0.55962961139193801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.35668875046386</v>
+      </c>
+      <c r="C21">
+        <v>0.39992821205149498</v>
+      </c>
+      <c r="D21">
+        <v>0.42811924184615602</v>
+      </c>
+      <c r="E21">
+        <v>0.43913346477555798</v>
+      </c>
+      <c r="F21">
+        <v>0.44643445474757198</v>
+      </c>
+      <c r="G21">
+        <v>0.47880429609724501</v>
+      </c>
+      <c r="H21">
+        <v>0.48611384594559398</v>
+      </c>
+      <c r="I21">
+        <v>0.494829239006153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.29286314871112101</v>
+      </c>
+      <c r="C22">
+        <v>0.322633310820716</v>
+      </c>
+      <c r="D22">
+        <v>0.36217114860340499</v>
+      </c>
+      <c r="E22">
+        <v>0.39326456804665</v>
+      </c>
+      <c r="F22">
+        <v>0.38553562174661199</v>
+      </c>
+      <c r="G22">
+        <v>0.37684997900099299</v>
+      </c>
+      <c r="H22">
+        <v>0.39810674741914198</v>
+      </c>
+      <c r="I22">
+        <v>0.41030379770861802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.36310740203308101</v>
+      </c>
+      <c r="C23">
+        <v>0.40535182646039802</v>
+      </c>
+      <c r="D23">
+        <v>0.443243014747286</v>
+      </c>
+      <c r="E23">
+        <v>0.46244460545866001</v>
+      </c>
+      <c r="F23">
+        <v>0.45748063645069798</v>
+      </c>
+      <c r="G23">
+        <v>0.45229388362057199</v>
+      </c>
+      <c r="H23">
+        <v>0.46873161652335699</v>
+      </c>
+      <c r="I23">
+        <v>0.48714165704030199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0.360179624757404</v>
+      </c>
+      <c r="C24">
+        <v>0.41029089397437901</v>
+      </c>
+      <c r="D24">
+        <v>0.442764189009556</v>
+      </c>
+      <c r="E24">
+        <v>0.46859032183413601</v>
+      </c>
+      <c r="F24">
+        <v>0.46659979803546398</v>
+      </c>
+      <c r="G24">
+        <v>0.45926038264405</v>
+      </c>
+      <c r="H24">
+        <v>0.478125604352856</v>
+      </c>
+      <c r="I24">
+        <v>0.49647292208846799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3">
+        <v>25</v>
+      </c>
+      <c r="F28" s="3">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3">
+        <v>35</v>
+      </c>
+      <c r="H28" s="3">
+        <v>40</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="3">
+        <v>10</v>
+      </c>
+      <c r="L28" s="3">
+        <v>15</v>
+      </c>
+      <c r="M28" s="3">
+        <v>20</v>
+      </c>
+      <c r="N28" s="3">
+        <v>25</v>
+      </c>
+      <c r="O28" s="3">
+        <v>30</v>
+      </c>
+      <c r="P28" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>40</v>
+      </c>
+      <c r="R28" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="D29">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="E29">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="G29">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H29">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="I29">
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="C30">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D30">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E30">
+        <v>1.1245000000000001</v>
+      </c>
+      <c r="F30">
+        <v>1.1565000000000001</v>
+      </c>
+      <c r="G30">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="H30">
+        <v>1.2885</v>
+      </c>
+      <c r="I30">
+        <v>1.3294999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="C31">
+        <v>0.86</v>
+      </c>
+      <c r="D31">
+        <v>0.9385</v>
+      </c>
+      <c r="E31">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="F31">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="G31">
+        <v>1.099</v>
+      </c>
+      <c r="H31">
+        <v>1.1615</v>
+      </c>
+      <c r="I31">
+        <v>1.1944999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="C32">
+        <v>1.117</v>
+      </c>
+      <c r="D32">
+        <v>1.22</v>
+      </c>
+      <c r="E32">
+        <v>1.3835</v>
+      </c>
+      <c r="F32">
+        <v>1.393</v>
+      </c>
+      <c r="G32">
+        <v>1.4875</v>
+      </c>
+      <c r="H32">
+        <v>1.5455000000000001</v>
+      </c>
+      <c r="I32">
+        <v>1.5580000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="C33">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="D33">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="E33">
+        <v>0.94</v>
+      </c>
+      <c r="F33">
+        <v>0.998</v>
+      </c>
+      <c r="G33">
+        <v>1.077</v>
+      </c>
+      <c r="H33">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I4">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="K4">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.56615499456910601</v>
-      </c>
-      <c r="M4">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="N4">
-        <v>0.355333333333334</v>
-      </c>
-      <c r="P4">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="Q4">
-        <v>0.60203855292020203</v>
-      </c>
-      <c r="R4">
-        <v>1.022</v>
-      </c>
-      <c r="S4">
-        <v>0.36879999999999902</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="I33">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="C34">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="D34">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="E34">
+        <v>0.9</v>
+      </c>
+      <c r="F34">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="I34">
+        <v>1.0654999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>0.73450000000000004</v>
+      </c>
+      <c r="C35">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="E35">
+        <v>1.099</v>
+      </c>
+      <c r="F35">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="G35">
+        <v>1.1234999999999999</v>
+      </c>
+      <c r="H35">
+        <v>1.1924999999999999</v>
+      </c>
+      <c r="I35">
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="C36">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="D36">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="E36">
+        <v>1.0994999999999999</v>
+      </c>
+      <c r="F36">
+        <v>1.1294999999999999</v>
+      </c>
+      <c r="G36">
+        <v>1.1285000000000001</v>
+      </c>
+      <c r="H36">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="I36">
+        <v>1.288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>20</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25</v>
+      </c>
+      <c r="F39" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B5">
-        <v>0.65077981728119305</v>
-      </c>
-      <c r="C5">
-        <v>1.06</v>
-      </c>
-      <c r="D5">
-        <v>0.51111111111111096</v>
-      </c>
-      <c r="F5">
-        <v>0.18</v>
-      </c>
-      <c r="G5">
-        <v>0.74227855554145705</v>
-      </c>
-      <c r="H5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.495</v>
-      </c>
-      <c r="K5">
-        <v>0.17</v>
-      </c>
-      <c r="L5">
-        <v>0.62661690971114903</v>
-      </c>
-      <c r="M5">
-        <v>1.024</v>
-      </c>
-      <c r="N5">
-        <v>0.49866666666666598</v>
-      </c>
-      <c r="P5">
-        <v>0.16</v>
-      </c>
-      <c r="Q5">
-        <v>0.68029024389095005</v>
-      </c>
-      <c r="R5">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="S5">
-        <v>0.50139999999999996</v>
-      </c>
-      <c r="T5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0.63</v>
-      </c>
-      <c r="B6">
-        <v>0.30464256635547798</v>
-      </c>
-      <c r="C6">
-        <v>0.52</v>
-      </c>
-      <c r="D6">
-        <v>0.28888888888888797</v>
-      </c>
-      <c r="F6">
-        <v>0.53</v>
-      </c>
-      <c r="G6">
-        <v>0.39750182922166299</v>
-      </c>
-      <c r="H6">
-        <v>0.61</v>
-      </c>
-      <c r="I6">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="K6">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="L6">
-        <v>0.31888792279593298</v>
-      </c>
-      <c r="M6">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="N6">
-        <v>0.30933333333333402</v>
-      </c>
-      <c r="P6">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="Q6">
-        <v>0.36006600389917498</v>
-      </c>
-      <c r="R6">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="S6">
-        <v>0.311999999999998</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="G39" s="3">
+        <v>35</v>
+      </c>
+      <c r="H39" s="3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="3">
+        <v>10</v>
+      </c>
+      <c r="L39" s="3">
+        <v>15</v>
+      </c>
+      <c r="M39" s="3">
+        <v>20</v>
+      </c>
+      <c r="N39" s="3">
+        <v>25</v>
+      </c>
+      <c r="O39" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>0.52</v>
-      </c>
-      <c r="B7">
-        <v>0.47518142484326698</v>
-      </c>
-      <c r="C7">
-        <v>0.81</v>
-      </c>
-      <c r="D7">
-        <v>0.24666666666666601</v>
-      </c>
-      <c r="F7">
-        <v>0.37</v>
-      </c>
-      <c r="G7">
-        <v>0.533497649656555</v>
-      </c>
-      <c r="H7">
-        <v>0.91</v>
-      </c>
-      <c r="I7">
-        <v>0.253</v>
-      </c>
-      <c r="K7">
-        <v>0.45</v>
-      </c>
-      <c r="L7">
-        <v>0.44614200332034898</v>
-      </c>
-      <c r="M7">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="N7">
-        <v>0.24022222222219999</v>
-      </c>
-      <c r="P7">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="Q7">
-        <v>0.48204115089227501</v>
-      </c>
-      <c r="R7">
-        <v>0.89</v>
-      </c>
-      <c r="S7">
-        <v>0.24919999999999901</v>
-      </c>
-      <c r="T7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>0.5</v>
-      </c>
-      <c r="B8">
-        <v>0.38237567152298901</v>
-      </c>
-      <c r="C8">
-        <v>0.61</v>
-      </c>
-      <c r="D8">
-        <v>0.23555555555555499</v>
-      </c>
-      <c r="F8">
-        <v>0.36</v>
-      </c>
-      <c r="G8">
-        <v>0.54550622821856198</v>
-      </c>
-      <c r="H8">
-        <v>0.84</v>
-      </c>
-      <c r="I8">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="L8">
-        <v>0.36514942305623499</v>
-      </c>
-      <c r="M8">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="N8">
-        <v>0.22177777777777799</v>
-      </c>
-      <c r="P8">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="Q8">
-        <v>0.43694384696862498</v>
-      </c>
-      <c r="R8">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="S8">
-        <v>0.226799999999999</v>
-      </c>
-      <c r="T8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>0.5</v>
-      </c>
-      <c r="B9">
-        <v>0.45086469328865902</v>
-      </c>
-      <c r="C9">
-        <v>0.77</v>
-      </c>
-      <c r="D9">
-        <v>0.24777777777777699</v>
-      </c>
-      <c r="F9">
-        <v>0.35</v>
-      </c>
-      <c r="G9">
-        <v>0.54497247967457196</v>
-      </c>
-      <c r="H9">
-        <v>0.94</v>
-      </c>
-      <c r="I9">
-        <v>0.253</v>
-      </c>
-      <c r="K9">
-        <v>0.47</v>
-      </c>
-      <c r="L9">
-        <v>0.43237749804937498</v>
-      </c>
-      <c r="M9">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="N9">
-        <v>0.23488888888889001</v>
-      </c>
-      <c r="P9">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="Q9">
-        <v>0.478659788319102</v>
-      </c>
-      <c r="R9">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="S9">
-        <v>0.245199999999999</v>
-      </c>
-      <c r="T9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>0.52</v>
-      </c>
-      <c r="B10">
-        <v>0.42386646947937101</v>
-      </c>
-      <c r="C10">
-        <v>0.76</v>
-      </c>
-      <c r="D10">
-        <v>0.24222222222222201</v>
-      </c>
-      <c r="F10">
-        <v>0.37</v>
-      </c>
-      <c r="G10">
-        <v>0.52696315623219603</v>
-      </c>
-      <c r="H10">
-        <v>0.9</v>
-      </c>
-      <c r="I10">
-        <v>0.249</v>
-      </c>
-      <c r="K10">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="L10">
-        <v>0.41907064793360099</v>
-      </c>
-      <c r="M10">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.23200000000000101</v>
-      </c>
-      <c r="P10">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="Q10">
-        <v>0.47852481801014202</v>
-      </c>
-      <c r="R10">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="S10">
-        <v>0.244999999999999</v>
-      </c>
-      <c r="T10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>0.51</v>
-      </c>
-      <c r="B11">
-        <v>0.441584357378771</v>
-      </c>
-      <c r="C11">
-        <v>0.75</v>
-      </c>
-      <c r="D11">
-        <v>0.24444444444444399</v>
-      </c>
-      <c r="F11">
-        <v>0.35</v>
-      </c>
-      <c r="G11">
-        <v>0.54497247967457196</v>
-      </c>
-      <c r="H11">
-        <v>0.94</v>
-      </c>
-      <c r="I11">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.47</v>
-      </c>
-      <c r="L11">
-        <v>0.43135054880198898</v>
-      </c>
-      <c r="M11">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.23733333333333401</v>
-      </c>
-      <c r="P11">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="Q11">
-        <v>0.47846319948676203</v>
-      </c>
-      <c r="R11">
-        <v>0.88</v>
-      </c>
-      <c r="S11">
-        <v>0.25059999999999899</v>
-      </c>
-      <c r="T11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>0.63</v>
-      </c>
-      <c r="B12">
-        <v>0.30464256635547798</v>
-      </c>
-      <c r="C12">
-        <v>0.52</v>
-      </c>
-      <c r="D12">
-        <v>0.28888888888888797</v>
-      </c>
-      <c r="F12">
-        <v>0.52</v>
-      </c>
-      <c r="G12">
-        <v>0.40468014118409901</v>
-      </c>
-      <c r="H12">
-        <v>0.62</v>
-      </c>
-      <c r="I12">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="K12">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="L12">
-        <v>0.31633991150229102</v>
-      </c>
-      <c r="M12">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="N12">
-        <v>0.30955555555555597</v>
-      </c>
-      <c r="P12">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="Q12">
-        <v>0.35038847093476599</v>
-      </c>
-      <c r="R12">
-        <v>0.59</v>
-      </c>
-      <c r="S12">
-        <v>0.31059999999999799</v>
-      </c>
-      <c r="T12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>0.65</v>
-      </c>
-      <c r="B13">
-        <v>0.31841840868398902</v>
-      </c>
-      <c r="C13">
-        <v>0.51</v>
-      </c>
-      <c r="D13">
-        <v>0.18222222222222101</v>
-      </c>
-      <c r="F13">
-        <v>0.51</v>
-      </c>
-      <c r="G13">
-        <v>0.42529300562029698</v>
-      </c>
-      <c r="H13">
-        <v>0.69</v>
-      </c>
-      <c r="I13">
-        <v>0.188999999999999</v>
-      </c>
-      <c r="K13">
-        <v>0.62</v>
-      </c>
-      <c r="L13">
-        <v>0.293849262367679</v>
-      </c>
-      <c r="M13">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.183555555555557</v>
-      </c>
-      <c r="P13">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="Q13">
-        <v>0.33253433608627198</v>
-      </c>
-      <c r="R13">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="S13">
-        <v>0.18039999999999901</v>
-      </c>
-      <c r="T13" t="s">
-        <v>30</v>
+      <c r="P39" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>40</v>
+      </c>
+      <c r="R39" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.38550000000000401</v>
+      </c>
+      <c r="C40">
+        <v>0.35043333333333498</v>
+      </c>
+      <c r="D40">
+        <v>0.33645000000000003</v>
+      </c>
+      <c r="E40">
+        <v>0.33494000000000002</v>
+      </c>
+      <c r="F40">
+        <v>0.29873333333333502</v>
+      </c>
+      <c r="G40">
+        <v>0.30708571428571502</v>
+      </c>
+      <c r="H40">
+        <v>0.30137499999999701</v>
+      </c>
+      <c r="I40">
+        <v>0.29202222222222302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0.49535000000000201</v>
+      </c>
+      <c r="C41">
+        <v>0.48660000000000098</v>
+      </c>
+      <c r="D41">
+        <v>0.48809999999999798</v>
+      </c>
+      <c r="E41">
+        <v>0.47109999999999802</v>
+      </c>
+      <c r="F41">
+        <v>0.46543333333333298</v>
+      </c>
+      <c r="G41">
+        <v>0.46678571428571403</v>
+      </c>
+      <c r="H41">
+        <v>0.48216249999999899</v>
+      </c>
+      <c r="I41">
+        <v>0.47457777777777899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0.44680000000000403</v>
+      </c>
+      <c r="C42">
+        <v>0.42226666666667001</v>
+      </c>
+      <c r="D42">
+        <v>0.406249999999997</v>
+      </c>
+      <c r="E42">
+        <v>0.38819999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.380516666666667</v>
+      </c>
+      <c r="G42">
+        <v>0.37467142857142999</v>
+      </c>
+      <c r="H42">
+        <v>0.38452499999999801</v>
+      </c>
+      <c r="I42">
+        <v>0.37141111111111302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>0.479350000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.45849999999999902</v>
+      </c>
+      <c r="E43">
+        <v>0.48920000000000002</v>
+      </c>
+      <c r="F43">
+        <v>0.49186666666666601</v>
+      </c>
+      <c r="G43">
+        <v>0.47574285714285702</v>
+      </c>
+      <c r="H43">
+        <v>0.4834</v>
+      </c>
+      <c r="I43">
+        <v>0.49234444444444397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>0.36810000000000498</v>
+      </c>
+      <c r="C44">
+        <v>0.37916666666666998</v>
+      </c>
+      <c r="D44">
+        <v>0.40467499999999701</v>
+      </c>
+      <c r="E44">
+        <v>0.42151999999999801</v>
+      </c>
+      <c r="F44">
+        <v>0.42348333333333299</v>
+      </c>
+      <c r="G44">
+        <v>0.44608571428571497</v>
+      </c>
+      <c r="H44">
+        <v>0.468037499999998</v>
+      </c>
+      <c r="I44">
+        <v>0.47107777777777798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>0.224800000000002</v>
+      </c>
+      <c r="C45">
+        <v>0.200099999999996</v>
+      </c>
+      <c r="D45">
+        <v>0.188525000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.193580000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.176933333333334</v>
+      </c>
+      <c r="G45">
+        <v>0.18197142857142901</v>
+      </c>
+      <c r="H45">
+        <v>0.16919999999999899</v>
+      </c>
+      <c r="I45">
+        <v>0.17211111111111099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>0.26570000000000199</v>
+      </c>
+      <c r="C46">
+        <v>0.23409999999999601</v>
+      </c>
+      <c r="D46">
+        <v>0.22137500000000099</v>
+      </c>
+      <c r="E46">
+        <v>0.222000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.20578333333333401</v>
+      </c>
+      <c r="G46">
+        <v>0.205828571428572</v>
+      </c>
+      <c r="H46">
+        <v>0.192549999999999</v>
+      </c>
+      <c r="I46">
+        <v>0.19731111111111099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>0.25620000000000198</v>
+      </c>
+      <c r="C47">
+        <v>0.22949999999999601</v>
+      </c>
+      <c r="D47">
+        <v>0.21655000000000099</v>
+      </c>
+      <c r="E47">
+        <v>0.21910000000000099</v>
+      </c>
+      <c r="F47">
+        <v>0.20456666666666701</v>
+      </c>
+      <c r="G47">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="H47">
+        <v>0.19122499999999901</v>
+      </c>
+      <c r="I47">
+        <v>0.196211111111111</v>
       </c>
     </row>
   </sheetData>
@@ -8198,927 +9113,837 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>0.35</v>
+        <v>0.36449999999999999</v>
       </c>
       <c r="B1">
-        <v>0.27</v>
+        <v>0.35038640441535501</v>
       </c>
       <c r="C1">
-        <v>0.26</v>
+        <v>0.67449999999999999</v>
       </c>
       <c r="D1">
-        <v>0.27</v>
-      </c>
-      <c r="E1">
-        <v>0.17</v>
+        <v>0.38550000000000401</v>
       </c>
       <c r="F1">
-        <v>0.17</v>
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="G1">
+        <v>0.38235746088237699</v>
+      </c>
+      <c r="H1">
+        <v>0.76849999999999996</v>
       </c>
       <c r="I1">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="J1">
-        <v>0.28799999999999998</v>
+        <v>0.35043333333333498</v>
       </c>
       <c r="K1">
         <v>0.25600000000000001</v>
       </c>
       <c r="L1">
-        <v>0.22800000000000001</v>
+        <v>0.39861657020719299</v>
       </c>
       <c r="M1">
-        <v>0.218</v>
+        <v>0.83450000000000002</v>
       </c>
       <c r="N1">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0.33645000000000003</v>
+      </c>
+      <c r="P1">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>0.40328575620586299</v>
+      </c>
+      <c r="R1">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="S1">
+        <v>0.33494000000000002</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0.36</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="B2">
-        <v>0.32</v>
+        <v>0.38691907430711903</v>
       </c>
       <c r="C2">
-        <v>0.26</v>
+        <v>0.83950000000000002</v>
       </c>
       <c r="D2">
-        <v>0.26</v>
-      </c>
-      <c r="E2">
+        <v>0.49535000000000201</v>
+      </c>
+      <c r="F2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.41280344277092001</v>
+      </c>
+      <c r="H2">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.48660000000000098</v>
+      </c>
+      <c r="K2">
+        <v>0.1305</v>
+      </c>
+      <c r="L2">
+        <v>0.429067749143618</v>
+      </c>
+      <c r="M2">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.48809999999999798</v>
+      </c>
+      <c r="P2">
+        <v>0.114</v>
+      </c>
+      <c r="Q2">
+        <v>0.43898890650633698</v>
+      </c>
+      <c r="R2">
+        <v>1.1245000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.47109999999999802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.307</v>
+      </c>
+      <c r="B3">
+        <v>0.366601808303121</v>
+      </c>
+      <c r="C3">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.44680000000000403</v>
+      </c>
+      <c r="F3">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.38119101902867403</v>
+      </c>
+      <c r="H3">
+        <v>0.86</v>
+      </c>
+      <c r="I3">
+        <v>0.42226666666667001</v>
+      </c>
+      <c r="K3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.39479619055867798</v>
+      </c>
+      <c r="M3">
+        <v>0.9385</v>
+      </c>
+      <c r="N3">
+        <v>0.406249999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.1915</v>
+      </c>
+      <c r="Q3">
+        <v>0.399104236909259</v>
+      </c>
+      <c r="R3">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="S3">
+        <v>0.38819999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0.185</v>
+      </c>
+      <c r="B4">
+        <v>0.47398576332528702</v>
+      </c>
+      <c r="C4">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.479350000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.51743948971791998</v>
+      </c>
+      <c r="H4">
+        <v>1.117</v>
+      </c>
+      <c r="I4">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="K4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.53094463763469302</v>
+      </c>
+      <c r="M4">
+        <v>1.22</v>
+      </c>
+      <c r="N4">
+        <v>0.45849999999999902</v>
+      </c>
+      <c r="P4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.55558040989391499</v>
+      </c>
+      <c r="R4">
+        <v>1.3835</v>
+      </c>
+      <c r="S4">
+        <v>0.48920000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="B5">
+        <v>0.35668875046386</v>
+      </c>
+      <c r="C5">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.36810000000000498</v>
+      </c>
+      <c r="F5">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.39992821205149498</v>
+      </c>
+      <c r="H5">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.37916666666666998</v>
+      </c>
+      <c r="K5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.42811924184615602</v>
+      </c>
+      <c r="M5">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="N5">
+        <v>0.40467499999999701</v>
+      </c>
+      <c r="P5">
+        <v>0.2465</v>
+      </c>
+      <c r="Q5">
+        <v>0.43913346477555798</v>
+      </c>
+      <c r="R5">
+        <v>0.94</v>
+      </c>
+      <c r="S5">
+        <v>0.42151999999999801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="B6">
+        <v>0.29286314871112101</v>
+      </c>
+      <c r="C6">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.224800000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.322633310820716</v>
+      </c>
+      <c r="H6">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.200099999999996</v>
+      </c>
+      <c r="K6">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.36217114860340499</v>
+      </c>
+      <c r="M6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="N6">
+        <v>0.188525000000002</v>
+      </c>
+      <c r="P6">
+        <v>0.27</v>
+      </c>
+      <c r="Q6">
+        <v>0.39326456804665</v>
+      </c>
+      <c r="R6">
+        <v>0.9</v>
+      </c>
+      <c r="S6">
+        <v>0.193580000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="B7">
+        <v>0.36310740203308101</v>
+      </c>
+      <c r="C7">
+        <v>0.73450000000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.26570000000000199</v>
+      </c>
+      <c r="F7">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.40535182646039802</v>
+      </c>
+      <c r="H7">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.23409999999999601</v>
+      </c>
+      <c r="K7">
+        <v>0.24</v>
+      </c>
+      <c r="L7">
+        <v>0.443243014747286</v>
+      </c>
+      <c r="M7">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="N7">
+        <v>0.22137500000000099</v>
+      </c>
+      <c r="P7">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.46244460545866001</v>
+      </c>
+      <c r="R7">
+        <v>1.099</v>
+      </c>
+      <c r="S7">
+        <v>0.222000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.360179624757404</v>
+      </c>
+      <c r="C8">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.25620000000000198</v>
+      </c>
+      <c r="F8">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.41029089397437901</v>
+      </c>
+      <c r="H8">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.22949999999999601</v>
+      </c>
+      <c r="K8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.442764189009556</v>
+      </c>
+      <c r="M8">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.21655000000000099</v>
+      </c>
+      <c r="P8">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.46859032183413601</v>
+      </c>
+      <c r="R8">
+        <v>1.0994999999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.21910000000000099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="B11">
+        <v>0.38580773804299801</v>
+      </c>
+      <c r="C11">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.29873333333333502</v>
+      </c>
+      <c r="F11">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.40925078504212298</v>
+      </c>
+      <c r="H11">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I11">
+        <v>0.30708571428571502</v>
+      </c>
+      <c r="K11">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.406263404457128</v>
+      </c>
+      <c r="M11">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.30137499999999701</v>
+      </c>
+      <c r="P11">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.40371221339950802</v>
+      </c>
+      <c r="R11">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.29202222222222302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0.1055</v>
+      </c>
+      <c r="B12">
+        <v>0.42921890886303299</v>
+      </c>
+      <c r="C12">
+        <v>1.1565000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.46543333333333298</v>
+      </c>
+      <c r="F12">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.44212848792488402</v>
+      </c>
+      <c r="H12">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.46678571428571403</v>
+      </c>
+      <c r="K12">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.453498176597878</v>
+      </c>
+      <c r="M12">
+        <v>1.2885</v>
+      </c>
+      <c r="N12">
+        <v>0.48216249999999899</v>
+      </c>
+      <c r="P12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.44796774421328001</v>
+      </c>
+      <c r="R12">
+        <v>1.3294999999999999</v>
+      </c>
+      <c r="S12">
+        <v>0.47457777777777899</v>
+      </c>
+      <c r="T12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="B13">
+        <v>0.39237173480754001</v>
+      </c>
+      <c r="C13">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.380516666666667</v>
+      </c>
+      <c r="F13">
+        <v>0.1515</v>
+      </c>
+      <c r="G13">
+        <v>0.40525185665058699</v>
+      </c>
+      <c r="H13">
+        <v>1.099</v>
+      </c>
+      <c r="I13">
+        <v>0.37467142857142999</v>
+      </c>
+      <c r="K13">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.41596335936927697</v>
+      </c>
+      <c r="M13">
+        <v>1.1615</v>
+      </c>
+      <c r="N13">
+        <v>0.38452499999999801</v>
+      </c>
+      <c r="P13">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.40176966737457098</v>
+      </c>
+      <c r="R13">
+        <v>1.1944999999999999</v>
+      </c>
+      <c r="S13">
+        <v>0.37141111111111302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.54266895790272196</v>
+      </c>
+      <c r="C14">
+        <v>1.393</v>
+      </c>
+      <c r="D14">
+        <v>0.49186666666666601</v>
+      </c>
+      <c r="F14">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.56653550962867905</v>
+      </c>
+      <c r="H14">
+        <v>1.4875</v>
+      </c>
+      <c r="I14">
+        <v>0.47574285714285702</v>
+      </c>
+      <c r="K14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.56406763092104995</v>
+      </c>
+      <c r="M14">
+        <v>1.5455000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.4834</v>
+      </c>
+      <c r="P14">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.55962961139193801</v>
+      </c>
+      <c r="R14">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="S14">
+        <v>0.49234444444444397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="B15">
+        <v>0.44643445474757198</v>
+      </c>
+      <c r="C15">
+        <v>0.998</v>
+      </c>
+      <c r="D15">
+        <v>0.42348333333333299</v>
+      </c>
+      <c r="F15">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.47880429609724501</v>
+      </c>
+      <c r="H15">
+        <v>1.077</v>
+      </c>
+      <c r="I15">
+        <v>0.44608571428571497</v>
+      </c>
+      <c r="K15">
+        <v>0.1535</v>
+      </c>
+      <c r="L15">
+        <v>0.48611384594559398</v>
+      </c>
+      <c r="M15">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.468037499999998</v>
+      </c>
+      <c r="P15">
+        <v>0.1245</v>
+      </c>
+      <c r="Q15">
+        <v>0.494829239006153</v>
+      </c>
+      <c r="R15">
+        <v>1.19</v>
+      </c>
+      <c r="S15">
+        <v>0.47107777777777798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="B16">
+        <v>0.38553562174661199</v>
+      </c>
+      <c r="C16">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.176933333333334</v>
+      </c>
+      <c r="F16">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.37684997900099299</v>
+      </c>
+      <c r="H16">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.18197142857142901</v>
+      </c>
+      <c r="K16">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.39810674741914198</v>
+      </c>
+      <c r="M16">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.16919999999999899</v>
+      </c>
+      <c r="P16">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>0.41030379770861802</v>
+      </c>
+      <c r="R16">
+        <v>1.0654999999999999</v>
+      </c>
+      <c r="S16">
+        <v>0.17211111111111099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>0.184</v>
+      </c>
+      <c r="B17">
+        <v>0.45748063645069798</v>
+      </c>
+      <c r="C17">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.20578333333333401</v>
+      </c>
+      <c r="F17">
+        <v>0.1905</v>
+      </c>
+      <c r="G17">
+        <v>0.45229388362057199</v>
+      </c>
+      <c r="H17">
+        <v>1.1234999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.205828571428572</v>
+      </c>
+      <c r="K17">
+        <v>0.1855</v>
+      </c>
+      <c r="L17">
+        <v>0.46873161652335699</v>
+      </c>
+      <c r="M17">
+        <v>1.1924999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.192549999999999</v>
+      </c>
+      <c r="P17">
         <v>0.15</v>
       </c>
-      <c r="F2">
-        <v>0.16</v>
-      </c>
-      <c r="I2">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="J2">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="K2">
-        <v>0.248</v>
-      </c>
-      <c r="L2">
-        <v>0.214</v>
-      </c>
-      <c r="M2">
-        <v>0.22</v>
-      </c>
-      <c r="N2">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C3">
-        <v>0.27</v>
-      </c>
-      <c r="D3">
-        <v>0.23</v>
-      </c>
-      <c r="E3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I3">
-        <v>0.318</v>
-      </c>
-      <c r="J3">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="K3">
-        <v>0.318</v>
-      </c>
-      <c r="L3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M3">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="N3">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0.35</v>
-      </c>
-      <c r="B4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C4">
-        <v>0.27</v>
-      </c>
-      <c r="D4">
-        <v>0.25</v>
-      </c>
-      <c r="E4">
-        <v>0.16</v>
-      </c>
-      <c r="F4">
-        <v>0.15</v>
-      </c>
-      <c r="I4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="J4">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="K4">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="M4">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="N4">
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>0.25</v>
-      </c>
-      <c r="B5">
-        <v>0.23</v>
-      </c>
-      <c r="C5">
-        <v>0.24</v>
-      </c>
-      <c r="D5">
-        <v>0.22</v>
-      </c>
-      <c r="E5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.18</v>
-      </c>
-      <c r="I5">
-        <v>0.31</v>
-      </c>
-      <c r="J5">
-        <v>0.252</v>
-      </c>
-      <c r="K5">
-        <v>0.216</v>
-      </c>
-      <c r="L5">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="M5">
-        <v>0.17</v>
-      </c>
-      <c r="N5">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="B6">
-        <v>0.61</v>
-      </c>
-      <c r="C6">
-        <v>0.62</v>
-      </c>
-      <c r="D6">
-        <v>0.51</v>
-      </c>
-      <c r="E6">
-        <v>0.63</v>
-      </c>
-      <c r="F6">
-        <v>0.53</v>
-      </c>
-      <c r="I6">
-        <v>0.622</v>
-      </c>
-      <c r="J6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="K6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="L6">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="M6">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="N6">
-        <v>0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>0.53</v>
-      </c>
-      <c r="B7">
-        <v>0.46</v>
-      </c>
-      <c r="C7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D7">
-        <v>0.53</v>
-      </c>
-      <c r="E7">
-        <v>0.52</v>
-      </c>
-      <c r="F7">
-        <v>0.37</v>
-      </c>
-      <c r="I7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J7">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="K7">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="L7">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="M7">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="N7">
-        <v>0.39200000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>0.6</v>
-      </c>
-      <c r="B8">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C8">
-        <v>0.67</v>
-      </c>
-      <c r="D8">
-        <v>0.59</v>
-      </c>
-      <c r="E8">
-        <v>0.65</v>
-      </c>
-      <c r="F8">
-        <v>0.51</v>
-      </c>
-      <c r="I8">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="J8">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="L8">
-        <v>0.61</v>
-      </c>
-      <c r="M8">
-        <v>0.62</v>
-      </c>
-      <c r="N8">
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>0.7</v>
-      </c>
-      <c r="B11">
-        <v>0.82</v>
-      </c>
-      <c r="C11">
-        <v>0.8</v>
-      </c>
-      <c r="D11">
-        <v>0.84</v>
-      </c>
-      <c r="E11">
-        <v>0.98</v>
-      </c>
-      <c r="F11">
-        <v>1.04</v>
-      </c>
-      <c r="I11">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="J11">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="K11">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="L11">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="N11">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>0.69</v>
-      </c>
-      <c r="B12">
-        <v>0.76</v>
-      </c>
-      <c r="C12">
-        <v>0.8</v>
-      </c>
-      <c r="D12">
-        <v>0.82</v>
-      </c>
-      <c r="E12">
-        <v>1.01</v>
-      </c>
-      <c r="F12">
-        <v>1.03</v>
-      </c>
-      <c r="I12">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="J12">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="K12">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="L12">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="M12">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="N12">
-        <v>0.99399999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>0.78</v>
-      </c>
-      <c r="B13">
-        <v>0.8</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>0.91</v>
-      </c>
-      <c r="E13">
-        <v>0.87</v>
-      </c>
-      <c r="F13">
-        <v>0.93</v>
-      </c>
-      <c r="I13">
-        <v>0.74</v>
-      </c>
-      <c r="J13">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="K13">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="L13">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="M13">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="N13">
-        <v>0.88400000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>0.72</v>
-      </c>
-      <c r="B14">
-        <v>0.83</v>
-      </c>
-      <c r="C14">
-        <v>0.82</v>
-      </c>
-      <c r="D14">
-        <v>0.85</v>
-      </c>
-      <c r="E14">
-        <v>1.02</v>
-      </c>
-      <c r="F14">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="J14">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="K14">
-        <v>0.874</v>
-      </c>
-      <c r="L14">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="M14">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="N14">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>0.81</v>
-      </c>
-      <c r="B15">
-        <v>0.89</v>
-      </c>
-      <c r="C15">
-        <v>0.87</v>
-      </c>
-      <c r="D15">
-        <v>0.9</v>
-      </c>
-      <c r="E15">
-        <v>1.06</v>
-      </c>
-      <c r="F15">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.752</v>
-      </c>
-      <c r="J15">
-        <v>0.86</v>
-      </c>
-      <c r="K15">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="L15">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="M15">
-        <v>1.024</v>
-      </c>
-      <c r="N15">
-        <v>1.1060000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>0.49</v>
-      </c>
-      <c r="B16">
-        <v>0.43</v>
-      </c>
-      <c r="C16">
-        <v>0.51</v>
-      </c>
-      <c r="D16">
-        <v>0.62</v>
-      </c>
-      <c r="E16">
-        <v>0.52</v>
-      </c>
-      <c r="F16">
-        <v>0.61</v>
-      </c>
-      <c r="I16">
-        <v>0.438</v>
-      </c>
-      <c r="J16">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="K16">
-        <v>0.51</v>
-      </c>
-      <c r="L16">
-        <v>0.52</v>
-      </c>
-      <c r="M16">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="N16">
-        <v>0.60799999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>0.53</v>
-      </c>
-      <c r="B17">
-        <v>0.63</v>
-      </c>
-      <c r="C17">
-        <v>0.63</v>
-      </c>
-      <c r="D17">
-        <v>0.59</v>
-      </c>
-      <c r="E17">
-        <v>0.76</v>
-      </c>
-      <c r="F17">
-        <v>0.9</v>
-      </c>
-      <c r="I17">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="J17">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="K17">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="L17">
-        <v>0.752</v>
-      </c>
-      <c r="M17">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.88600000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="Q17">
+        <v>0.48714165704030199</v>
+      </c>
+      <c r="R17">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="S17">
+        <v>0.19731111111111099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>0.46</v>
+        <v>0.186</v>
       </c>
       <c r="B18">
-        <v>0.49</v>
+        <v>0.46659979803546398</v>
       </c>
       <c r="C18">
-        <v>0.44</v>
+        <v>1.1294999999999999</v>
       </c>
       <c r="D18">
-        <v>0.48</v>
-      </c>
-      <c r="E18">
-        <v>0.51</v>
+        <v>0.20456666666666701</v>
       </c>
       <c r="F18">
-        <v>0.69</v>
+        <v>0.19</v>
+      </c>
+      <c r="G18">
+        <v>0.45926038264405</v>
+      </c>
+      <c r="H18">
+        <v>1.1285000000000001</v>
       </c>
       <c r="I18">
-        <v>0.42</v>
-      </c>
-      <c r="J18">
-        <v>0.48399999999999999</v>
+        <v>0.20480000000000001</v>
       </c>
       <c r="K18">
-        <v>0.53800000000000003</v>
+        <v>0.1835</v>
       </c>
       <c r="L18">
-        <v>0.52400000000000002</v>
+        <v>0.478125604352856</v>
       </c>
       <c r="M18">
-        <v>0.50600000000000001</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="N18">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>0.46199999999999902</v>
-      </c>
-      <c r="B21">
-        <v>0.44666666666666599</v>
-      </c>
-      <c r="C21">
-        <v>0.41857142857142798</v>
-      </c>
-      <c r="D21">
-        <v>0.36375000000000002</v>
-      </c>
-      <c r="E21">
-        <v>0.378888888888888</v>
-      </c>
-      <c r="F21">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.45760000000000001</v>
-      </c>
-      <c r="J21">
-        <v>0.44</v>
-      </c>
-      <c r="K21">
-        <v>0.40971428571428398</v>
-      </c>
-      <c r="L21">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="M21">
-        <v>0.35777777777777903</v>
-      </c>
-      <c r="N21">
-        <v>0.36059999999999898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>0.45199999999999901</v>
-      </c>
-      <c r="B22">
-        <v>0.396666666666666</v>
-      </c>
-      <c r="C22">
-        <v>0.38857142857142801</v>
-      </c>
-      <c r="D22">
-        <v>0.39250000000000002</v>
-      </c>
-      <c r="E22">
-        <v>0.39777777777777701</v>
-      </c>
-      <c r="F22">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="J22">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="K22">
-        <v>0.40685714285714197</v>
-      </c>
-      <c r="L22">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="M22">
-        <v>0.36822222222222201</v>
-      </c>
-      <c r="N22">
-        <v>0.37639999999999901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>0.48</v>
-      </c>
-      <c r="B23">
-        <v>0.42166666666666602</v>
-      </c>
-      <c r="C23">
-        <v>0.4</v>
-      </c>
-      <c r="D23">
-        <v>0.37</v>
-      </c>
-      <c r="E23">
-        <v>0.37555555555555498</v>
-      </c>
-      <c r="F23">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="I23">
-        <v>0.44719999999999999</v>
-      </c>
-      <c r="J23">
-        <v>0.42066666666666602</v>
-      </c>
-      <c r="K23">
-        <v>0.39399999999999902</v>
-      </c>
-      <c r="L23">
-        <v>0.371</v>
-      </c>
-      <c r="M23">
-        <v>0.34822222222222299</v>
-      </c>
-      <c r="N23">
-        <v>0.345799999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>0.435999999999999</v>
-      </c>
-      <c r="B24">
-        <v>0.42333333333333301</v>
-      </c>
-      <c r="C24">
-        <v>0.377142857142857</v>
-      </c>
-      <c r="D24">
-        <v>0.3775</v>
-      </c>
-      <c r="E24">
-        <v>0.38999999999999901</v>
-      </c>
-      <c r="F24">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="I24">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="J24">
-        <v>0.41066666666666601</v>
-      </c>
-      <c r="K24">
-        <v>0.39914285714285602</v>
-      </c>
-      <c r="L24">
-        <v>0.38124999999999998</v>
-      </c>
-      <c r="M24">
-        <v>0.355333333333334</v>
-      </c>
-      <c r="N24">
-        <v>0.36879999999999902</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="B25">
-        <v>0.51833333333333298</v>
-      </c>
-      <c r="C25">
-        <v>0.51142857142857101</v>
-      </c>
-      <c r="D25">
-        <v>0.49625000000000002</v>
-      </c>
-      <c r="E25">
-        <v>0.51111111111111096</v>
-      </c>
-      <c r="F25">
-        <v>0.495</v>
-      </c>
-      <c r="I25">
-        <v>0.5232</v>
-      </c>
-      <c r="J25">
-        <v>0.52333333333333298</v>
-      </c>
-      <c r="K25">
-        <v>0.51171428571428501</v>
-      </c>
-      <c r="L25">
-        <v>0.499</v>
-      </c>
-      <c r="M25">
-        <v>0.49866666666666598</v>
-      </c>
-      <c r="N25">
-        <v>0.50139999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>0.371999999999999</v>
-      </c>
-      <c r="B26">
-        <v>0.37166666666666598</v>
-      </c>
-      <c r="C26">
-        <v>0.28142857142857097</v>
-      </c>
-      <c r="D26">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="E26">
-        <v>0.28888888888888797</v>
-      </c>
-      <c r="F26">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="I26">
-        <v>0.35999999999999899</v>
-      </c>
-      <c r="J26">
-        <v>0.34866666666666601</v>
-      </c>
-      <c r="K26">
-        <v>0.32485714285714101</v>
-      </c>
-      <c r="L26">
-        <v>0.30775000000000002</v>
-      </c>
-      <c r="M26">
-        <v>0.30933333333333402</v>
-      </c>
-      <c r="N26">
-        <v>0.311999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>0.33599999999999902</v>
-      </c>
-      <c r="B27">
-        <v>0.293333333333333</v>
-      </c>
-      <c r="C27">
-        <v>0.254285714285714</v>
-      </c>
-      <c r="D27">
-        <v>0.2525</v>
-      </c>
-      <c r="E27">
-        <v>0.24222222222222201</v>
-      </c>
-      <c r="F27">
-        <v>0.249</v>
-      </c>
-      <c r="I27">
-        <v>0.3236</v>
-      </c>
-      <c r="J27">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="K27">
-        <v>0.27971428571428503</v>
-      </c>
-      <c r="L27">
-        <v>0.25374999999999998</v>
-      </c>
-      <c r="M27">
-        <v>0.23200000000000101</v>
-      </c>
-      <c r="N27">
-        <v>0.244999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>0.309999999999999</v>
-      </c>
-      <c r="B28">
-        <v>0.24833333333333299</v>
-      </c>
-      <c r="C28">
-        <v>0.221428571428571</v>
-      </c>
-      <c r="D28">
-        <v>0.21</v>
-      </c>
-      <c r="E28">
-        <v>0.18222222222222101</v>
-      </c>
-      <c r="F28">
-        <v>0.188999999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="J28">
-        <v>0.26066666666666699</v>
-      </c>
-      <c r="K28">
-        <v>0.23257142857142801</v>
-      </c>
-      <c r="L28">
-        <v>0.20324999999999999</v>
-      </c>
-      <c r="M28">
-        <v>0.183555555555557</v>
-      </c>
-      <c r="N28">
-        <v>0.18039999999999901</v>
+        <v>0.19122499999999901</v>
+      </c>
+      <c r="P18">
+        <v>0.152</v>
+      </c>
+      <c r="Q18">
+        <v>0.49647292208846799</v>
+      </c>
+      <c r="R18">
+        <v>1.288</v>
+      </c>
+      <c r="S18">
+        <v>0.196211111111111</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SourceDetection/data/result.xlsx
+++ b/SourceDetection/data/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="scale-free SI" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="35">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>Graph size:  17903 197031</t>
+  </si>
+  <si>
+    <t>GSBA_old_RC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSBA_old_JC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M67" activeCellId="2" sqref="M55:R60 M64:R64 M67:R67"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T71" sqref="T71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1305,2248 +1313,2576 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>0.44</v>
+      </c>
+      <c r="E19">
+        <v>0.43</v>
+      </c>
+      <c r="F19">
+        <v>0.4</v>
+      </c>
+      <c r="G19">
+        <v>0.39</v>
+      </c>
+      <c r="H19">
+        <v>0.38</v>
+      </c>
+      <c r="I19">
+        <v>0.4</v>
+      </c>
+      <c r="M19">
+        <v>0.46</v>
+      </c>
+      <c r="N19">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="P19">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="Q19">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>0.39</v>
+      </c>
+      <c r="E20">
+        <v>0.38</v>
+      </c>
+      <c r="F20">
+        <v>0.43</v>
+      </c>
+      <c r="G20">
+        <v>0.37</v>
+      </c>
+      <c r="H20">
+        <v>0.31</v>
+      </c>
+      <c r="I20">
+        <v>0.35</v>
+      </c>
+      <c r="M20">
+        <v>0.432</v>
+      </c>
+      <c r="N20">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="O20">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="P20">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>0.35</v>
+      </c>
+      <c r="R20">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>6</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>7</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>9</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <v>10</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="3">
+      <c r="J23" s="5"/>
+      <c r="K23" s="3">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L23" s="3">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M23" s="3">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N23" s="3">
         <v>6</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O23" s="3">
         <v>7</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P23" s="3">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q23" s="3">
         <v>9</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R23" s="3">
         <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>0.25907415782587301</v>
-      </c>
-      <c r="C23">
-        <v>0.29617624039596802</v>
-      </c>
-      <c r="D23">
-        <v>0.42427212234286299</v>
-      </c>
-      <c r="E23">
-        <v>0.48210410709596002</v>
-      </c>
-      <c r="F23">
-        <v>0.494685010986185</v>
-      </c>
-      <c r="G23">
-        <v>0.49576765906569498</v>
-      </c>
-      <c r="H23">
-        <v>0.60274787911123895</v>
-      </c>
-      <c r="I23">
-        <v>0.68312189600276496</v>
-      </c>
-      <c r="K23">
-        <v>0.22295309823452999</v>
-      </c>
-      <c r="L23">
-        <v>0.353101759601188</v>
-      </c>
-      <c r="M23">
-        <v>0.43285750356422298</v>
-      </c>
-      <c r="N23">
-        <v>0.47733347883448701</v>
-      </c>
-      <c r="O23">
-        <v>0.50547837912017302</v>
-      </c>
-      <c r="P23">
-        <v>0.54807935061817603</v>
-      </c>
-      <c r="Q23">
-        <v>0.54842579213940101</v>
-      </c>
-      <c r="R23">
-        <v>0.59664144168975997</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>0.26584014652063398</v>
+        <v>0.25907415782587301</v>
       </c>
       <c r="C24">
-        <v>0.28732269415297901</v>
+        <v>0.29617624039596802</v>
       </c>
       <c r="D24">
-        <v>0.420775937777144</v>
+        <v>0.42427212234286299</v>
       </c>
       <c r="E24">
-        <v>0.459352975894249</v>
+        <v>0.48210410709596002</v>
       </c>
       <c r="F24">
         <v>0.494685010986185</v>
       </c>
       <c r="G24">
-        <v>0.49197256009401202</v>
+        <v>0.49576765906569498</v>
       </c>
       <c r="H24">
-        <v>0.62595643924646804</v>
+        <v>0.60274787911123895</v>
       </c>
       <c r="I24">
-        <v>0.68227433371324697</v>
+        <v>0.68312189600276496</v>
       </c>
       <c r="K24">
-        <v>0.22263083676770701</v>
+        <v>0.22295309823452999</v>
       </c>
       <c r="L24">
-        <v>0.33476938470597201</v>
+        <v>0.353101759601188</v>
       </c>
       <c r="M24">
-        <v>0.43055386616922398</v>
+        <v>0.43285750356422298</v>
       </c>
       <c r="N24">
-        <v>0.47360415920601601</v>
+        <v>0.47733347883448701</v>
       </c>
       <c r="O24">
-        <v>0.51159585783375106</v>
+        <v>0.50547837912017302</v>
       </c>
       <c r="P24">
-        <v>0.54823638011433495</v>
+        <v>0.54807935061817603</v>
       </c>
       <c r="Q24">
-        <v>0.55607138831963898</v>
+        <v>0.54842579213940101</v>
       </c>
       <c r="R24">
-        <v>0.59057875440340901</v>
+        <v>0.59664144168975997</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>0.26584014652063398</v>
       </c>
       <c r="C25">
-        <v>0.37511399247858102</v>
+        <v>0.28732269415297901</v>
       </c>
       <c r="D25">
-        <v>0.482985601437593</v>
+        <v>0.420775937777144</v>
       </c>
       <c r="E25">
-        <v>0.491692156535327</v>
+        <v>0.459352975894249</v>
       </c>
       <c r="F25">
-        <v>0.48191281603254099</v>
+        <v>0.494685010986185</v>
       </c>
       <c r="G25">
-        <v>0.53315666533102102</v>
+        <v>0.49197256009401202</v>
       </c>
       <c r="H25">
-        <v>0.53537721871912902</v>
+        <v>0.62595643924646804</v>
       </c>
       <c r="I25">
-        <v>0.59172568005805604</v>
+        <v>0.68227433371324697</v>
       </c>
       <c r="K25">
         <v>0.22263083676770701</v>
       </c>
       <c r="L25">
-        <v>0.35175013768882102</v>
+        <v>0.33476938470597201</v>
       </c>
       <c r="M25">
-        <v>0.44662048468636301</v>
+        <v>0.43055386616922398</v>
       </c>
       <c r="N25">
-        <v>0.47448302108053803</v>
+        <v>0.47360415920601601</v>
       </c>
       <c r="O25">
-        <v>0.48167408048271998</v>
+        <v>0.51159585783375106</v>
       </c>
       <c r="P25">
-        <v>0.52409949208084605</v>
+        <v>0.54823638011433495</v>
       </c>
       <c r="Q25">
-        <v>0.47344888605907098</v>
+        <v>0.55607138831963898</v>
       </c>
       <c r="R25">
-        <v>0.51734692994198805</v>
+        <v>0.59057875440340901</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>0.25907415782587301</v>
+        <v>0.26584014652063398</v>
       </c>
       <c r="C26">
-        <v>0.27629019231386298</v>
+        <v>0.37511399247858102</v>
       </c>
       <c r="D26">
-        <v>0.42949708988983398</v>
+        <v>0.482985601437593</v>
       </c>
       <c r="E26">
-        <v>0.48769463472284302</v>
+        <v>0.491692156535327</v>
       </c>
       <c r="F26">
-        <v>0.49852228948699101</v>
+        <v>0.48191281603254099</v>
       </c>
       <c r="G26">
-        <v>0.50352169702676597</v>
+        <v>0.53315666533102102</v>
       </c>
       <c r="H26">
-        <v>0.624495533964188</v>
+        <v>0.53537721871912902</v>
       </c>
       <c r="I26">
-        <v>0.724358097937153</v>
+        <v>0.59172568005805604</v>
       </c>
       <c r="K26">
-        <v>0.22295309823452999</v>
+        <v>0.22263083676770701</v>
       </c>
       <c r="L26">
-        <v>0.34655495915929102</v>
+        <v>0.35175013768882102</v>
       </c>
       <c r="M26">
-        <v>0.43061739482896599</v>
+        <v>0.44662048468636301</v>
       </c>
       <c r="N26">
-        <v>0.47753604439828101</v>
+        <v>0.47448302108053803</v>
       </c>
       <c r="O26">
-        <v>0.52431684869346495</v>
+        <v>0.48167408048271998</v>
       </c>
       <c r="P26">
-        <v>0.56945805784438297</v>
+        <v>0.52409949208084605</v>
       </c>
       <c r="Q26">
-        <v>0.56615499456910601</v>
+        <v>0.47344888605907098</v>
       </c>
       <c r="R26">
-        <v>0.60203855292020203</v>
+        <v>0.51734692994198805</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>0.24158275364960399</v>
+        <v>0.25907415782587301</v>
       </c>
       <c r="C27">
-        <v>0.38444149469793398</v>
+        <v>0.27629019231386298</v>
       </c>
       <c r="D27">
-        <v>0.498316623632311</v>
+        <v>0.42949708988983398</v>
       </c>
       <c r="E27">
-        <v>0.54853165646602198</v>
+        <v>0.48769463472284302</v>
       </c>
       <c r="F27">
-        <v>0.53204727528133799</v>
+        <v>0.49852228948699101</v>
       </c>
       <c r="G27">
-        <v>0.52381003557769001</v>
+        <v>0.50352169702676597</v>
       </c>
       <c r="H27">
-        <v>0.65077981728119305</v>
+        <v>0.624495533964188</v>
       </c>
       <c r="I27">
-        <v>0.74227855554145705</v>
+        <v>0.724358097937153</v>
       </c>
       <c r="K27">
-        <v>0.228041992671316</v>
+        <v>0.22295309823452999</v>
       </c>
       <c r="L27">
-        <v>0.35757879211773902</v>
+        <v>0.34655495915929102</v>
       </c>
       <c r="M27">
-        <v>0.46065475963040098</v>
+        <v>0.43061739482896599</v>
       </c>
       <c r="N27">
-        <v>0.52797460588118506</v>
+        <v>0.47753604439828101</v>
       </c>
       <c r="O27">
-        <v>0.55501213463577403</v>
+        <v>0.52431684869346495</v>
       </c>
       <c r="P27">
-        <v>0.598166055260965</v>
+        <v>0.56945805784438297</v>
       </c>
       <c r="Q27">
-        <v>0.62661690971114903</v>
+        <v>0.56615499456910601</v>
       </c>
       <c r="R27">
-        <v>0.68029024389095005</v>
+        <v>0.60203855292020203</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>0.164732237516654</v>
+        <v>0.24158275364960399</v>
       </c>
       <c r="C28">
-        <v>0.22196640176858301</v>
+        <v>0.38444149469793398</v>
       </c>
       <c r="D28">
-        <v>0.318725919072952</v>
+        <v>0.498316623632311</v>
       </c>
       <c r="E28">
-        <v>0.273707414568788</v>
+        <v>0.54853165646602198</v>
       </c>
       <c r="F28">
-        <v>0.33749646415341</v>
+        <v>0.53204727528133799</v>
       </c>
       <c r="G28">
-        <v>0.33686696657356102</v>
+        <v>0.52381003557769001</v>
       </c>
       <c r="H28">
-        <v>0.30464256635547798</v>
+        <v>0.65077981728119305</v>
       </c>
       <c r="I28">
-        <v>0.39750182922166299</v>
+        <v>0.74227855554145705</v>
       </c>
       <c r="K28">
-        <v>0.16852656355791201</v>
+        <v>0.228041992671316</v>
       </c>
       <c r="L28">
-        <v>0.20935573281216499</v>
+        <v>0.35757879211773902</v>
       </c>
       <c r="M28">
-        <v>0.27736494233995002</v>
+        <v>0.46065475963040098</v>
       </c>
       <c r="N28">
-        <v>0.28887183313416798</v>
+        <v>0.52797460588118506</v>
       </c>
       <c r="O28">
-        <v>0.31109406279562202</v>
+        <v>0.55501213463577403</v>
       </c>
       <c r="P28">
-        <v>0.31589685873416701</v>
+        <v>0.598166055260965</v>
       </c>
       <c r="Q28">
-        <v>0.31888792279593298</v>
+        <v>0.62661690971114903</v>
       </c>
       <c r="R28">
-        <v>0.36006600389917498</v>
+        <v>0.68029024389095005</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>0.255175707440295</v>
+        <v>0.164732237516654</v>
       </c>
       <c r="C29">
-        <v>0.31471663700817598</v>
+        <v>0.22196640176858301</v>
       </c>
       <c r="D29">
-        <v>0.35157350129623999</v>
+        <v>0.318725919072952</v>
       </c>
       <c r="E29">
-        <v>0.39601895464256698</v>
+        <v>0.273707414568788</v>
       </c>
       <c r="F29">
-        <v>0.38171011599031401</v>
+        <v>0.33749646415341</v>
       </c>
       <c r="G29">
-        <v>0.33072653012458803</v>
+        <v>0.33686696657356102</v>
       </c>
       <c r="H29">
-        <v>0.47518142484326698</v>
+        <v>0.30464256635547798</v>
       </c>
       <c r="I29">
-        <v>0.533497649656555</v>
+        <v>0.39750182922166299</v>
       </c>
       <c r="K29">
-        <v>0.20918578068787999</v>
+        <v>0.16852656355791201</v>
       </c>
       <c r="L29">
-        <v>0.258584026489107</v>
+        <v>0.20935573281216499</v>
       </c>
       <c r="M29">
-        <v>0.352563443829635</v>
+        <v>0.27736494233995002</v>
       </c>
       <c r="N29">
-        <v>0.37970350130936298</v>
+        <v>0.28887183313416798</v>
       </c>
       <c r="O29">
-        <v>0.38512435316819199</v>
+        <v>0.31109406279562202</v>
       </c>
       <c r="P29">
-        <v>0.46526228554027699</v>
+        <v>0.31589685873416701</v>
       </c>
       <c r="Q29">
-        <v>0.44614200332034898</v>
+        <v>0.31888792279593298</v>
       </c>
       <c r="R29">
-        <v>0.48204115089227501</v>
+        <v>0.36006600389917498</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>0.21000911896114399</v>
+        <v>0.255175707440295</v>
       </c>
       <c r="C30">
-        <v>0.227344871370215</v>
+        <v>0.31471663700817598</v>
       </c>
       <c r="D30">
-        <v>0.30672015686694398</v>
+        <v>0.35157350129623999</v>
       </c>
       <c r="E30">
-        <v>0.27713420785415499</v>
+        <v>0.39601895464256698</v>
       </c>
       <c r="F30">
-        <v>0.36476795184116201</v>
+        <v>0.38171011599031401</v>
       </c>
       <c r="G30">
-        <v>0.34848994386156001</v>
+        <v>0.33072653012458803</v>
       </c>
       <c r="H30">
-        <v>0.38237567152298901</v>
+        <v>0.47518142484326698</v>
       </c>
       <c r="I30">
-        <v>0.54550622821856198</v>
+        <v>0.533497649656555</v>
       </c>
       <c r="K30">
-        <v>0.175196191625311</v>
+        <v>0.20918578068787999</v>
       </c>
       <c r="L30">
-        <v>0.200520769913309</v>
+        <v>0.258584026489107</v>
       </c>
       <c r="M30">
-        <v>0.277176290046526</v>
+        <v>0.352563443829635</v>
       </c>
       <c r="N30">
-        <v>0.31755176743825397</v>
+        <v>0.37970350130936298</v>
       </c>
       <c r="O30">
-        <v>0.35362492859211397</v>
+        <v>0.38512435316819199</v>
       </c>
       <c r="P30">
-        <v>0.38058283535924797</v>
+        <v>0.46526228554027699</v>
       </c>
       <c r="Q30">
-        <v>0.36514942305623499</v>
+        <v>0.44614200332034898</v>
       </c>
       <c r="R30">
-        <v>0.43694384696862498</v>
+        <v>0.48204115089227501</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>0.217198700882139</v>
+        <v>0.21000911896114399</v>
       </c>
       <c r="C31">
-        <v>0.28505287442457</v>
+        <v>0.227344871370215</v>
       </c>
       <c r="D31">
-        <v>0.32836468996303197</v>
+        <v>0.30672015686694398</v>
       </c>
       <c r="E31">
-        <v>0.39728997368225699</v>
+        <v>0.27713420785415499</v>
       </c>
       <c r="F31">
-        <v>0.380757511226544</v>
+        <v>0.36476795184116201</v>
       </c>
       <c r="G31">
-        <v>0.39396981907354101</v>
+        <v>0.34848994386156001</v>
       </c>
       <c r="H31">
-        <v>0.45086469328865902</v>
+        <v>0.38237567152298901</v>
       </c>
       <c r="I31">
-        <v>0.54497247967457196</v>
+        <v>0.54550622821856198</v>
       </c>
       <c r="K31">
-        <v>0.19295334118096899</v>
+        <v>0.175196191625311</v>
       </c>
       <c r="L31">
-        <v>0.22501887129463299</v>
+        <v>0.200520769913309</v>
       </c>
       <c r="M31">
-        <v>0.32518522633361902</v>
+        <v>0.277176290046526</v>
       </c>
       <c r="N31">
-        <v>0.36733854142703198</v>
+        <v>0.31755176743825397</v>
       </c>
       <c r="O31">
-        <v>0.39273044110250699</v>
+        <v>0.35362492859211397</v>
       </c>
       <c r="P31">
-        <v>0.44760046748579801</v>
+        <v>0.38058283535924797</v>
       </c>
       <c r="Q31">
-        <v>0.43237749804937498</v>
+        <v>0.36514942305623499</v>
       </c>
       <c r="R31">
-        <v>0.478659788319102</v>
+        <v>0.43694384696862498</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>0.21368644861203601</v>
+        <v>0.217198700882139</v>
       </c>
       <c r="C32">
-        <v>0.29522665648213697</v>
+        <v>0.28505287442457</v>
       </c>
       <c r="D32">
-        <v>0.33122913247992702</v>
+        <v>0.32836468996303197</v>
       </c>
       <c r="E32">
-        <v>0.40646634787268998</v>
+        <v>0.39728997368225699</v>
       </c>
       <c r="F32">
-        <v>0.37042439778882003</v>
+        <v>0.380757511226544</v>
       </c>
       <c r="G32">
-        <v>0.34684980515529601</v>
+        <v>0.39396981907354101</v>
       </c>
       <c r="H32">
-        <v>0.42386646947937101</v>
+        <v>0.45086469328865902</v>
       </c>
       <c r="I32">
-        <v>0.52696315623219603</v>
+        <v>0.54497247967457196</v>
       </c>
       <c r="K32">
-        <v>0.177357241852859</v>
+        <v>0.19295334118096899</v>
       </c>
       <c r="L32">
-        <v>0.22810850049943601</v>
+        <v>0.22501887129463299</v>
       </c>
       <c r="M32">
-        <v>0.31093243334873299</v>
+        <v>0.32518522633361902</v>
       </c>
       <c r="N32">
-        <v>0.36817966411387498</v>
+        <v>0.36733854142703198</v>
       </c>
       <c r="O32">
-        <v>0.38917383581939202</v>
+        <v>0.39273044110250699</v>
       </c>
       <c r="P32">
-        <v>0.44352249993995502</v>
+        <v>0.44760046748579801</v>
       </c>
       <c r="Q32">
-        <v>0.41907064793360099</v>
+        <v>0.43237749804937498</v>
       </c>
       <c r="R32">
-        <v>0.47852481801014202</v>
+        <v>0.478659788319102</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>0.22599748407152101</v>
+        <v>0.21368644861203601</v>
       </c>
       <c r="C33">
-        <v>0.28505287442457</v>
+        <v>0.29522665648213697</v>
       </c>
       <c r="D33">
-        <v>0.31504181942246801</v>
+        <v>0.33122913247992702</v>
       </c>
       <c r="E33">
-        <v>0.39728997368225699</v>
+        <v>0.40646634787268998</v>
       </c>
       <c r="F33">
-        <v>0.37034812635394798</v>
+        <v>0.37042439778882003</v>
       </c>
       <c r="G33">
-        <v>0.38327793533005999</v>
+        <v>0.34684980515529601</v>
       </c>
       <c r="H33">
-        <v>0.441584357378771</v>
+        <v>0.42386646947937101</v>
       </c>
       <c r="I33">
-        <v>0.54497247967457196</v>
+        <v>0.52696315623219603</v>
       </c>
       <c r="K33">
-        <v>0.197232710593017</v>
+        <v>0.177357241852859</v>
       </c>
       <c r="L33">
-        <v>0.22535810131171599</v>
+        <v>0.22810850049943601</v>
       </c>
       <c r="M33">
-        <v>0.32251638156904799</v>
+        <v>0.31093243334873299</v>
       </c>
       <c r="N33">
-        <v>0.36767968194477602</v>
+        <v>0.36817966411387498</v>
       </c>
       <c r="O33">
-        <v>0.39412585441002101</v>
+        <v>0.38917383581939202</v>
       </c>
       <c r="P33">
-        <v>0.44706934699763601</v>
+        <v>0.44352249993995502</v>
       </c>
       <c r="Q33">
-        <v>0.43135054880198898</v>
+        <v>0.41907064793360099</v>
       </c>
       <c r="R33">
-        <v>0.47846319948676203</v>
+        <v>0.47852481801014202</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>0.14931991085388699</v>
+        <v>0.22599748407152101</v>
       </c>
       <c r="C34">
-        <v>0.22196640176858301</v>
+        <v>0.28505287442457</v>
       </c>
       <c r="D34">
-        <v>0.322205449449532</v>
+        <v>0.31504181942246801</v>
       </c>
       <c r="E34">
-        <v>0.273707414568788</v>
+        <v>0.39728997368225699</v>
       </c>
       <c r="F34">
-        <v>0.32335424685613601</v>
+        <v>0.37034812635394798</v>
       </c>
       <c r="G34">
-        <v>0.34675113044668598</v>
+        <v>0.38327793533005999</v>
       </c>
       <c r="H34">
-        <v>0.30464256635547798</v>
+        <v>0.441584357378771</v>
       </c>
       <c r="I34">
-        <v>0.40468014118409901</v>
+        <v>0.54497247967457196</v>
       </c>
       <c r="K34">
-        <v>0.167008477803613</v>
+        <v>0.197232710593017</v>
       </c>
       <c r="L34">
-        <v>0.20665009458165501</v>
+        <v>0.22535810131171599</v>
       </c>
       <c r="M34">
-        <v>0.278764789016617</v>
+        <v>0.32251638156904799</v>
       </c>
       <c r="N34">
-        <v>0.286364075963491</v>
+        <v>0.36767968194477602</v>
       </c>
       <c r="O34">
-        <v>0.30155336498955398</v>
+        <v>0.39412585441002101</v>
       </c>
       <c r="P34">
-        <v>0.314543430588485</v>
+        <v>0.44706934699763601</v>
       </c>
       <c r="Q34">
-        <v>0.31633991150229102</v>
+        <v>0.43135054880198898</v>
       </c>
       <c r="R34">
-        <v>0.35038847093476599</v>
+        <v>0.47846319948676203</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>0.14931991085388699</v>
+      </c>
+      <c r="C35">
+        <v>0.22196640176858301</v>
+      </c>
+      <c r="D35">
+        <v>0.322205449449532</v>
+      </c>
+      <c r="E35">
+        <v>0.273707414568788</v>
+      </c>
+      <c r="F35">
+        <v>0.32335424685613601</v>
+      </c>
+      <c r="G35">
+        <v>0.34675113044668598</v>
+      </c>
+      <c r="H35">
+        <v>0.30464256635547798</v>
+      </c>
+      <c r="I35">
+        <v>0.40468014118409901</v>
+      </c>
+      <c r="K35">
+        <v>0.167008477803613</v>
+      </c>
+      <c r="L35">
+        <v>0.20665009458165501</v>
+      </c>
+      <c r="M35">
+        <v>0.278764789016617</v>
+      </c>
+      <c r="N35">
+        <v>0.286364075963491</v>
+      </c>
+      <c r="O35">
+        <v>0.30155336498955398</v>
+      </c>
+      <c r="P35">
+        <v>0.314543430588485</v>
+      </c>
+      <c r="Q35">
+        <v>0.31633991150229102</v>
+      </c>
+      <c r="R35">
+        <v>0.35038847093476599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>0.17896835318028601</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>0.245226728210094</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>0.29109340204105799</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>0.31940855454636502</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>0.25563117677054897</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>0.27994653543664599</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>0.31841840868398902</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>0.42529300562029698</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>0.16677198749842501</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>0.20924224745225301</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <v>0.263719390962317</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>0.28666237398734501</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>0.31396927636076599</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <v>0.30908007270176802</v>
       </c>
-      <c r="Q35">
+      <c r="Q36">
         <v>0.293849262367679</v>
       </c>
-      <c r="R35">
+      <c r="R36">
         <v>0.33253433608627198</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <v>0.3911</v>
+      </c>
+      <c r="E37">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F37">
+        <v>0.433</v>
+      </c>
+      <c r="G37">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="H37">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="I37">
+        <v>0.51859999999999995</v>
+      </c>
+      <c r="M37">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.39319999999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="P37">
+        <v>0.46560000000000001</v>
+      </c>
+      <c r="Q37">
+        <v>0.46089999999999998</v>
+      </c>
+      <c r="R37">
+        <v>0.4743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="G38">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="H38">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="M38">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="N38">
+        <v>0.44990000000000002</v>
+      </c>
+      <c r="O38">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="P38">
+        <v>0.58889999999999998</v>
+      </c>
+      <c r="Q38">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="R38">
+        <v>0.60840000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B40" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+    <row r="41" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B41" s="3">
         <v>3</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C41" s="3">
         <v>4</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D41" s="3">
         <v>5</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E41" s="3">
         <v>6</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F41" s="3">
         <v>7</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G41" s="3">
         <v>8</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H41" s="3">
         <v>9</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I41" s="3">
         <v>10</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="3">
+      <c r="J41" s="5"/>
+      <c r="K41" s="3">
         <v>3</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L41" s="3">
         <v>4</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M41" s="3">
         <v>5</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N41" s="3">
         <v>6</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O41" s="3">
         <v>7</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P41" s="3">
         <v>8</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q41" s="3">
         <v>9</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R41" s="3">
         <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>0.42</v>
-      </c>
-      <c r="C39">
-        <v>0.53</v>
-      </c>
-      <c r="D39">
-        <v>0.7</v>
-      </c>
-      <c r="E39">
-        <v>0.82</v>
-      </c>
-      <c r="F39">
-        <v>0.8</v>
-      </c>
-      <c r="G39">
-        <v>0.84</v>
-      </c>
-      <c r="H39">
-        <v>0.98</v>
-      </c>
-      <c r="I39">
-        <v>1.04</v>
-      </c>
-      <c r="K39">
-        <v>0.374</v>
-      </c>
-      <c r="L39">
-        <v>0.59</v>
-      </c>
-      <c r="M39">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="N39">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="O39">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="P39">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="Q39">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="R39">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>0.43</v>
-      </c>
-      <c r="C40">
-        <v>0.52</v>
-      </c>
-      <c r="D40">
-        <v>0.69</v>
-      </c>
-      <c r="E40">
-        <v>0.76</v>
-      </c>
-      <c r="F40">
-        <v>0.8</v>
-      </c>
-      <c r="G40">
-        <v>0.82</v>
-      </c>
-      <c r="H40">
-        <v>1.01</v>
-      </c>
-      <c r="I40">
-        <v>1.03</v>
-      </c>
-      <c r="K40">
-        <v>0.374</v>
-      </c>
-      <c r="L40">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="M40">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="N40">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="O40">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="P40">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="Q40">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="R40">
-        <v>0.99399999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>0.43</v>
-      </c>
-      <c r="C41">
-        <v>0.64</v>
-      </c>
-      <c r="D41">
-        <v>0.78</v>
-      </c>
-      <c r="E41">
-        <v>0.8</v>
-      </c>
-      <c r="F41">
-        <v>0.8</v>
-      </c>
-      <c r="G41">
-        <v>0.91</v>
-      </c>
-      <c r="H41">
-        <v>0.87</v>
-      </c>
-      <c r="I41">
-        <v>0.93</v>
-      </c>
-      <c r="K41">
-        <v>0.374</v>
-      </c>
-      <c r="L41">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="M41">
-        <v>0.74</v>
-      </c>
-      <c r="N41">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="O41">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="P41">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="Q41">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="R41">
-        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>0.42</v>
       </c>
       <c r="C42">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="D42">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E42">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F42">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="G42">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="H42">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="I42">
-        <v>1.1399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="K42">
         <v>0.374</v>
       </c>
       <c r="L42">
-        <v>0.58599999999999997</v>
+        <v>0.59</v>
       </c>
       <c r="M42">
-        <v>0.71799999999999997</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="N42">
-        <v>0.80400000000000005</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="O42">
-        <v>0.874</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="P42">
-        <v>0.93400000000000005</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="Q42">
-        <v>0.96399999999999997</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="R42">
-        <v>1.022</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="C43">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="D43">
-        <v>0.81</v>
+        <v>0.69</v>
       </c>
       <c r="E43">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="F43">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="G43">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="H43">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="I43">
-        <v>1.1299999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="K43">
-        <v>0.378</v>
+        <v>0.374</v>
       </c>
       <c r="L43">
-        <v>0.6</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="M43">
-        <v>0.752</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="N43">
-        <v>0.86</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="O43">
-        <v>0.90400000000000003</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="P43">
-        <v>0.96199999999999997</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="Q43">
-        <v>1.024</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="R43">
-        <v>1.1060000000000001</v>
+        <v>0.99399999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="C44">
-        <v>0.38</v>
+        <v>0.64</v>
       </c>
       <c r="D44">
-        <v>0.49</v>
+        <v>0.78</v>
       </c>
       <c r="E44">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
       <c r="F44">
-        <v>0.51</v>
+        <v>0.8</v>
       </c>
       <c r="G44">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
       <c r="H44">
-        <v>0.52</v>
+        <v>0.87</v>
       </c>
       <c r="I44">
-        <v>0.61</v>
+        <v>0.93</v>
       </c>
       <c r="K44">
-        <v>0.27200000000000002</v>
+        <v>0.374</v>
       </c>
       <c r="L44">
-        <v>0.34</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="M44">
-        <v>0.438</v>
+        <v>0.74</v>
       </c>
       <c r="N44">
-        <v>0.47399999999999998</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="O44">
-        <v>0.51</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="P44">
-        <v>0.52</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="Q44">
-        <v>0.53200000000000003</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="R44">
-        <v>0.60799999999999998</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="C45">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="D45">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="E45">
-        <v>0.63</v>
+        <v>0.83</v>
       </c>
       <c r="F45">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="G45">
-        <v>0.57999999999999996</v>
+        <v>0.85</v>
       </c>
       <c r="H45">
-        <v>0.81</v>
+        <v>1.02</v>
       </c>
       <c r="I45">
-        <v>0.91</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K45">
-        <v>0.34399999999999997</v>
+        <v>0.374</v>
       </c>
       <c r="L45">
-        <v>0.442</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="M45">
-        <v>0.57799999999999996</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="N45">
-        <v>0.65800000000000003</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="O45">
-        <v>0.67400000000000004</v>
+        <v>0.874</v>
       </c>
       <c r="P45">
-        <v>0.79200000000000004</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="Q45">
-        <v>0.80200000000000005</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="R45">
-        <v>0.89</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="C46">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="D46">
-        <v>0.49</v>
+        <v>0.81</v>
       </c>
       <c r="E46">
-        <v>0.39</v>
+        <v>0.89</v>
       </c>
       <c r="F46">
-        <v>0.56999999999999995</v>
+        <v>0.87</v>
       </c>
       <c r="G46">
-        <v>0.61</v>
+        <v>0.9</v>
       </c>
       <c r="H46">
-        <v>0.61</v>
+        <v>1.06</v>
       </c>
       <c r="I46">
-        <v>0.84</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K46">
-        <v>0.27800000000000002</v>
+        <v>0.378</v>
       </c>
       <c r="L46">
-        <v>0.33200000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="M46">
-        <v>0.42799999999999999</v>
+        <v>0.752</v>
       </c>
       <c r="N46">
-        <v>0.50800000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="O46">
-        <v>0.56599999999999995</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="P46">
-        <v>0.6</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="Q46">
-        <v>0.59399999999999997</v>
+        <v>1.024</v>
       </c>
       <c r="R46">
-        <v>0.72799999999999998</v>
+        <v>1.1060000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="C47">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="D47">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="E47">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="F47">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="G47">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="H47">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
       <c r="I47">
-        <v>0.94</v>
+        <v>0.61</v>
       </c>
       <c r="K47">
-        <v>0.316</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="L47">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="M47">
-        <v>0.53400000000000003</v>
+        <v>0.438</v>
       </c>
       <c r="N47">
-        <v>0.63</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="O47">
-        <v>0.69399999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="P47">
-        <v>0.76600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="Q47">
-        <v>0.76400000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="R47">
-        <v>0.88200000000000001</v>
+        <v>0.60799999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="C48">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="D48">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="E48">
         <v>0.63</v>
       </c>
       <c r="F48">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="G48">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H48">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="I48">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="K48">
-        <v>0.28799999999999998</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="L48">
-        <v>0.39200000000000002</v>
+        <v>0.442</v>
       </c>
       <c r="M48">
-        <v>0.51800000000000002</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="N48">
-        <v>0.63400000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="O48">
-        <v>0.68799999999999994</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="P48">
-        <v>0.752</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="Q48">
-        <v>0.74399999999999999</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="R48">
-        <v>0.88600000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="C49">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="D49">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="E49">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
       <c r="F49">
-        <v>0.64</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G49">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="H49">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="I49">
-        <v>0.94</v>
+        <v>0.84</v>
       </c>
       <c r="K49">
-        <v>0.32200000000000001</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="L49">
-        <v>0.39200000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="M49">
-        <v>0.53</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="N49">
-        <v>0.63200000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="O49">
-        <v>0.69399999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="P49">
-        <v>0.75800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="Q49">
-        <v>0.76400000000000001</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="R49">
-        <v>0.88</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="C50">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="D50">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="E50">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="F50">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="G50">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="H50">
-        <v>0.52</v>
+        <v>0.77</v>
       </c>
       <c r="I50">
-        <v>0.62</v>
+        <v>0.94</v>
       </c>
       <c r="K50">
-        <v>0.26800000000000002</v>
+        <v>0.316</v>
       </c>
       <c r="L50">
-        <v>0.33400000000000002</v>
+        <v>0.39</v>
       </c>
       <c r="M50">
-        <v>0.44</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="N50">
-        <v>0.46400000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="O50">
-        <v>0.496</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="P50">
-        <v>0.51800000000000002</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="Q50">
-        <v>0.53400000000000003</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="R50">
-        <v>0.59</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>0.34</v>
+      </c>
+      <c r="C51">
+        <v>0.45</v>
+      </c>
+      <c r="D51">
+        <v>0.53</v>
+      </c>
+      <c r="E51">
+        <v>0.63</v>
+      </c>
+      <c r="F51">
+        <v>0.63</v>
+      </c>
+      <c r="G51">
+        <v>0.59</v>
+      </c>
+      <c r="H51">
+        <v>0.76</v>
+      </c>
+      <c r="I51">
+        <v>0.9</v>
+      </c>
+      <c r="K51">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L51">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="M51">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="N51">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="O51">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="P51">
+        <v>0.752</v>
+      </c>
+      <c r="Q51">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="R51">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>0.36</v>
+      </c>
+      <c r="C52">
+        <v>0.44</v>
+      </c>
+      <c r="D52">
+        <v>0.51</v>
+      </c>
+      <c r="E52">
+        <v>0.63</v>
+      </c>
+      <c r="F52">
+        <v>0.64</v>
+      </c>
+      <c r="G52">
+        <v>0.65</v>
+      </c>
+      <c r="H52">
+        <v>0.75</v>
+      </c>
+      <c r="I52">
+        <v>0.94</v>
+      </c>
+      <c r="K52">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="M52">
+        <v>0.53</v>
+      </c>
+      <c r="N52">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="P52">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="Q52">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="R52">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>0.24</v>
+      </c>
+      <c r="C53">
+        <v>0.38</v>
+      </c>
+      <c r="D53">
+        <v>0.49</v>
+      </c>
+      <c r="E53">
+        <v>0.43</v>
+      </c>
+      <c r="F53">
+        <v>0.49</v>
+      </c>
+      <c r="G53">
+        <v>0.64</v>
+      </c>
+      <c r="H53">
+        <v>0.52</v>
+      </c>
+      <c r="I53">
+        <v>0.62</v>
+      </c>
+      <c r="K53">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L53">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="M53">
+        <v>0.44</v>
+      </c>
+      <c r="N53">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="O53">
+        <v>0.496</v>
+      </c>
+      <c r="P53">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="Q53">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="R53">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>29</v>
       </c>
-      <c r="B51">
+      <c r="B54">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C51">
+      <c r="C54">
         <v>0.37</v>
       </c>
-      <c r="D51">
+      <c r="D54">
         <v>0.46</v>
       </c>
-      <c r="E51">
+      <c r="E54">
         <v>0.49</v>
       </c>
-      <c r="F51">
+      <c r="F54">
         <v>0.44</v>
       </c>
-      <c r="G51">
+      <c r="G54">
         <v>0.48</v>
       </c>
-      <c r="H51">
+      <c r="H54">
         <v>0.51</v>
       </c>
-      <c r="I51">
+      <c r="I54">
         <v>0.69</v>
       </c>
-      <c r="K51">
+      <c r="K54">
         <v>0.26400000000000001</v>
       </c>
-      <c r="L51">
+      <c r="L54">
         <v>0.34399999999999997</v>
       </c>
-      <c r="M51">
+      <c r="M54">
         <v>0.42</v>
       </c>
-      <c r="N51">
+      <c r="N54">
         <v>0.48399999999999999</v>
       </c>
-      <c r="O51">
+      <c r="O54">
         <v>0.53800000000000003</v>
       </c>
-      <c r="P51">
+      <c r="P54">
         <v>0.52400000000000002</v>
       </c>
-      <c r="Q51">
+      <c r="Q54">
         <v>0.50600000000000001</v>
       </c>
-      <c r="R51">
+      <c r="R54">
         <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B53" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="3">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3">
-        <v>4</v>
-      </c>
-      <c r="D54" s="3">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>6</v>
-      </c>
-      <c r="F54" s="3">
-        <v>7</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3">
-        <v>9</v>
-      </c>
-      <c r="I54" s="3">
-        <v>10</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="3">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
-        <v>6</v>
-      </c>
-      <c r="O54" s="3">
-        <v>7</v>
-      </c>
-      <c r="P54" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>9</v>
-      </c>
-      <c r="R54" s="3">
-        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>0.57666666666666699</v>
-      </c>
-      <c r="C55">
-        <v>0.49249999999999999</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>0.46199999999999902</v>
+        <v>0.61</v>
       </c>
       <c r="E55">
-        <v>0.44666666666666599</v>
+        <v>0.64</v>
       </c>
       <c r="F55">
-        <v>0.41857142857142798</v>
+        <v>0.71</v>
       </c>
       <c r="G55">
-        <v>0.36375000000000002</v>
-      </c>
-      <c r="H55">
-        <v>0.378888888888888</v>
+        <v>0.75</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.81</v>
       </c>
       <c r="I55">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="K55">
-        <v>0.53866666666666696</v>
-      </c>
-      <c r="L55">
-        <v>0.495</v>
+        <v>0.85</v>
       </c>
       <c r="M55">
-        <v>0.45760000000000001</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="N55">
-        <v>0.44</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="O55">
-        <v>0.40971428571428398</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="P55">
-        <v>0.38750000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="Q55">
-        <v>0.35777777777777903</v>
+        <v>0.754</v>
       </c>
       <c r="R55">
-        <v>0.36059999999999898</v>
+        <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>0.55666666666666698</v>
-      </c>
-      <c r="C56">
-        <v>0.4375</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>0.45199999999999901</v>
+        <v>0.69</v>
       </c>
       <c r="E56">
-        <v>0.396666666666666</v>
+        <v>0.74</v>
       </c>
       <c r="F56">
-        <v>0.38857142857142801</v>
+        <v>0.75</v>
       </c>
       <c r="G56">
-        <v>0.39250000000000002</v>
-      </c>
-      <c r="H56">
-        <v>0.39777777777777701</v>
+        <v>0.92</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I56">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="K56">
-        <v>0.51</v>
-      </c>
-      <c r="L56">
-        <v>0.46100000000000002</v>
+        <v>1.06</v>
       </c>
       <c r="M56">
-        <v>0.44440000000000002</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="N56">
-        <v>0.41499999999999998</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="O56">
-        <v>0.40685714285714197</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="P56">
-        <v>0.38800000000000001</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="Q56">
-        <v>0.36822222222222201</v>
+        <v>1.004</v>
       </c>
       <c r="R56">
-        <v>0.37639999999999901</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="B57" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="3">
         <v>3</v>
       </c>
-      <c r="B57">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C57">
-        <v>0.47749999999999998</v>
-      </c>
-      <c r="D57">
-        <v>0.48</v>
-      </c>
-      <c r="E57">
-        <v>0.42166666666666602</v>
-      </c>
-      <c r="F57">
-        <v>0.4</v>
-      </c>
-      <c r="G57">
-        <v>0.37</v>
-      </c>
-      <c r="H57">
-        <v>0.37555555555555498</v>
-      </c>
-      <c r="I57">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="K57">
-        <v>0.53800000000000103</v>
-      </c>
-      <c r="L57">
-        <v>0.47749999999999998</v>
-      </c>
-      <c r="M57">
-        <v>0.44719999999999999</v>
-      </c>
-      <c r="N57">
-        <v>0.42066666666666602</v>
-      </c>
-      <c r="O57">
-        <v>0.39399999999999902</v>
-      </c>
-      <c r="P57">
-        <v>0.371</v>
-      </c>
-      <c r="Q57">
-        <v>0.34822222222222299</v>
-      </c>
-      <c r="R57">
-        <v>0.345799999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="C58" s="3">
         <v>4</v>
       </c>
-      <c r="B58">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C58">
-        <v>0.435</v>
-      </c>
-      <c r="D58">
-        <v>0.435999999999999</v>
-      </c>
-      <c r="E58">
-        <v>0.42333333333333301</v>
-      </c>
-      <c r="F58">
-        <v>0.377142857142857</v>
-      </c>
-      <c r="G58">
-        <v>0.3775</v>
-      </c>
-      <c r="H58">
-        <v>0.38999999999999901</v>
-      </c>
-      <c r="I58">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="K58">
-        <v>0.51266666666666705</v>
-      </c>
-      <c r="L58">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="M58">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="N58">
-        <v>0.41066666666666601</v>
-      </c>
-      <c r="O58">
-        <v>0.39914285714285602</v>
-      </c>
-      <c r="P58">
-        <v>0.38124999999999998</v>
-      </c>
-      <c r="Q58">
-        <v>0.355333333333334</v>
-      </c>
-      <c r="R58">
-        <v>0.36879999999999902</v>
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>9</v>
+      </c>
+      <c r="I58" s="3">
+        <v>10</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="3">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
+        <v>6</v>
+      </c>
+      <c r="O58" s="3">
+        <v>7</v>
+      </c>
+      <c r="P58" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>9</v>
+      </c>
+      <c r="R58" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>0.53</v>
+        <v>0.57666666666666699</v>
       </c>
       <c r="C59">
-        <v>0.56499999999999995</v>
+        <v>0.49249999999999999</v>
       </c>
       <c r="D59">
-        <v>0.53200000000000003</v>
+        <v>0.46199999999999902</v>
       </c>
       <c r="E59">
-        <v>0.51833333333333298</v>
+        <v>0.44666666666666599</v>
       </c>
       <c r="F59">
-        <v>0.51142857142857101</v>
+        <v>0.41857142857142798</v>
       </c>
       <c r="G59">
-        <v>0.49625000000000002</v>
+        <v>0.36375000000000002</v>
       </c>
       <c r="H59">
-        <v>0.51111111111111096</v>
+        <v>0.378888888888888</v>
       </c>
       <c r="I59">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="K59">
+        <v>0.53866666666666696</v>
+      </c>
+      <c r="L59">
         <v>0.495</v>
       </c>
-      <c r="K59">
-        <v>0.53133333333333399</v>
-      </c>
-      <c r="L59">
-        <v>0.52749999999999997</v>
-      </c>
       <c r="M59">
-        <v>0.5232</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="N59">
-        <v>0.52333333333333298</v>
+        <v>0.44</v>
       </c>
       <c r="O59">
-        <v>0.51171428571428501</v>
+        <v>0.40971428571428398</v>
       </c>
       <c r="P59">
-        <v>0.499</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Q59">
-        <v>0.49866666666666598</v>
+        <v>0.35777777777777903</v>
       </c>
       <c r="R59">
-        <v>0.50139999999999996</v>
+        <v>0.36059999999999898</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>0.46333333333333299</v>
+        <v>0.55666666666666698</v>
       </c>
       <c r="C60">
+        <v>0.4375</v>
+      </c>
+      <c r="D60">
+        <v>0.45199999999999901</v>
+      </c>
+      <c r="E60">
+        <v>0.396666666666666</v>
+      </c>
+      <c r="F60">
+        <v>0.38857142857142801</v>
+      </c>
+      <c r="G60">
         <v>0.39250000000000002</v>
       </c>
-      <c r="D60">
-        <v>0.371999999999999</v>
-      </c>
-      <c r="E60">
-        <v>0.37166666666666598</v>
-      </c>
-      <c r="F60">
-        <v>0.28142857142857097</v>
-      </c>
-      <c r="G60">
-        <v>0.33500000000000002</v>
-      </c>
       <c r="H60">
-        <v>0.28888888888888797</v>
+        <v>0.39777777777777701</v>
       </c>
       <c r="I60">
-        <v>0.33200000000000002</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="K60">
-        <v>0.460666666666668</v>
+        <v>0.51</v>
       </c>
       <c r="L60">
-        <v>0.38850000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="M60">
-        <v>0.35999999999999899</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="N60">
-        <v>0.34866666666666601</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="O60">
-        <v>0.32485714285714101</v>
+        <v>0.40685714285714197</v>
       </c>
       <c r="P60">
-        <v>0.30775000000000002</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="Q60">
-        <v>0.30933333333333402</v>
+        <v>0.36822222222222201</v>
       </c>
       <c r="R60">
-        <v>0.311999999999998</v>
+        <v>0.37639999999999901</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>0.49</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C61">
-        <v>0.38250000000000001</v>
+        <v>0.47749999999999998</v>
       </c>
       <c r="D61">
-        <v>0.35399999999999898</v>
+        <v>0.48</v>
       </c>
       <c r="E61">
-        <v>0.30166666666666597</v>
+        <v>0.42166666666666602</v>
       </c>
       <c r="F61">
-        <v>0.26999999999999902</v>
+        <v>0.4</v>
       </c>
       <c r="G61">
-        <v>0.25624999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="H61">
-        <v>0.24666666666666601</v>
+        <v>0.37555555555555498</v>
       </c>
       <c r="I61">
-        <v>0.253</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="K61">
-        <v>0.45466666666666899</v>
+        <v>0.53800000000000103</v>
       </c>
       <c r="L61">
-        <v>0.3775</v>
+        <v>0.47749999999999998</v>
       </c>
       <c r="M61">
-        <v>0.3392</v>
+        <v>0.44719999999999999</v>
       </c>
       <c r="N61">
-        <v>0.30733333333333301</v>
+        <v>0.42066666666666602</v>
       </c>
       <c r="O61">
-        <v>0.28457142857142698</v>
+        <v>0.39399999999999902</v>
       </c>
       <c r="P61">
-        <v>0.25974999999999998</v>
+        <v>0.371</v>
       </c>
       <c r="Q61">
-        <v>0.24022222222219999</v>
+        <v>0.34822222222222299</v>
       </c>
       <c r="R61">
-        <v>0.24919999999999901</v>
+        <v>0.345799999999999</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>0.44666666666666699</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C62">
-        <v>0.35749999999999998</v>
+        <v>0.435</v>
       </c>
       <c r="D62">
-        <v>0.31999999999999901</v>
+        <v>0.435999999999999</v>
       </c>
       <c r="E62">
-        <v>0.25166666666666598</v>
+        <v>0.42333333333333301</v>
       </c>
       <c r="F62">
-        <v>0.247142857142856</v>
+        <v>0.377142857142857</v>
       </c>
       <c r="G62">
-        <v>0.25874999999999998</v>
+        <v>0.3775</v>
       </c>
       <c r="H62">
-        <v>0.23555555555555499</v>
+        <v>0.38999999999999901</v>
       </c>
       <c r="I62">
-        <v>0.23799999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="K62">
-        <v>0.42666666666666803</v>
+        <v>0.51266666666666705</v>
       </c>
       <c r="L62">
-        <v>0.34549999999999997</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="M62">
-        <v>0.30680000000000002</v>
+        <v>0.44040000000000001</v>
       </c>
       <c r="N62">
-        <v>0.28266666666666601</v>
+        <v>0.41066666666666601</v>
       </c>
       <c r="O62">
-        <v>0.26371428571428501</v>
+        <v>0.39914285714285602</v>
       </c>
       <c r="P62">
-        <v>0.23574999999999999</v>
+        <v>0.38124999999999998</v>
       </c>
       <c r="Q62">
-        <v>0.22177777777777799</v>
+        <v>0.355333333333334</v>
       </c>
       <c r="R62">
-        <v>0.226799999999999</v>
+        <v>0.36879999999999902</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>0.456666666666667</v>
+        <v>0.53</v>
       </c>
       <c r="C63">
-        <v>0.36249999999999999</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D63">
-        <v>0.33399999999999902</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="E63">
-        <v>0.293333333333333</v>
+        <v>0.51833333333333298</v>
       </c>
       <c r="F63">
-        <v>0.25714285714285601</v>
+        <v>0.51142857142857101</v>
       </c>
       <c r="G63">
-        <v>0.26124999999999998</v>
+        <v>0.49625000000000002</v>
       </c>
       <c r="H63">
-        <v>0.24777777777777699</v>
+        <v>0.51111111111111096</v>
       </c>
       <c r="I63">
-        <v>0.253</v>
+        <v>0.495</v>
       </c>
       <c r="K63">
-        <v>0.438000000000001</v>
+        <v>0.53133333333333399</v>
       </c>
       <c r="L63">
-        <v>0.35749999999999998</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="M63">
-        <v>0.32519999999999999</v>
+        <v>0.5232</v>
       </c>
       <c r="N63">
-        <v>0.3</v>
+        <v>0.52333333333333298</v>
       </c>
       <c r="O63">
-        <v>0.28114285714285597</v>
+        <v>0.51171428571428501</v>
       </c>
       <c r="P63">
-        <v>0.25474999999999998</v>
+        <v>0.499</v>
       </c>
       <c r="Q63">
-        <v>0.23488888888889001</v>
+        <v>0.49866666666666598</v>
       </c>
       <c r="R63">
-        <v>0.245199999999999</v>
+        <v>0.50139999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>0.45</v>
+        <v>0.46333333333333299</v>
       </c>
       <c r="C64">
-        <v>0.3725</v>
+        <v>0.39250000000000002</v>
       </c>
       <c r="D64">
-        <v>0.33599999999999902</v>
+        <v>0.371999999999999</v>
       </c>
       <c r="E64">
-        <v>0.293333333333333</v>
+        <v>0.37166666666666598</v>
       </c>
       <c r="F64">
-        <v>0.254285714285714</v>
+        <v>0.28142857142857097</v>
       </c>
       <c r="G64">
-        <v>0.2525</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H64">
-        <v>0.24222222222222201</v>
+        <v>0.28888888888888797</v>
       </c>
       <c r="I64">
-        <v>0.249</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="K64">
-        <v>0.42866666666666797</v>
+        <v>0.460666666666668</v>
       </c>
       <c r="L64">
-        <v>0.35599999999999998</v>
+        <v>0.38850000000000001</v>
       </c>
       <c r="M64">
-        <v>0.3236</v>
+        <v>0.35999999999999899</v>
       </c>
       <c r="N64">
-        <v>0.29699999999999999</v>
+        <v>0.34866666666666601</v>
       </c>
       <c r="O64">
-        <v>0.27971428571428503</v>
+        <v>0.32485714285714101</v>
       </c>
       <c r="P64">
-        <v>0.25374999999999998</v>
+        <v>0.30775000000000002</v>
       </c>
       <c r="Q64">
-        <v>0.23200000000000101</v>
+        <v>0.30933333333333402</v>
       </c>
       <c r="R64">
-        <v>0.244999999999999</v>
+        <v>0.311999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="C65">
-        <v>0.36249999999999999</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="D65">
-        <v>0.32799999999999901</v>
+        <v>0.35399999999999898</v>
       </c>
       <c r="E65">
-        <v>0.30666666666666598</v>
+        <v>0.30166666666666597</v>
       </c>
       <c r="F65">
-        <v>0.26428571428571401</v>
+        <v>0.26999999999999902</v>
       </c>
       <c r="G65">
-        <v>0.26374999999999998</v>
+        <v>0.25624999999999998</v>
       </c>
       <c r="H65">
-        <v>0.24444444444444399</v>
+        <v>0.24666666666666601</v>
       </c>
       <c r="I65">
-        <v>0.26400000000000001</v>
+        <v>0.253</v>
       </c>
       <c r="K65">
-        <v>0.440000000000001</v>
+        <v>0.45466666666666899</v>
       </c>
       <c r="L65">
-        <v>0.36049999999999999</v>
+        <v>0.3775</v>
       </c>
       <c r="M65">
-        <v>0.32799999999999901</v>
+        <v>0.3392</v>
       </c>
       <c r="N65">
-        <v>0.30099999999999999</v>
+        <v>0.30733333333333301</v>
       </c>
       <c r="O65">
-        <v>0.28257142857142797</v>
+        <v>0.28457142857142698</v>
       </c>
       <c r="P65">
-        <v>0.25324999999999998</v>
+        <v>0.25974999999999998</v>
       </c>
       <c r="Q65">
-        <v>0.23733333333333401</v>
+        <v>0.24022222222219999</v>
       </c>
       <c r="R65">
-        <v>0.25059999999999899</v>
+        <v>0.24919999999999901</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>0.46</v>
+        <v>0.44666666666666699</v>
       </c>
       <c r="C66">
-        <v>0.39250000000000002</v>
+        <v>0.35749999999999998</v>
       </c>
       <c r="D66">
-        <v>0.371999999999999</v>
+        <v>0.31999999999999901</v>
       </c>
       <c r="E66">
-        <v>0.37166666666666598</v>
+        <v>0.25166666666666598</v>
       </c>
       <c r="F66">
-        <v>0.27999999999999903</v>
+        <v>0.247142857142856</v>
       </c>
       <c r="G66">
-        <v>0.33500000000000002</v>
+        <v>0.25874999999999998</v>
       </c>
       <c r="H66">
-        <v>0.28888888888888797</v>
+        <v>0.23555555555555499</v>
       </c>
       <c r="I66">
-        <v>0.32900000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="K66">
-        <v>0.45933333333333398</v>
+        <v>0.42666666666666803</v>
       </c>
       <c r="L66">
-        <v>0.38700000000000001</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="M66">
-        <v>0.360399999999999</v>
+        <v>0.30680000000000002</v>
       </c>
       <c r="N66">
-        <v>0.34766666666666601</v>
+        <v>0.28266666666666601</v>
       </c>
       <c r="O66">
-        <v>0.32399999999999801</v>
+        <v>0.26371428571428501</v>
       </c>
       <c r="P66">
-        <v>0.30625000000000002</v>
+        <v>0.23574999999999999</v>
       </c>
       <c r="Q66">
-        <v>0.30955555555555597</v>
+        <v>0.22177777777777799</v>
       </c>
       <c r="R66">
-        <v>0.31059999999999799</v>
+        <v>0.226799999999999</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>0.456666666666667</v>
+      </c>
+      <c r="C67">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="D67">
+        <v>0.33399999999999902</v>
+      </c>
+      <c r="E67">
+        <v>0.293333333333333</v>
+      </c>
+      <c r="F67">
+        <v>0.25714285714285601</v>
+      </c>
+      <c r="G67">
+        <v>0.26124999999999998</v>
+      </c>
+      <c r="H67">
+        <v>0.24777777777777699</v>
+      </c>
+      <c r="I67">
+        <v>0.253</v>
+      </c>
+      <c r="K67">
+        <v>0.438000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="M67">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="N67">
+        <v>0.3</v>
+      </c>
+      <c r="O67">
+        <v>0.28114285714285597</v>
+      </c>
+      <c r="P67">
+        <v>0.25474999999999998</v>
+      </c>
+      <c r="Q67">
+        <v>0.23488888888889001</v>
+      </c>
+      <c r="R67">
+        <v>0.245199999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>0.45</v>
+      </c>
+      <c r="C68">
+        <v>0.3725</v>
+      </c>
+      <c r="D68">
+        <v>0.33599999999999902</v>
+      </c>
+      <c r="E68">
+        <v>0.293333333333333</v>
+      </c>
+      <c r="F68">
+        <v>0.254285714285714</v>
+      </c>
+      <c r="G68">
+        <v>0.2525</v>
+      </c>
+      <c r="H68">
+        <v>0.24222222222222201</v>
+      </c>
+      <c r="I68">
+        <v>0.249</v>
+      </c>
+      <c r="K68">
+        <v>0.42866666666666797</v>
+      </c>
+      <c r="L68">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="M68">
+        <v>0.3236</v>
+      </c>
+      <c r="N68">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="O68">
+        <v>0.27971428571428503</v>
+      </c>
+      <c r="P68">
+        <v>0.25374999999999998</v>
+      </c>
+      <c r="Q68">
+        <v>0.23200000000000101</v>
+      </c>
+      <c r="R68">
+        <v>0.244999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>0.46</v>
+      </c>
+      <c r="C69">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="D69">
+        <v>0.32799999999999901</v>
+      </c>
+      <c r="E69">
+        <v>0.30666666666666598</v>
+      </c>
+      <c r="F69">
+        <v>0.26428571428571401</v>
+      </c>
+      <c r="G69">
+        <v>0.26374999999999998</v>
+      </c>
+      <c r="H69">
+        <v>0.24444444444444399</v>
+      </c>
+      <c r="I69">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K69">
+        <v>0.440000000000001</v>
+      </c>
+      <c r="L69">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="M69">
+        <v>0.32799999999999901</v>
+      </c>
+      <c r="N69">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="O69">
+        <v>0.28257142857142797</v>
+      </c>
+      <c r="P69">
+        <v>0.25324999999999998</v>
+      </c>
+      <c r="Q69">
+        <v>0.23733333333333401</v>
+      </c>
+      <c r="R69">
+        <v>0.25059999999999899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>0.46</v>
+      </c>
+      <c r="C70">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="D70">
+        <v>0.371999999999999</v>
+      </c>
+      <c r="E70">
+        <v>0.37166666666666598</v>
+      </c>
+      <c r="F70">
+        <v>0.27999999999999903</v>
+      </c>
+      <c r="G70">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H70">
+        <v>0.28888888888888797</v>
+      </c>
+      <c r="I70">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="K70">
+        <v>0.45933333333333398</v>
+      </c>
+      <c r="L70">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="M70">
+        <v>0.360399999999999</v>
+      </c>
+      <c r="N70">
+        <v>0.34766666666666601</v>
+      </c>
+      <c r="O70">
+        <v>0.32399999999999801</v>
+      </c>
+      <c r="P70">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="Q70">
+        <v>0.30955555555555597</v>
+      </c>
+      <c r="R70">
+        <v>0.31059999999999799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>29</v>
       </c>
-      <c r="B67">
+      <c r="B71">
         <v>0.43</v>
       </c>
-      <c r="C67">
+      <c r="C71">
         <v>0.35749999999999998</v>
       </c>
-      <c r="D67">
+      <c r="D71">
         <v>0.309999999999999</v>
       </c>
-      <c r="E67">
+      <c r="E71">
         <v>0.24833333333333299</v>
       </c>
-      <c r="F67">
+      <c r="F71">
         <v>0.221428571428571</v>
       </c>
-      <c r="G67">
+      <c r="G71">
         <v>0.21</v>
       </c>
-      <c r="H67">
+      <c r="H71">
         <v>0.18222222222222101</v>
       </c>
-      <c r="I67">
+      <c r="I71">
         <v>0.188999999999999</v>
       </c>
-      <c r="K67">
+      <c r="K71">
         <v>0.421333333333335</v>
       </c>
-      <c r="L67">
+      <c r="L71">
         <v>0.34300000000000003</v>
       </c>
-      <c r="M67">
+      <c r="M71">
         <v>0.29599999999999999</v>
       </c>
-      <c r="N67">
+      <c r="N71">
         <v>0.26066666666666699</v>
       </c>
-      <c r="O67">
+      <c r="O71">
         <v>0.23257142857142801</v>
       </c>
-      <c r="P67">
+      <c r="P71">
         <v>0.20324999999999999</v>
       </c>
-      <c r="Q67">
+      <c r="Q71">
         <v>0.183555555555557</v>
       </c>
-      <c r="R67">
+      <c r="R71">
         <v>0.18039999999999901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72">
+        <v>0.434</v>
+      </c>
+      <c r="E72">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="F72">
+        <v>0.44</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="H72">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="I72">
+        <v>0.316</v>
+      </c>
+      <c r="M72">
+        <v>0.4264</v>
+      </c>
+      <c r="N72">
+        <v>0.40529999999999999</v>
+      </c>
+      <c r="O72">
+        <v>0.39140000000000003</v>
+      </c>
+      <c r="P72">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="Q72">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="R72">
+        <v>0.31419999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="E73">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="F73">
+        <v>0.37290000000000001</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H73">
+        <v>0.38109999999999999</v>
+      </c>
+      <c r="I73">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="M73">
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="N73">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="O73">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="P73">
+        <v>0.38869999999999999</v>
+      </c>
+      <c r="Q73">
+        <v>0.3589</v>
+      </c>
+      <c r="R73">
+        <v>0.33760000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7916,8 +8252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" activeCellId="1" sqref="D40:I42 D45:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7942,7 +8278,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -8234,7 +8570,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -8526,7 +8862,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -8818,7 +9154,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -9936,15 +10272,365 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H8"/>
+      <selection activeCell="F13" sqref="F13:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E1">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="F1">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="G1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="I1">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="K1">
+        <v>0.39861657020719299</v>
+      </c>
+      <c r="L1">
+        <v>0.40328575620586299</v>
+      </c>
+      <c r="M1">
+        <v>0.38580773804299801</v>
+      </c>
+      <c r="N1">
+        <v>0.40925078504212298</v>
+      </c>
+      <c r="O1">
+        <v>0.406263404457128</v>
+      </c>
+      <c r="P1">
+        <v>0.40371221339950802</v>
+      </c>
+    </row>
+    <row r="2" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>0.1305</v>
+      </c>
+      <c r="E2">
+        <v>0.114</v>
+      </c>
+      <c r="F2">
+        <v>0.1055</v>
+      </c>
+      <c r="G2">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H2">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="I2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.429067749143618</v>
+      </c>
+      <c r="L2">
+        <v>0.43898890650633698</v>
+      </c>
+      <c r="M2">
+        <v>0.42921890886303299</v>
+      </c>
+      <c r="N2">
+        <v>0.44212848792488402</v>
+      </c>
+      <c r="O2">
+        <v>0.453498176597878</v>
+      </c>
+      <c r="P2">
+        <v>0.44796774421328001</v>
+      </c>
+    </row>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.1915</v>
+      </c>
+      <c r="F3">
+        <v>0.17949999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.1515</v>
+      </c>
+      <c r="H3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.39479619055867798</v>
+      </c>
+      <c r="L3">
+        <v>0.399104236909259</v>
+      </c>
+      <c r="M3">
+        <v>0.39237173480754001</v>
+      </c>
+      <c r="N3">
+        <v>0.40525185665058699</v>
+      </c>
+      <c r="O3">
+        <v>0.41596335936927697</v>
+      </c>
+      <c r="P3">
+        <v>0.40176966737457098</v>
+      </c>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.27</v>
+      </c>
+      <c r="F4">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.36217114860340499</v>
+      </c>
+      <c r="L4">
+        <v>0.39326456804665</v>
+      </c>
+      <c r="M4">
+        <v>0.38553562174661199</v>
+      </c>
+      <c r="N4">
+        <v>0.37684997900099299</v>
+      </c>
+      <c r="O4">
+        <v>0.39810674741914198</v>
+      </c>
+      <c r="P4">
+        <v>0.41030379770861802</v>
+      </c>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>0.24</v>
+      </c>
+      <c r="E5">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.184</v>
+      </c>
+      <c r="G5">
+        <v>0.1905</v>
+      </c>
+      <c r="H5">
+        <v>0.1855</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+      <c r="K5">
+        <v>0.443243014747286</v>
+      </c>
+      <c r="L5">
+        <v>0.46244460545866001</v>
+      </c>
+      <c r="M5">
+        <v>0.45748063645069798</v>
+      </c>
+      <c r="N5">
+        <v>0.45229388362057199</v>
+      </c>
+      <c r="O5">
+        <v>0.46873161652335699</v>
+      </c>
+      <c r="P5">
+        <v>0.48714165704030199</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.186</v>
+      </c>
+      <c r="G6">
+        <v>0.19</v>
+      </c>
+      <c r="H6">
+        <v>0.1835</v>
+      </c>
+      <c r="I6">
+        <v>0.152</v>
+      </c>
+      <c r="K6">
+        <v>0.442764189009556</v>
+      </c>
+      <c r="L6">
+        <v>0.46859032183413601</v>
+      </c>
+      <c r="M6">
+        <v>0.46659979803546398</v>
+      </c>
+      <c r="N6">
+        <v>0.45926038264405</v>
+      </c>
+      <c r="O6">
+        <v>0.478125604352856</v>
+      </c>
+      <c r="P6">
+        <v>0.49647292208846799</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>0.33645000000000003</v>
+      </c>
+      <c r="G13">
+        <v>0.33494000000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.29873333333333502</v>
+      </c>
+      <c r="I13">
+        <v>0.30708571428571502</v>
+      </c>
+      <c r="J13">
+        <v>0.30137499999999701</v>
+      </c>
+      <c r="K13">
+        <v>0.29202222222222302</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="F14">
+        <v>0.48809999999999798</v>
+      </c>
+      <c r="G14">
+        <v>0.47109999999999802</v>
+      </c>
+      <c r="H14">
+        <v>0.46543333333333298</v>
+      </c>
+      <c r="I14">
+        <v>0.46678571428571403</v>
+      </c>
+      <c r="J14">
+        <v>0.48216249999999899</v>
+      </c>
+      <c r="K14">
+        <v>0.47457777777777899</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="F15">
+        <v>0.406249999999997</v>
+      </c>
+      <c r="G15">
+        <v>0.38819999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.380516666666667</v>
+      </c>
+      <c r="I15">
+        <v>0.37467142857142999</v>
+      </c>
+      <c r="J15">
+        <v>0.38452499999999801</v>
+      </c>
+      <c r="K15">
+        <v>0.37141111111111302</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="F16">
+        <v>0.188525000000002</v>
+      </c>
+      <c r="G16">
+        <v>0.193580000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.176933333333334</v>
+      </c>
+      <c r="I16">
+        <v>0.18197142857142901</v>
+      </c>
+      <c r="J16">
+        <v>0.16919999999999899</v>
+      </c>
+      <c r="K16">
+        <v>0.17211111111111099</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F17">
+        <v>0.22137500000000099</v>
+      </c>
+      <c r="G17">
+        <v>0.222000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.20578333333333401</v>
+      </c>
+      <c r="I17">
+        <v>0.205828571428572</v>
+      </c>
+      <c r="J17">
+        <v>0.192549999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.19731111111111099</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F18">
+        <v>0.21655000000000099</v>
+      </c>
+      <c r="G18">
+        <v>0.21910000000000099</v>
+      </c>
+      <c r="H18">
+        <v>0.20456666666666701</v>
+      </c>
+      <c r="I18">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.19122499999999901</v>
+      </c>
+      <c r="K18">
+        <v>0.196211111111111</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>